--- a/docs/songlist/songlist.xlsx
+++ b/docs/songlist/songlist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Backup\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarilotus\Github\ez2on\docs\songlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737EF622-0BD4-4BBD-9F4A-DB454216395C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361B46A6-1CA2-4671-8084-794220BEF367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2476,9 +2476,6 @@
     <t>Wings of Wind</t>
   </si>
   <si>
-    <t>o2_christmasmemory</t>
-  </si>
-  <si>
     <t>Christmas Memories</t>
   </si>
   <si>
@@ -2966,6 +2963,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2_Christmasmemory</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4001,10 +4002,10 @@
   <dimension ref="A1:AM378"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D185" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V201" sqref="V201"/>
+      <selection pane="bottomRight" activeCell="C343" sqref="C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4023,121 +4024,121 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>852</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>854</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>855</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>858</v>
-      </c>
       <c r="H1" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>862</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>868</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>870</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>878</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>879</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="9" t="s">
         <v>881</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>882</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>883</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>884</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AF1" s="10" t="s">
         <v>885</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>886</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>887</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>888</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>891</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>892</v>
-      </c>
-      <c r="AM1" s="11" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -12478,10 +12479,10 @@
         <v>165</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E72" s="7" t="s">
         <v>166</v>
@@ -12597,10 +12598,10 @@
         <v>165</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E73" s="7" t="s">
         <v>167</v>
@@ -28201,52 +28202,52 @@
         <v>4</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="M204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="N204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="O204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="P204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="Q204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="R204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="S204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="T204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="U204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="V204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="W204" s="6" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="X204" s="8">
         <v>16</v>
@@ -37825,7 +37826,7 @@
         <v>644</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D285" s="7" t="s">
         <v>645</v>
@@ -45322,10 +45323,10 @@
         <v>758</v>
       </c>
       <c r="C348" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="D348" s="7" t="s">
         <v>817</v>
-      </c>
-      <c r="D348" s="7" t="s">
-        <v>818</v>
       </c>
       <c r="E348" s="7" t="s">
         <v>761</v>
@@ -45334,7 +45335,7 @@
         <v>174</v>
       </c>
       <c r="G348" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H348" s="6">
         <v>2</v>
@@ -45438,22 +45439,22 @@
         <v>348</v>
       </c>
       <c r="B349" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="C349" s="7" t="s">
         <v>820</v>
       </c>
-      <c r="C349" s="7" t="s">
+      <c r="D349" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="D349" s="7" t="s">
+      <c r="E349" s="7" t="s">
         <v>822</v>
-      </c>
-      <c r="E349" s="7" t="s">
-        <v>823</v>
       </c>
       <c r="F349" s="6">
         <v>185</v>
       </c>
       <c r="G349" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H349" s="6">
         <v>5</v>
@@ -45557,16 +45558,16 @@
         <v>349</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C350" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="D350" s="7" t="s">
         <v>825</v>
       </c>
-      <c r="D350" s="7" t="s">
+      <c r="E350" s="7" t="s">
         <v>826</v>
-      </c>
-      <c r="E350" s="7" t="s">
-        <v>827</v>
       </c>
       <c r="F350" s="6">
         <v>174</v>
@@ -45676,16 +45677,16 @@
         <v>350</v>
       </c>
       <c r="B351" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C351" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="D351" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="D351" s="7" t="s">
+      <c r="E351" s="7" t="s">
         <v>829</v>
-      </c>
-      <c r="E351" s="7" t="s">
-        <v>830</v>
       </c>
       <c r="F351" s="6">
         <v>128</v>
@@ -45795,22 +45796,22 @@
         <v>351</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C352" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D352" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="D352" s="7" t="s">
+      <c r="E352" s="7" t="s">
         <v>832</v>
-      </c>
-      <c r="E352" s="7" t="s">
-        <v>833</v>
       </c>
       <c r="F352" s="6">
         <v>192</v>
       </c>
       <c r="G352" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H352" s="6">
         <v>5</v>
@@ -45914,13 +45915,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C353" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="D353" s="7" t="s">
         <v>835</v>
-      </c>
-      <c r="D353" s="7" t="s">
-        <v>836</v>
       </c>
       <c r="E353" s="7" t="s">
         <v>680</v>
@@ -46033,16 +46034,16 @@
         <v>353</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C354" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="D354" s="7" t="s">
         <v>837</v>
       </c>
-      <c r="D354" s="7" t="s">
+      <c r="E354" s="7" t="s">
         <v>838</v>
-      </c>
-      <c r="E354" s="7" t="s">
-        <v>839</v>
       </c>
       <c r="F354" s="6">
         <v>175</v>
@@ -46152,16 +46153,16 @@
         <v>354</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C355" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="D355" s="7" t="s">
         <v>840</v>
       </c>
-      <c r="D355" s="7" t="s">
+      <c r="E355" s="7" t="s">
         <v>841</v>
-      </c>
-      <c r="E355" s="7" t="s">
-        <v>842</v>
       </c>
       <c r="F355" s="6">
         <v>189</v>
@@ -46271,16 +46272,16 @@
         <v>355</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C356" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="D356" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="D356" s="7" t="s">
+      <c r="E356" s="7" t="s">
         <v>844</v>
-      </c>
-      <c r="E356" s="7" t="s">
-        <v>845</v>
       </c>
       <c r="F356" s="6">
         <v>188</v>
@@ -46390,16 +46391,16 @@
         <v>356</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C357" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D357" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="D357" s="7" t="s">
+      <c r="E357" s="7" t="s">
         <v>847</v>
-      </c>
-      <c r="E357" s="7" t="s">
-        <v>848</v>
       </c>
       <c r="F357" s="6">
         <v>210</v>
@@ -46509,16 +46510,16 @@
         <v>357</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C358" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="D358" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="D358" s="7" t="s">
+      <c r="E358" s="7" t="s">
         <v>850</v>
-      </c>
-      <c r="E358" s="7" t="s">
-        <v>851</v>
       </c>
       <c r="F358" s="6">
         <v>174</v>
@@ -46628,16 +46629,16 @@
         <v>358</v>
       </c>
       <c r="B359" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="C359" s="7" t="s">
+        <v>896</v>
+      </c>
+      <c r="D359" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="E359" s="7" t="s">
         <v>894</v>
-      </c>
-      <c r="C359" s="7" t="s">
-        <v>897</v>
-      </c>
-      <c r="D359" s="7" t="s">
-        <v>898</v>
-      </c>
-      <c r="E359" s="7" t="s">
-        <v>895</v>
       </c>
       <c r="F359" s="6">
         <v>138</v>
@@ -46745,16 +46746,16 @@
         <v>359</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C360" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="D360" s="7" t="s">
         <v>899</v>
       </c>
-      <c r="D360" s="7" t="s">
+      <c r="E360" s="7" t="s">
         <v>900</v>
-      </c>
-      <c r="E360" s="7" t="s">
-        <v>901</v>
       </c>
       <c r="F360" s="6">
         <v>186</v>
@@ -46862,16 +46863,16 @@
         <v>360</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C361" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="D361" s="7" t="s">
         <v>902</v>
       </c>
-      <c r="D361" s="7" t="s">
+      <c r="E361" s="7" t="s">
         <v>903</v>
-      </c>
-      <c r="E361" s="7" t="s">
-        <v>904</v>
       </c>
       <c r="F361" s="6">
         <v>140</v>
@@ -46979,16 +46980,16 @@
         <v>361</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C362" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="D362" s="7" t="s">
         <v>906</v>
       </c>
-      <c r="D362" s="7" t="s">
+      <c r="E362" s="7" t="s">
         <v>907</v>
-      </c>
-      <c r="E362" s="7" t="s">
-        <v>908</v>
       </c>
       <c r="F362" s="6">
         <v>130</v>
@@ -47096,16 +47097,16 @@
         <v>362</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C363" s="7" t="s">
+        <v>908</v>
+      </c>
+      <c r="D363" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="D363" s="7" t="s">
+      <c r="E363" s="7" t="s">
         <v>910</v>
-      </c>
-      <c r="E363" s="7" t="s">
-        <v>911</v>
       </c>
       <c r="F363" s="6">
         <v>185</v>
@@ -47213,16 +47214,16 @@
         <v>363</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C364" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="D364" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="D364" s="7" t="s">
+      <c r="E364" s="7" t="s">
         <v>913</v>
-      </c>
-      <c r="E364" s="7" t="s">
-        <v>914</v>
       </c>
       <c r="F364" s="6">
         <v>195</v>
@@ -47330,16 +47331,16 @@
         <v>364</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C365" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="D365" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="D365" s="7" t="s">
+      <c r="E365" s="7" t="s">
         <v>916</v>
-      </c>
-      <c r="E365" s="7" t="s">
-        <v>917</v>
       </c>
       <c r="F365" s="6">
         <v>106</v>
@@ -47447,16 +47448,16 @@
         <v>365</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C366" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="D366" s="7" t="s">
         <v>918</v>
       </c>
-      <c r="D366" s="7" t="s">
+      <c r="E366" s="7" t="s">
         <v>919</v>
-      </c>
-      <c r="E366" s="7" t="s">
-        <v>920</v>
       </c>
       <c r="F366" s="6">
         <v>180</v>
@@ -47564,16 +47565,16 @@
         <v>366</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C367" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="D367" s="7" t="s">
         <v>921</v>
       </c>
-      <c r="D367" s="7" t="s">
+      <c r="E367" s="7" t="s">
         <v>922</v>
-      </c>
-      <c r="E367" s="7" t="s">
-        <v>923</v>
       </c>
       <c r="F367" s="6">
         <v>135</v>
@@ -47681,22 +47682,22 @@
         <v>367</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C368" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="D368" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="D368" s="7" t="s">
+      <c r="E368" s="7" t="s">
         <v>925</v>
-      </c>
-      <c r="E368" s="7" t="s">
-        <v>926</v>
       </c>
       <c r="F368" s="6">
         <v>133</v>
       </c>
       <c r="G368" s="7" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H368" s="6">
         <v>3</v>
@@ -47800,16 +47801,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C369" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="D369" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="D369" s="7" t="s">
+      <c r="E369" s="7" t="s">
         <v>929</v>
-      </c>
-      <c r="E369" s="7" t="s">
-        <v>930</v>
       </c>
       <c r="F369" s="6">
         <v>215</v>
@@ -47917,16 +47918,16 @@
         <v>369</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C370" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="D370" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="D370" s="7" t="s">
+      <c r="E370" s="7" t="s">
         <v>932</v>
-      </c>
-      <c r="E370" s="7" t="s">
-        <v>933</v>
       </c>
       <c r="F370" s="6">
         <v>145</v>
@@ -48034,16 +48035,16 @@
         <v>370</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C371" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="D371" s="7" t="s">
         <v>934</v>
       </c>
-      <c r="D371" s="7" t="s">
-        <v>935</v>
-      </c>
       <c r="E371" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F371" s="6">
         <v>125</v>
@@ -48151,16 +48152,16 @@
         <v>371</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C372" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="D372" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="D372" s="7" t="s">
-        <v>937</v>
-      </c>
       <c r="E372" s="7" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F372" s="6">
         <v>182</v>
@@ -48268,16 +48269,16 @@
         <v>372</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C373" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="D373" s="7" t="s">
         <v>938</v>
       </c>
-      <c r="D373" s="7" t="s">
-        <v>939</v>
-      </c>
       <c r="E373" s="7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F373" s="6">
         <v>150</v>
@@ -48385,16 +48386,16 @@
         <v>373</v>
       </c>
       <c r="B374" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C374" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="D374" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="D374" s="7" t="s">
+      <c r="E374" s="7" t="s">
         <v>941</v>
-      </c>
-      <c r="E374" s="7" t="s">
-        <v>942</v>
       </c>
       <c r="F374" s="6">
         <v>130</v>
@@ -48502,16 +48503,16 @@
         <v>374</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C375" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="D375" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="D375" s="7" t="s">
+      <c r="E375" s="7" t="s">
         <v>944</v>
-      </c>
-      <c r="E375" s="7" t="s">
-        <v>945</v>
       </c>
       <c r="F375" s="6">
         <v>145</v>
@@ -48619,16 +48620,16 @@
         <v>375</v>
       </c>
       <c r="B376" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C376" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="D376" s="7" t="s">
         <v>946</v>
       </c>
-      <c r="D376" s="7" t="s">
-        <v>947</v>
-      </c>
       <c r="E376" s="7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F376" s="6">
         <v>128</v>
@@ -48736,16 +48737,16 @@
         <v>376</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C377" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="D377" s="7" t="s">
         <v>948</v>
       </c>
-      <c r="D377" s="7" t="s">
-        <v>949</v>
-      </c>
       <c r="E377" s="7" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F377" s="6">
         <v>138</v>
@@ -48853,16 +48854,16 @@
         <v>377</v>
       </c>
       <c r="B378" s="7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C378" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="D378" s="7" t="s">
         <v>950</v>
       </c>
-      <c r="D378" s="7" t="s">
-        <v>951</v>
-      </c>
       <c r="E378" s="7" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F378" s="6">
         <v>85</v>

--- a/docs/songlist/songlist.xlsx
+++ b/docs/songlist/songlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarilotus\github\ez2on\docs\songlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F42D3ED-ADC6-44FC-B6E3-29C43A268373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762AB250-2A81-49A5-8D90-CBFB8EEB16D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4155,10 +4155,10 @@
   <dimension ref="A1:AM392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="V102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="AI128" sqref="A1:AM392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8399,7 +8399,7 @@
         <v>15</v>
       </c>
       <c r="T36" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U36" s="6">
         <v>8</v>
@@ -19112,7 +19112,7 @@
         <v>7</v>
       </c>
       <c r="U126" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V126" s="6">
         <v>15</v>
@@ -19160,7 +19160,7 @@
         <v>7</v>
       </c>
       <c r="AK126" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL126" s="11">
         <v>15</v>
@@ -25270,7 +25270,7 @@
         <v>13</v>
       </c>
       <c r="K178" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L178" s="6">
         <v>5</v>
@@ -25318,7 +25318,7 @@
         <v>13</v>
       </c>
       <c r="AA178" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB178" s="9">
         <v>5</v>
@@ -25892,7 +25892,7 @@
         <v>15</v>
       </c>
       <c r="T183" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U183" s="6">
         <v>10</v>
@@ -25940,7 +25940,7 @@
         <v>15</v>
       </c>
       <c r="AJ183" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AK183" s="11">
         <v>10</v>
@@ -29572,7 +29572,7 @@
         <v>5</v>
       </c>
       <c r="Q214" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R214" s="6">
         <v>14</v>
@@ -29620,7 +29620,7 @@
         <v>5</v>
       </c>
       <c r="AG214" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH214" s="10">
         <v>14</v>
@@ -38476,7 +38476,7 @@
         <v>11</v>
       </c>
       <c r="J289" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K289" s="6">
         <v>19</v>
@@ -38524,7 +38524,7 @@
         <v>11</v>
       </c>
       <c r="Z289" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA289" s="8">
         <v>19</v>
@@ -39190,7 +39190,7 @@
         <v>9</v>
       </c>
       <c r="J295" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K295" s="6">
         <v>17</v>
@@ -39238,7 +39238,7 @@
         <v>9</v>
       </c>
       <c r="Z295" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA295" s="8">
         <v>17</v>
@@ -40859,7 +40859,7 @@
         <v>12</v>
       </c>
       <c r="K309" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L309" s="6">
         <v>4</v>
@@ -40907,7 +40907,7 @@
         <v>12</v>
       </c>
       <c r="AA309" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AB309" s="9">
         <v>4</v>
@@ -41341,10 +41341,10 @@
         <v>7</v>
       </c>
       <c r="M313" s="6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N313" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O313" s="6">
         <v>20</v>
@@ -41353,10 +41353,10 @@
         <v>7</v>
       </c>
       <c r="Q313" s="6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R313" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S313" s="6">
         <v>20</v>
@@ -41389,10 +41389,10 @@
         <v>7</v>
       </c>
       <c r="AC313" s="9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD313" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE313" s="9">
         <v>20</v>
@@ -41401,10 +41401,10 @@
         <v>7</v>
       </c>
       <c r="AG313" s="10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH313" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI313" s="10">
         <v>20</v>
@@ -47065,7 +47065,7 @@
         <v>14</v>
       </c>
       <c r="S361" s="6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T361" s="6">
         <v>4</v>
@@ -47113,7 +47113,7 @@
         <v>14</v>
       </c>
       <c r="AI361" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ361" s="11">
         <v>7</v>
@@ -47425,7 +47425,7 @@
         <v>12</v>
       </c>
       <c r="V364" s="6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="W364" s="6">
         <v>18</v>
@@ -47473,7 +47473,7 @@
         <v>12</v>
       </c>
       <c r="AL364" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM364" s="11">
         <v>18</v>
@@ -48447,7 +48447,7 @@
         <v>14</v>
       </c>
       <c r="K373" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L373" s="6">
         <v>4</v>
@@ -48495,7 +48495,7 @@
         <v>14</v>
       </c>
       <c r="AA373" s="8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB373" s="9">
         <v>4</v>

--- a/docs/songlist/songlist.xlsx
+++ b/docs/songlist/songlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarilotus\github\ez2on\docs\songlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762AB250-2A81-49A5-8D90-CBFB8EEB16D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88072FD8-EF6A-45E6-B1FD-F7040ABE77D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3012,10 +3012,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Milyang Fortress ~VIA GUPO REMIS~</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>STREME REVERIE x FUGU SUISAN</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3106,6 +3102,10 @@
   </si>
   <si>
     <t>Minus 1 (HD MIX)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milyang Fortress ~VIA GUPO REMIX~</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4155,10 +4155,10 @@
   <dimension ref="A1:AM392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="V102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D366" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AI128" sqref="A1:AM392"/>
+      <selection pane="bottomRight" activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5971,7 +5971,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>35</v>
@@ -7036,7 +7036,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>56</v>
@@ -7155,7 +7155,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>59</v>
@@ -7274,7 +7274,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>61</v>
@@ -7393,7 +7393,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>64</v>
@@ -7512,7 +7512,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>66</v>
@@ -7631,7 +7631,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>69</v>
@@ -7750,7 +7750,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>72</v>
@@ -7869,7 +7869,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>74</v>
@@ -7988,7 +7988,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>77</v>
@@ -8107,7 +8107,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>79</v>
@@ -8226,7 +8226,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>82</v>
@@ -8345,7 +8345,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>85</v>
@@ -8464,7 +8464,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>88</v>
@@ -8583,7 +8583,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>91</v>
@@ -8702,7 +8702,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>94</v>
@@ -8821,7 +8821,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>97</v>
@@ -8940,7 +8940,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>99</v>
@@ -9059,7 +9059,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>101</v>
@@ -9178,7 +9178,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>103</v>
@@ -9297,7 +9297,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>105</v>
@@ -49127,7 +49127,7 @@
         <v>951</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>952</v>
@@ -49243,7 +49243,7 @@
         <v>951</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>954</v>
@@ -49359,7 +49359,7 @@
         <v>951</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>955</v>
@@ -49475,7 +49475,7 @@
         <v>951</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>957</v>
@@ -49591,7 +49591,7 @@
         <v>951</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>959</v>
@@ -49707,7 +49707,7 @@
         <v>951</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>961</v>
@@ -49823,7 +49823,7 @@
         <v>951</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>962</v>
@@ -49939,13 +49939,13 @@
         <v>951</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D386" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="E386" s="1" t="s">
         <v>963</v>
-      </c>
-      <c r="E386" s="1" t="s">
-        <v>964</v>
       </c>
       <c r="F386">
         <v>178</v>
@@ -50055,10 +50055,10 @@
         <v>951</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>953</v>
@@ -50171,13 +50171,13 @@
         <v>951</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D388" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="E388" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="E388" s="1" t="s">
-        <v>967</v>
       </c>
       <c r="F388">
         <v>155</v>
@@ -50287,13 +50287,13 @@
         <v>951</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D389" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E389" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="E389" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="F389">
         <v>154</v>
@@ -50403,10 +50403,10 @@
         <v>951</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>960</v>
@@ -50519,10 +50519,10 @@
         <v>951</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>960</v>
@@ -50635,13 +50635,13 @@
         <v>951</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D392" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E392" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="E392" s="1" t="s">
-        <v>973</v>
       </c>
       <c r="F392">
         <v>142</v>

--- a/docs/songlist/songlist.xlsx
+++ b/docs/songlist/songlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarilotus\GitHub\ez2on\docs\songlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7480386-72DF-47CE-B4E0-F4BF47A68C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13BDE827-DEEF-43B0-BAE2-728B4D72AD0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="1091">
   <si>
     <t>1ST</t>
   </si>
@@ -3498,6 +3498,10 @@
   </si>
   <si>
     <t>Snow Dream (Ramaster)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIGMA</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4815,10 +4819,10 @@
   <dimension ref="A1:AM430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="I219" sqref="I219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -30737,7 +30741,7 @@
         <v>2013</v>
       </c>
       <c r="C219" s="27" t="s">
-        <v>475</v>
+        <v>1090</v>
       </c>
       <c r="D219" s="27" t="s">
         <v>475</v>
@@ -30987,38 +30991,102 @@
         <v>133</v>
       </c>
       <c r="G221" s="2"/>
-      <c r="H221" s="4"/>
-      <c r="I221" s="4"/>
-      <c r="J221" s="4"/>
-      <c r="K221" s="4"/>
-      <c r="L221" s="4"/>
-      <c r="M221" s="4"/>
-      <c r="N221" s="4"/>
-      <c r="O221" s="4"/>
-      <c r="P221" s="4"/>
-      <c r="Q221" s="4"/>
-      <c r="R221" s="4"/>
-      <c r="S221" s="4"/>
-      <c r="T221" s="4"/>
-      <c r="U221" s="4"/>
-      <c r="V221" s="4"/>
-      <c r="W221" s="4"/>
-      <c r="X221" s="5"/>
-      <c r="Y221" s="5"/>
-      <c r="Z221" s="5"/>
-      <c r="AA221" s="5"/>
-      <c r="AB221" s="6"/>
-      <c r="AC221" s="6"/>
-      <c r="AD221" s="6"/>
-      <c r="AE221" s="6"/>
-      <c r="AF221" s="7"/>
-      <c r="AG221" s="7"/>
-      <c r="AH221" s="7"/>
-      <c r="AI221" s="7"/>
-      <c r="AJ221" s="8"/>
-      <c r="AK221" s="8"/>
-      <c r="AL221" s="8"/>
-      <c r="AM221" s="8"/>
+      <c r="H221" s="4">
+        <v>4</v>
+      </c>
+      <c r="I221" s="4">
+        <v>9</v>
+      </c>
+      <c r="J221" s="4">
+        <v>13</v>
+      </c>
+      <c r="K221" s="4">
+        <v>15</v>
+      </c>
+      <c r="L221" s="4">
+        <v>3</v>
+      </c>
+      <c r="M221" s="4">
+        <v>7</v>
+      </c>
+      <c r="N221" s="4">
+        <v>12</v>
+      </c>
+      <c r="O221" s="4">
+        <v>15</v>
+      </c>
+      <c r="P221" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q221" s="4">
+        <v>9</v>
+      </c>
+      <c r="R221" s="4">
+        <v>13</v>
+      </c>
+      <c r="S221" s="4">
+        <v>15</v>
+      </c>
+      <c r="T221" s="4">
+        <v>4</v>
+      </c>
+      <c r="U221" s="4">
+        <v>8</v>
+      </c>
+      <c r="V221" s="4">
+        <v>13</v>
+      </c>
+      <c r="W221" s="4">
+        <v>16</v>
+      </c>
+      <c r="X221" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y221" s="5">
+        <v>9</v>
+      </c>
+      <c r="Z221" s="5">
+        <v>13</v>
+      </c>
+      <c r="AA221" s="5">
+        <v>15</v>
+      </c>
+      <c r="AB221" s="6">
+        <v>3</v>
+      </c>
+      <c r="AC221" s="6">
+        <v>7</v>
+      </c>
+      <c r="AD221" s="6">
+        <v>12</v>
+      </c>
+      <c r="AE221" s="6">
+        <v>15</v>
+      </c>
+      <c r="AF221" s="7">
+        <v>4</v>
+      </c>
+      <c r="AG221" s="7">
+        <v>9</v>
+      </c>
+      <c r="AH221" s="7">
+        <v>13</v>
+      </c>
+      <c r="AI221" s="7">
+        <v>15</v>
+      </c>
+      <c r="AJ221" s="8">
+        <v>4</v>
+      </c>
+      <c r="AK221" s="8">
+        <v>8</v>
+      </c>
+      <c r="AL221" s="8">
+        <v>13</v>
+      </c>
+      <c r="AM221" s="8">
+        <v>16</v>
+      </c>
     </row>
     <row r="222" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A222" s="57">

--- a/docs/songlist/songlist.xlsx
+++ b/docs/songlist/songlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarilotus\GitHub\ez2on\docs\songlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE224210-B28A-4D0A-BE45-66C667014FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ECB653-7442-4BF3-A27C-64F2F99892E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1442,9 +1442,6 @@
   </si>
   <si>
     <t>Nihilism</t>
-  </si>
-  <si>
-    <t>Sigma</t>
   </si>
   <si>
     <t>Snow Dream</t>
@@ -3533,6 +3530,10 @@
   </si>
   <si>
     <t>Cosmograph (Lunatic Sounds)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sigma</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4817,10 +4818,10 @@
   <dimension ref="A1:AM434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G228" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D203" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U239" sqref="U239"/>
+      <selection pane="bottomRight" activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4839,121 +4840,121 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>847</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>850</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>883</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>884</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -6633,7 +6634,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E16" s="46" t="s">
         <v>35</v>
@@ -7698,7 +7699,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C25" s="44" t="s">
         <v>56</v>
@@ -7817,7 +7818,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>59</v>
@@ -7936,7 +7937,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>61</v>
@@ -8055,7 +8056,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C28" s="44" t="s">
         <v>64</v>
@@ -8174,7 +8175,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C29" s="44" t="s">
         <v>66</v>
@@ -8293,7 +8294,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>69</v>
@@ -8412,7 +8413,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C31" s="44" t="s">
         <v>72</v>
@@ -8531,7 +8532,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C32" s="44" t="s">
         <v>74</v>
@@ -8650,13 +8651,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C33" s="44" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E33" s="44" t="s">
         <v>3</v>
@@ -8769,13 +8770,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E34" s="44" t="s">
         <v>3</v>
@@ -8886,7 +8887,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C35" s="44" t="s">
         <v>78</v>
@@ -9005,7 +9006,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C36" s="44" t="s">
         <v>81</v>
@@ -9124,7 +9125,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C37" s="44" t="s">
         <v>84</v>
@@ -9243,7 +9244,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C38" s="44" t="s">
         <v>87</v>
@@ -9362,7 +9363,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>90</v>
@@ -9481,7 +9482,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C40" s="44" t="s">
         <v>93</v>
@@ -9600,7 +9601,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C41" s="44" t="s">
         <v>96</v>
@@ -9719,7 +9720,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C42" s="44" t="s">
         <v>98</v>
@@ -9838,7 +9839,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C43" s="44" t="s">
         <v>100</v>
@@ -9957,7 +9958,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C44" s="44" t="s">
         <v>102</v>
@@ -10076,7 +10077,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>104</v>
@@ -13411,10 +13412,10 @@
         <v>162</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E73" s="39" t="s">
         <v>163</v>
@@ -13530,10 +13531,10 @@
         <v>162</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E74" s="39" t="s">
         <v>164</v>
@@ -22339,7 +22340,7 @@
         <v>311</v>
       </c>
       <c r="D148" s="33" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E148" s="33" t="s">
         <v>312</v>
@@ -22455,10 +22456,10 @@
         <v>268</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E149" s="33" t="s">
         <v>312</v>
@@ -30973,10 +30974,10 @@
         <v>2013</v>
       </c>
       <c r="C221" s="27" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>473</v>
+        <v>1086</v>
       </c>
       <c r="E221" s="27" t="s">
         <v>462</v>
@@ -31092,13 +31093,13 @@
         <v>2013</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D222" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="E222" s="27" t="s">
         <v>474</v>
-      </c>
-      <c r="E222" s="27" t="s">
-        <v>475</v>
       </c>
       <c r="F222" s="26">
         <v>133</v>
@@ -31211,13 +31212,13 @@
         <v>2013</v>
       </c>
       <c r="C223" s="27" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D223" s="27" t="s">
         <v>1085</v>
       </c>
-      <c r="D223" s="27" t="s">
-        <v>1086</v>
-      </c>
       <c r="E223" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F223" s="26">
         <v>133</v>
@@ -31328,10 +31329,10 @@
         <v>2013</v>
       </c>
       <c r="C224" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="D224" s="27" t="s">
         <v>476</v>
-      </c>
-      <c r="D224" s="27" t="s">
-        <v>477</v>
       </c>
       <c r="E224" s="27" t="s">
         <v>423</v>
@@ -31447,13 +31448,13 @@
         <v>2013</v>
       </c>
       <c r="C225" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="D225" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="D225" s="27" t="s">
+      <c r="E225" s="27" t="s">
         <v>479</v>
-      </c>
-      <c r="E225" s="27" t="s">
-        <v>480</v>
       </c>
       <c r="F225" s="26">
         <v>171</v>
@@ -31566,10 +31567,10 @@
         <v>2021</v>
       </c>
       <c r="C226" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="D226" s="25" t="s">
         <v>481</v>
-      </c>
-      <c r="D226" s="25" t="s">
-        <v>482</v>
       </c>
       <c r="E226" s="25" t="s">
         <v>453</v>
@@ -31685,13 +31686,13 @@
         <v>2021</v>
       </c>
       <c r="C227" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="D227" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="D227" s="25" t="s">
+      <c r="E227" s="25" t="s">
         <v>484</v>
-      </c>
-      <c r="E227" s="25" t="s">
-        <v>485</v>
       </c>
       <c r="F227" s="24">
         <v>146</v>
@@ -31804,13 +31805,13 @@
         <v>2021</v>
       </c>
       <c r="C228" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="D228" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="D228" s="25" t="s">
+      <c r="E228" s="25" t="s">
         <v>487</v>
-      </c>
-      <c r="E228" s="25" t="s">
-        <v>488</v>
       </c>
       <c r="F228" s="24">
         <v>178</v>
@@ -31923,13 +31924,13 @@
         <v>2021</v>
       </c>
       <c r="C229" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="D229" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="D229" s="25" t="s">
+      <c r="E229" s="25" t="s">
         <v>490</v>
-      </c>
-      <c r="E229" s="25" t="s">
-        <v>491</v>
       </c>
       <c r="F229" s="24">
         <v>191</v>
@@ -32042,13 +32043,13 @@
         <v>2021</v>
       </c>
       <c r="C230" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="D230" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="D230" s="25" t="s">
+      <c r="E230" s="25" t="s">
         <v>493</v>
-      </c>
-      <c r="E230" s="25" t="s">
-        <v>494</v>
       </c>
       <c r="F230" s="24">
         <v>160</v>
@@ -32161,19 +32162,19 @@
         <v>2021</v>
       </c>
       <c r="C231" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="D231" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="D231" s="25" t="s">
+      <c r="E231" s="25" t="s">
         <v>496</v>
-      </c>
-      <c r="E231" s="25" t="s">
-        <v>497</v>
       </c>
       <c r="F231" s="24">
         <v>170</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H231" s="4">
         <v>4</v>
@@ -32280,13 +32281,13 @@
         <v>2021</v>
       </c>
       <c r="C232" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="D232" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="D232" s="25" t="s">
+      <c r="E232" s="25" t="s">
         <v>500</v>
-      </c>
-      <c r="E232" s="25" t="s">
-        <v>501</v>
       </c>
       <c r="F232" s="24">
         <v>126</v>
@@ -32399,13 +32400,13 @@
         <v>2021</v>
       </c>
       <c r="C233" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="D233" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="D233" s="25" t="s">
-        <v>503</v>
-      </c>
       <c r="E233" s="25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F233" s="24">
         <v>190</v>
@@ -32518,13 +32519,13 @@
         <v>2021</v>
       </c>
       <c r="C234" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="D234" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="D234" s="25" t="s">
+      <c r="E234" s="25" t="s">
         <v>505</v>
-      </c>
-      <c r="E234" s="25" t="s">
-        <v>506</v>
       </c>
       <c r="F234" s="24">
         <v>160</v>
@@ -32637,13 +32638,13 @@
         <v>2021</v>
       </c>
       <c r="C235" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="D235" s="25" t="s">
         <v>507</v>
       </c>
-      <c r="D235" s="25" t="s">
-        <v>508</v>
-      </c>
       <c r="E235" s="25" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F235" s="24">
         <v>180</v>
@@ -32756,13 +32757,13 @@
         <v>2021</v>
       </c>
       <c r="C236" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="D236" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="E236" s="25" t="s">
         <v>509</v>
-      </c>
-      <c r="D236" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="E236" s="25" t="s">
-        <v>510</v>
       </c>
       <c r="F236" s="24">
         <v>150</v>
@@ -32875,13 +32876,13 @@
         <v>2021</v>
       </c>
       <c r="C237" s="25" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D237" s="25" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E237" s="25" t="s">
         <v>1094</v>
-      </c>
-      <c r="D237" s="25" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E237" s="25" t="s">
-        <v>1095</v>
       </c>
       <c r="F237" s="24">
         <v>90</v>
@@ -32992,10 +32993,10 @@
         <v>2021</v>
       </c>
       <c r="C238" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="D238" s="25" t="s">
         <v>511</v>
-      </c>
-      <c r="D238" s="25" t="s">
-        <v>512</v>
       </c>
       <c r="E238" s="25" t="s">
         <v>453</v>
@@ -33111,13 +33112,13 @@
         <v>2021</v>
       </c>
       <c r="C239" s="25" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D239" s="25" t="s">
         <v>1096</v>
       </c>
-      <c r="D239" s="25" t="s">
-        <v>1097</v>
-      </c>
       <c r="E239" s="25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F239" s="24">
         <v>210</v>
@@ -33228,13 +33229,13 @@
         <v>2021</v>
       </c>
       <c r="C240" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D240" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="E240" s="25" t="s">
         <v>513</v>
-      </c>
-      <c r="D240" s="25" t="s">
-        <v>513</v>
-      </c>
-      <c r="E240" s="25" t="s">
-        <v>514</v>
       </c>
       <c r="F240" s="24">
         <v>174</v>
@@ -33347,13 +33348,13 @@
         <v>2021</v>
       </c>
       <c r="C241" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="D241" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="D241" s="25" t="s">
+      <c r="E241" s="25" t="s">
         <v>516</v>
-      </c>
-      <c r="E241" s="25" t="s">
-        <v>517</v>
       </c>
       <c r="F241" s="24">
         <v>150</v>
@@ -33466,13 +33467,13 @@
         <v>2021</v>
       </c>
       <c r="C242" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="D242" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="D242" s="25" t="s">
+      <c r="E242" s="25" t="s">
         <v>519</v>
-      </c>
-      <c r="E242" s="25" t="s">
-        <v>520</v>
       </c>
       <c r="F242" s="24">
         <v>140</v>
@@ -33585,13 +33586,13 @@
         <v>2021</v>
       </c>
       <c r="C243" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="D243" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="E243" s="25" t="s">
         <v>521</v>
-      </c>
-      <c r="D243" s="25" t="s">
-        <v>521</v>
-      </c>
-      <c r="E243" s="25" t="s">
-        <v>522</v>
       </c>
       <c r="F243" s="24">
         <v>178</v>
@@ -33704,13 +33705,13 @@
         <v>2021</v>
       </c>
       <c r="C244" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="D244" s="25" t="s">
         <v>523</v>
       </c>
-      <c r="D244" s="25" t="s">
+      <c r="E244" s="25" t="s">
         <v>524</v>
-      </c>
-      <c r="E244" s="25" t="s">
-        <v>525</v>
       </c>
       <c r="F244" s="24">
         <v>144</v>
@@ -33823,13 +33824,13 @@
         <v>2021</v>
       </c>
       <c r="C245" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="D245" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="E245" s="25" t="s">
         <v>526</v>
-      </c>
-      <c r="D245" s="25" t="s">
-        <v>526</v>
-      </c>
-      <c r="E245" s="25" t="s">
-        <v>527</v>
       </c>
       <c r="F245" s="24">
         <v>128</v>
@@ -33942,13 +33943,13 @@
         <v>2021</v>
       </c>
       <c r="C246" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="D246" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="D246" s="25" t="s">
+      <c r="E246" s="25" t="s">
         <v>529</v>
-      </c>
-      <c r="E246" s="25" t="s">
-        <v>530</v>
       </c>
       <c r="F246" s="24">
         <v>190</v>
@@ -34061,13 +34062,13 @@
         <v>2021</v>
       </c>
       <c r="C247" s="25" t="s">
+        <v>530</v>
+      </c>
+      <c r="D247" s="25" t="s">
         <v>531</v>
       </c>
-      <c r="D247" s="25" t="s">
+      <c r="E247" s="25" t="s">
         <v>532</v>
-      </c>
-      <c r="E247" s="25" t="s">
-        <v>533</v>
       </c>
       <c r="F247" s="24">
         <v>195</v>
@@ -34180,13 +34181,13 @@
         <v>2021</v>
       </c>
       <c r="C248" s="25" t="s">
+        <v>533</v>
+      </c>
+      <c r="D248" s="25" t="s">
         <v>534</v>
       </c>
-      <c r="D248" s="25" t="s">
+      <c r="E248" s="25" t="s">
         <v>535</v>
-      </c>
-      <c r="E248" s="25" t="s">
-        <v>536</v>
       </c>
       <c r="F248" s="24">
         <v>116</v>
@@ -34299,13 +34300,13 @@
         <v>2021</v>
       </c>
       <c r="C249" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="D249" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="D249" s="25" t="s">
+      <c r="E249" s="25" t="s">
         <v>538</v>
-      </c>
-      <c r="E249" s="25" t="s">
-        <v>539</v>
       </c>
       <c r="F249" s="24">
         <v>170</v>
@@ -34418,13 +34419,13 @@
         <v>2021</v>
       </c>
       <c r="C250" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="D250" s="25" t="s">
         <v>540</v>
       </c>
-      <c r="D250" s="25" t="s">
-        <v>541</v>
-      </c>
       <c r="E250" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F250" s="24">
         <v>190</v>
@@ -34537,13 +34538,13 @@
         <v>2021</v>
       </c>
       <c r="C251" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="D251" s="25" t="s">
         <v>542</v>
       </c>
-      <c r="D251" s="25" t="s">
+      <c r="E251" s="25" t="s">
         <v>543</v>
-      </c>
-      <c r="E251" s="25" t="s">
-        <v>544</v>
       </c>
       <c r="F251" s="24">
         <v>150</v>
@@ -34656,10 +34657,10 @@
         <v>2021</v>
       </c>
       <c r="C252" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="D252" s="25" t="s">
         <v>545</v>
-      </c>
-      <c r="D252" s="25" t="s">
-        <v>546</v>
       </c>
       <c r="E252" s="25" t="s">
         <v>453</v>
@@ -34775,13 +34776,13 @@
         <v>2021</v>
       </c>
       <c r="C253" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="D253" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="D253" s="25" t="s">
+      <c r="E253" s="25" t="s">
         <v>548</v>
-      </c>
-      <c r="E253" s="25" t="s">
-        <v>549</v>
       </c>
       <c r="F253" s="24">
         <v>150</v>
@@ -34894,13 +34895,13 @@
         <v>2021</v>
       </c>
       <c r="C254" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="D254" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="D254" s="25" t="s">
+      <c r="E254" s="25" t="s">
         <v>551</v>
-      </c>
-      <c r="E254" s="25" t="s">
-        <v>552</v>
       </c>
       <c r="F254" s="24">
         <v>170</v>
@@ -35013,19 +35014,19 @@
         <v>2021</v>
       </c>
       <c r="C255" s="25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E255" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F255" s="24">
         <v>202</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H255" s="4">
         <v>5</v>
@@ -35132,10 +35133,10 @@
         <v>2021</v>
       </c>
       <c r="C256" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="D256" s="25" t="s">
         <v>555</v>
-      </c>
-      <c r="D256" s="25" t="s">
-        <v>556</v>
       </c>
       <c r="E256" s="25" t="s">
         <v>453</v>
@@ -35251,13 +35252,13 @@
         <v>2021</v>
       </c>
       <c r="C257" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="D257" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="D257" s="25" t="s">
+      <c r="E257" s="25" t="s">
         <v>558</v>
-      </c>
-      <c r="E257" s="25" t="s">
-        <v>559</v>
       </c>
       <c r="F257" s="24">
         <v>185</v>
@@ -35370,10 +35371,10 @@
         <v>2021</v>
       </c>
       <c r="C258" s="25" t="s">
+        <v>559</v>
+      </c>
+      <c r="D258" s="25" t="s">
         <v>560</v>
-      </c>
-      <c r="D258" s="25" t="s">
-        <v>561</v>
       </c>
       <c r="E258" s="25" t="s">
         <v>453</v>
@@ -35489,13 +35490,13 @@
         <v>2021</v>
       </c>
       <c r="C259" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="D259" s="25" t="s">
         <v>562</v>
       </c>
-      <c r="D259" s="25" t="s">
-        <v>563</v>
-      </c>
       <c r="E259" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F259" s="24">
         <v>175</v>
@@ -35608,13 +35609,13 @@
         <v>2021</v>
       </c>
       <c r="C260" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="D260" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="E260" s="25" t="s">
         <v>564</v>
-      </c>
-      <c r="D260" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="E260" s="25" t="s">
-        <v>565</v>
       </c>
       <c r="F260" s="24">
         <v>190</v>
@@ -35727,19 +35728,19 @@
         <v>2021</v>
       </c>
       <c r="C261" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="D261" s="25" t="s">
         <v>566</v>
       </c>
-      <c r="D261" s="25" t="s">
+      <c r="E261" s="25" t="s">
         <v>567</v>
-      </c>
-      <c r="E261" s="25" t="s">
-        <v>568</v>
       </c>
       <c r="F261" s="24">
         <v>202</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H261" s="4">
         <v>5</v>
@@ -35846,13 +35847,13 @@
         <v>2021</v>
       </c>
       <c r="C262" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="D262" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="D262" s="25" t="s">
-        <v>571</v>
-      </c>
       <c r="E262" s="25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F262" s="24">
         <v>127</v>
@@ -35962,16 +35963,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C263" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="D263" s="23" t="s">
         <v>600</v>
       </c>
-      <c r="D263" s="23" t="s">
-        <v>601</v>
-      </c>
       <c r="E263" s="23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F263" s="22">
         <v>130</v>
@@ -36081,16 +36082,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="23" t="s">
+        <v>571</v>
+      </c>
+      <c r="C264" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="C264" s="23" t="s">
+      <c r="D264" s="23" t="s">
         <v>573</v>
       </c>
-      <c r="D264" s="23" t="s">
+      <c r="E264" s="23" t="s">
         <v>574</v>
-      </c>
-      <c r="E264" s="23" t="s">
-        <v>575</v>
       </c>
       <c r="F264" s="22">
         <v>128</v>
@@ -36200,16 +36201,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C265" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="D265" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="D265" s="23" t="s">
+      <c r="E265" s="23" t="s">
         <v>577</v>
-      </c>
-      <c r="E265" s="23" t="s">
-        <v>578</v>
       </c>
       <c r="F265" s="22">
         <v>175</v>
@@ -36319,16 +36320,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C266" s="23" t="s">
+        <v>578</v>
+      </c>
+      <c r="D266" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="D266" s="23" t="s">
-        <v>580</v>
-      </c>
       <c r="E266" s="23" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F266" s="22">
         <v>128</v>
@@ -36438,13 +36439,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C267" s="23" t="s">
+        <v>580</v>
+      </c>
+      <c r="D267" s="23" t="s">
         <v>581</v>
-      </c>
-      <c r="D267" s="23" t="s">
-        <v>582</v>
       </c>
       <c r="E267" s="23" t="s">
         <v>347</v>
@@ -36557,16 +36558,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C268" s="23" t="s">
+        <v>601</v>
+      </c>
+      <c r="D268" s="23" t="s">
+        <v>601</v>
+      </c>
+      <c r="E268" s="23" t="s">
         <v>602</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>602</v>
-      </c>
-      <c r="E268" s="23" t="s">
-        <v>603</v>
       </c>
       <c r="F268" s="22">
         <v>151</v>
@@ -36676,16 +36677,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C269" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="D269" s="23" t="s">
         <v>583</v>
       </c>
-      <c r="D269" s="23" t="s">
+      <c r="E269" s="23" t="s">
         <v>584</v>
-      </c>
-      <c r="E269" s="23" t="s">
-        <v>585</v>
       </c>
       <c r="F269" s="22">
         <v>185</v>
@@ -36795,16 +36796,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C270" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E270" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F270" s="22">
         <v>180</v>
@@ -36914,13 +36915,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C271" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D271" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E271" s="23" t="s">
         <v>465</v>
@@ -37033,16 +37034,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C272" s="23" t="s">
+        <v>586</v>
+      </c>
+      <c r="D272" s="23" t="s">
         <v>587</v>
       </c>
-      <c r="D272" s="23" t="s">
+      <c r="E272" s="23" t="s">
         <v>588</v>
-      </c>
-      <c r="E272" s="23" t="s">
-        <v>589</v>
       </c>
       <c r="F272" s="22">
         <v>147</v>
@@ -37152,16 +37153,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C273" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="D273" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="D273" s="23" t="s">
-        <v>606</v>
-      </c>
       <c r="E273" s="23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F273" s="22">
         <v>174</v>
@@ -37271,16 +37272,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C274" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="D274" s="23" t="s">
         <v>590</v>
       </c>
-      <c r="D274" s="23" t="s">
+      <c r="E274" s="23" t="s">
         <v>591</v>
-      </c>
-      <c r="E274" s="23" t="s">
-        <v>592</v>
       </c>
       <c r="F274" s="22">
         <v>175</v>
@@ -37390,16 +37391,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C275" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="D275" s="23" t="s">
         <v>593</v>
       </c>
-      <c r="D275" s="23" t="s">
+      <c r="E275" s="23" t="s">
         <v>594</v>
-      </c>
-      <c r="E275" s="23" t="s">
-        <v>595</v>
       </c>
       <c r="F275" s="22">
         <v>132</v>
@@ -37509,16 +37510,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C276" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="D276" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="E276" s="23" t="s">
         <v>607</v>
-      </c>
-      <c r="D276" s="23" t="s">
-        <v>607</v>
-      </c>
-      <c r="E276" s="23" t="s">
-        <v>608</v>
       </c>
       <c r="F276" s="22">
         <v>175</v>
@@ -37628,16 +37629,16 @@
         <v>276</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C277" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E277" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F277" s="22">
         <v>112</v>
@@ -37747,16 +37748,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C278" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="D278" s="23" t="s">
         <v>609</v>
       </c>
-      <c r="D278" s="23" t="s">
-        <v>610</v>
-      </c>
       <c r="E278" s="23" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F278" s="22">
         <v>142</v>
@@ -37866,16 +37867,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C279" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="D279" s="23" t="s">
         <v>597</v>
       </c>
-      <c r="D279" s="23" t="s">
+      <c r="E279" s="23" t="s">
         <v>598</v>
-      </c>
-      <c r="E279" s="23" t="s">
-        <v>599</v>
       </c>
       <c r="F279" s="22">
         <v>150</v>
@@ -37985,16 +37986,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C280" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="C280" s="21" t="s">
+      <c r="D280" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="D280" s="21" t="s">
-        <v>613</v>
-      </c>
       <c r="E280" s="21" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F280" s="2">
         <v>180</v>
@@ -38104,13 +38105,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E281" s="21" t="s">
         <v>374</v>
@@ -38223,22 +38224,22 @@
         <v>281</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C282" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="D282" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="D282" s="21" t="s">
+      <c r="E282" s="21" t="s">
         <v>616</v>
-      </c>
-      <c r="E282" s="21" t="s">
-        <v>617</v>
       </c>
       <c r="F282" s="2">
         <v>160</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H282" s="4">
         <v>6</v>
@@ -38342,13 +38343,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C283" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="D283" s="21" t="s">
         <v>619</v>
-      </c>
-      <c r="D283" s="21" t="s">
-        <v>620</v>
       </c>
       <c r="E283" s="21" t="s">
         <v>323</v>
@@ -38461,16 +38462,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C284" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="D284" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="D284" s="21" t="s">
+      <c r="E284" s="21" t="s">
         <v>622</v>
-      </c>
-      <c r="E284" s="21" t="s">
-        <v>623</v>
       </c>
       <c r="F284" s="2">
         <v>175</v>
@@ -38580,13 +38581,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C285" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="D285" s="21" t="s">
         <v>624</v>
-      </c>
-      <c r="D285" s="21" t="s">
-        <v>625</v>
       </c>
       <c r="E285" s="21" t="s">
         <v>374</v>
@@ -38699,16 +38700,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C286" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="D286" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="D286" s="21" t="s">
+      <c r="E286" s="21" t="s">
         <v>627</v>
-      </c>
-      <c r="E286" s="21" t="s">
-        <v>628</v>
       </c>
       <c r="F286" s="2">
         <v>140</v>
@@ -38818,16 +38819,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C287" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="D287" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="D287" s="21" t="s">
-        <v>630</v>
-      </c>
       <c r="E287" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F287" s="2">
         <v>125</v>
@@ -38937,16 +38938,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C288" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="D288" s="21" t="s">
         <v>631</v>
       </c>
-      <c r="D288" s="21" t="s">
-        <v>632</v>
-      </c>
       <c r="E288" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F288" s="2">
         <v>145</v>
@@ -39056,22 +39057,22 @@
         <v>288</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C289" s="21" t="s">
+        <v>632</v>
+      </c>
+      <c r="D289" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="D289" s="21" t="s">
+      <c r="E289" s="21" t="s">
         <v>634</v>
-      </c>
-      <c r="E289" s="21" t="s">
-        <v>635</v>
       </c>
       <c r="F289" s="2">
         <v>140</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H289" s="4">
         <v>2</v>
@@ -39175,16 +39176,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="C290" s="18" t="s">
+        <v>896</v>
+      </c>
+      <c r="D290" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="C290" s="18" t="s">
-        <v>897</v>
-      </c>
-      <c r="D290" s="17" t="s">
+      <c r="E290" s="17" t="s">
         <v>638</v>
-      </c>
-      <c r="E290" s="17" t="s">
-        <v>639</v>
       </c>
       <c r="F290" s="2">
         <v>138</v>
@@ -39294,16 +39295,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C291" s="17" t="s">
+        <v>639</v>
+      </c>
+      <c r="D291" s="17" t="s">
         <v>640</v>
       </c>
-      <c r="D291" s="17" t="s">
+      <c r="E291" s="17" t="s">
         <v>641</v>
-      </c>
-      <c r="E291" s="17" t="s">
-        <v>642</v>
       </c>
       <c r="F291" s="2">
         <v>175</v>
@@ -39413,16 +39414,16 @@
         <v>291</v>
       </c>
       <c r="B292" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C292" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="D292" s="17" t="s">
         <v>643</v>
       </c>
-      <c r="D292" s="17" t="s">
+      <c r="E292" s="17" t="s">
         <v>644</v>
-      </c>
-      <c r="E292" s="17" t="s">
-        <v>645</v>
       </c>
       <c r="F292" s="2">
         <v>156</v>
@@ -39532,16 +39533,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C293" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="D293" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="D293" s="17" t="s">
+      <c r="E293" s="17" t="s">
         <v>647</v>
-      </c>
-      <c r="E293" s="17" t="s">
-        <v>648</v>
       </c>
       <c r="F293" s="2">
         <v>190</v>
@@ -39651,16 +39652,16 @@
         <v>293</v>
       </c>
       <c r="B294" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C294" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="D294" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="E294" s="17" t="s">
         <v>649</v>
-      </c>
-      <c r="D294" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="E294" s="17" t="s">
-        <v>650</v>
       </c>
       <c r="F294" s="2">
         <v>210</v>
@@ -39770,16 +39771,16 @@
         <v>294</v>
       </c>
       <c r="B295" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C295" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="D295" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="D295" s="17" t="s">
+      <c r="E295" s="17" t="s">
         <v>652</v>
-      </c>
-      <c r="E295" s="17" t="s">
-        <v>653</v>
       </c>
       <c r="F295" s="2">
         <v>119</v>
@@ -39889,16 +39890,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C296" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="D296" s="17" t="s">
         <v>654</v>
       </c>
-      <c r="D296" s="17" t="s">
+      <c r="E296" s="17" t="s">
         <v>655</v>
-      </c>
-      <c r="E296" s="17" t="s">
-        <v>656</v>
       </c>
       <c r="F296" s="2">
         <v>146</v>
@@ -40008,16 +40009,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C297" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="D297" s="17" t="s">
         <v>657</v>
       </c>
-      <c r="D297" s="17" t="s">
+      <c r="E297" s="17" t="s">
         <v>658</v>
-      </c>
-      <c r="E297" s="17" t="s">
-        <v>659</v>
       </c>
       <c r="F297" s="2">
         <v>150</v>
@@ -40127,16 +40128,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C298" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="D298" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="D298" s="17" t="s">
+      <c r="E298" s="17" t="s">
         <v>661</v>
-      </c>
-      <c r="E298" s="17" t="s">
-        <v>662</v>
       </c>
       <c r="F298" s="2">
         <v>175</v>
@@ -40246,16 +40247,16 @@
         <v>298</v>
       </c>
       <c r="B299" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C299" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="D299" s="17" t="s">
         <v>663</v>
       </c>
-      <c r="D299" s="17" t="s">
+      <c r="E299" s="17" t="s">
         <v>664</v>
-      </c>
-      <c r="E299" s="17" t="s">
-        <v>665</v>
       </c>
       <c r="F299" s="2">
         <v>256</v>
@@ -40365,16 +40366,16 @@
         <v>299</v>
       </c>
       <c r="B300" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C300" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="D300" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="E300" s="17" t="s">
         <v>666</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>666</v>
-      </c>
-      <c r="E300" s="17" t="s">
-        <v>667</v>
       </c>
       <c r="F300" s="2">
         <v>176</v>
@@ -40484,16 +40485,16 @@
         <v>300</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C301" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="D301" s="17" t="s">
         <v>668</v>
       </c>
-      <c r="D301" s="17" t="s">
+      <c r="E301" s="17" t="s">
         <v>669</v>
-      </c>
-      <c r="E301" s="17" t="s">
-        <v>670</v>
       </c>
       <c r="F301" s="2">
         <v>180</v>
@@ -40603,16 +40604,16 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C302" s="17" t="s">
+        <v>670</v>
+      </c>
+      <c r="D302" s="17" t="s">
         <v>671</v>
       </c>
-      <c r="D302" s="17" t="s">
+      <c r="E302" s="17" t="s">
         <v>672</v>
-      </c>
-      <c r="E302" s="17" t="s">
-        <v>673</v>
       </c>
       <c r="F302" s="2">
         <v>185</v>
@@ -40722,16 +40723,16 @@
         <v>302</v>
       </c>
       <c r="B303" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C303" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="D303" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="D303" s="17" t="s">
-        <v>675</v>
-      </c>
       <c r="E303" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F303" s="2">
         <v>142</v>
@@ -40841,16 +40842,16 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C304" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E304" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F304" s="2">
         <v>205</v>
@@ -40960,16 +40961,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C305" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="D305" s="17" t="s">
         <v>677</v>
       </c>
-      <c r="D305" s="17" t="s">
+      <c r="E305" s="17" t="s">
         <v>678</v>
-      </c>
-      <c r="E305" s="17" t="s">
-        <v>679</v>
       </c>
       <c r="F305" s="2">
         <v>145</v>
@@ -41079,16 +41080,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C306" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="D306" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="E306" s="17" t="s">
         <v>680</v>
-      </c>
-      <c r="D306" s="17" t="s">
-        <v>680</v>
-      </c>
-      <c r="E306" s="17" t="s">
-        <v>681</v>
       </c>
       <c r="F306" s="2">
         <v>140</v>
@@ -41198,13 +41199,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C307" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="D307" s="17" t="s">
         <v>682</v>
-      </c>
-      <c r="D307" s="17" t="s">
-        <v>683</v>
       </c>
       <c r="E307" s="17" t="s">
         <v>339</v>
@@ -41317,22 +41318,22 @@
         <v>307</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C308" s="17" t="s">
+        <v>683</v>
+      </c>
+      <c r="D308" s="17" t="s">
         <v>684</v>
       </c>
-      <c r="D308" s="17" t="s">
+      <c r="E308" s="17" t="s">
         <v>685</v>
-      </c>
-      <c r="E308" s="17" t="s">
-        <v>686</v>
       </c>
       <c r="F308" s="2">
         <v>290</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H308" s="4">
         <v>8</v>
@@ -41436,16 +41437,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C309" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="D309" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="E309" s="17" t="s">
         <v>688</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="E309" s="17" t="s">
-        <v>689</v>
       </c>
       <c r="F309" s="2">
         <v>142</v>
@@ -41555,22 +41556,22 @@
         <v>309</v>
       </c>
       <c r="B310" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C310" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="D310" s="17" t="s">
         <v>690</v>
       </c>
-      <c r="D310" s="17" t="s">
-        <v>691</v>
-      </c>
       <c r="E310" s="17" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F310" s="2">
         <v>162</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="H310" s="4">
         <v>4</v>
@@ -41674,16 +41675,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C311" s="17" t="s">
+        <v>692</v>
+      </c>
+      <c r="D311" s="17" t="s">
         <v>693</v>
       </c>
-      <c r="D311" s="17" t="s">
+      <c r="E311" s="17" t="s">
         <v>694</v>
-      </c>
-      <c r="E311" s="17" t="s">
-        <v>695</v>
       </c>
       <c r="F311" s="2">
         <v>185</v>
@@ -41793,16 +41794,16 @@
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C312" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="D312" s="17" t="s">
         <v>696</v>
       </c>
-      <c r="D312" s="17" t="s">
+      <c r="E312" s="17" t="s">
         <v>697</v>
-      </c>
-      <c r="E312" s="17" t="s">
-        <v>698</v>
       </c>
       <c r="F312" s="2">
         <v>191.91</v>
@@ -41912,22 +41913,22 @@
         <v>312</v>
       </c>
       <c r="B313" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C313" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="D313" s="17" t="s">
+        <v>698</v>
+      </c>
+      <c r="E313" s="17" t="s">
         <v>699</v>
-      </c>
-      <c r="D313" s="17" t="s">
-        <v>699</v>
-      </c>
-      <c r="E313" s="17" t="s">
-        <v>700</v>
       </c>
       <c r="F313" s="2">
         <v>301</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H313" s="4">
         <v>6</v>
@@ -42031,16 +42032,16 @@
         <v>313</v>
       </c>
       <c r="B314" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C314" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="D314" s="17" t="s">
         <v>702</v>
       </c>
-      <c r="D314" s="17" t="s">
+      <c r="E314" s="17" t="s">
         <v>703</v>
-      </c>
-      <c r="E314" s="17" t="s">
-        <v>704</v>
       </c>
       <c r="F314" s="2">
         <v>140</v>
@@ -42150,16 +42151,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C315" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="D315" s="17" t="s">
         <v>705</v>
       </c>
-      <c r="D315" s="17" t="s">
-        <v>706</v>
-      </c>
       <c r="E315" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F315" s="2">
         <v>155</v>
@@ -42269,16 +42270,16 @@
         <v>315</v>
       </c>
       <c r="B316" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C316" s="17" t="s">
+        <v>706</v>
+      </c>
+      <c r="D316" s="17" t="s">
         <v>707</v>
       </c>
-      <c r="D316" s="17" t="s">
+      <c r="E316" s="17" t="s">
         <v>708</v>
-      </c>
-      <c r="E316" s="17" t="s">
-        <v>709</v>
       </c>
       <c r="F316" s="2">
         <v>120</v>
@@ -42388,13 +42389,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C317" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="D317" s="17" t="s">
         <v>710</v>
-      </c>
-      <c r="D317" s="17" t="s">
-        <v>711</v>
       </c>
       <c r="E317" s="17" t="s">
         <v>326</v>
@@ -42507,22 +42508,22 @@
         <v>317</v>
       </c>
       <c r="B318" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C318" s="17" t="s">
+        <v>711</v>
+      </c>
+      <c r="D318" s="17" t="s">
         <v>712</v>
       </c>
-      <c r="D318" s="17" t="s">
+      <c r="E318" s="17" t="s">
         <v>713</v>
-      </c>
-      <c r="E318" s="17" t="s">
-        <v>714</v>
       </c>
       <c r="F318" s="2">
         <v>220</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H318" s="4">
         <v>7</v>
@@ -42626,16 +42627,16 @@
         <v>318</v>
       </c>
       <c r="B319" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C319" s="17" t="s">
+        <v>715</v>
+      </c>
+      <c r="D319" s="17" t="s">
         <v>716</v>
       </c>
-      <c r="D319" s="17" t="s">
-        <v>717</v>
-      </c>
       <c r="E319" s="17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F319" s="2">
         <v>280</v>
@@ -42745,16 +42746,16 @@
         <v>319</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C320" s="17" t="s">
+        <v>717</v>
+      </c>
+      <c r="D320" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="D320" s="17" t="s">
+      <c r="E320" s="17" t="s">
         <v>719</v>
-      </c>
-      <c r="E320" s="17" t="s">
-        <v>720</v>
       </c>
       <c r="F320" s="2">
         <v>220</v>
@@ -42864,16 +42865,16 @@
         <v>320</v>
       </c>
       <c r="B321" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C321" s="17" t="s">
+        <v>720</v>
+      </c>
+      <c r="D321" s="17" t="s">
         <v>721</v>
       </c>
-      <c r="D321" s="17" t="s">
+      <c r="E321" s="17" t="s">
         <v>722</v>
-      </c>
-      <c r="E321" s="17" t="s">
-        <v>723</v>
       </c>
       <c r="F321" s="2">
         <v>140</v>
@@ -42983,22 +42984,22 @@
         <v>321</v>
       </c>
       <c r="B322" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C322" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="D322" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="D322" s="17" t="s">
+      <c r="E322" s="17" t="s">
         <v>725</v>
-      </c>
-      <c r="E322" s="17" t="s">
-        <v>726</v>
       </c>
       <c r="F322" s="2">
         <v>185</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H322" s="4">
         <v>5</v>
@@ -43102,16 +43103,16 @@
         <v>322</v>
       </c>
       <c r="B323" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C323" s="17" t="s">
+        <v>727</v>
+      </c>
+      <c r="D323" s="17" t="s">
         <v>728</v>
       </c>
-      <c r="D323" s="17" t="s">
+      <c r="E323" s="17" t="s">
         <v>729</v>
-      </c>
-      <c r="E323" s="17" t="s">
-        <v>730</v>
       </c>
       <c r="F323" s="2">
         <v>126</v>
@@ -43221,16 +43222,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C324" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="D324" s="17" t="s">
+        <v>730</v>
+      </c>
+      <c r="E324" s="17" t="s">
         <v>731</v>
-      </c>
-      <c r="D324" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="E324" s="17" t="s">
-        <v>732</v>
       </c>
       <c r="F324" s="2">
         <v>138</v>
@@ -43340,16 +43341,16 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C325" s="17" t="s">
+        <v>732</v>
+      </c>
+      <c r="D325" s="17" t="s">
         <v>733</v>
       </c>
-      <c r="D325" s="17" t="s">
-        <v>734</v>
-      </c>
       <c r="E325" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F325" s="2">
         <v>170</v>
@@ -43459,16 +43460,16 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C326" s="17" t="s">
+        <v>734</v>
+      </c>
+      <c r="D326" s="17" t="s">
         <v>735</v>
       </c>
-      <c r="D326" s="17" t="s">
+      <c r="E326" s="17" t="s">
         <v>736</v>
-      </c>
-      <c r="E326" s="17" t="s">
-        <v>737</v>
       </c>
       <c r="F326" s="2">
         <v>106</v>
@@ -43578,16 +43579,16 @@
         <v>326</v>
       </c>
       <c r="B327" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C327" s="17" t="s">
+        <v>737</v>
+      </c>
+      <c r="D327" s="17" t="s">
         <v>738</v>
       </c>
-      <c r="D327" s="17" t="s">
+      <c r="E327" s="17" t="s">
         <v>739</v>
-      </c>
-      <c r="E327" s="17" t="s">
-        <v>740</v>
       </c>
       <c r="F327" s="2">
         <v>150</v>
@@ -43697,16 +43698,16 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C328" s="17" t="s">
+        <v>740</v>
+      </c>
+      <c r="D328" s="17" t="s">
         <v>741</v>
       </c>
-      <c r="D328" s="17" t="s">
+      <c r="E328" s="17" t="s">
         <v>742</v>
-      </c>
-      <c r="E328" s="17" t="s">
-        <v>743</v>
       </c>
       <c r="F328" s="2">
         <v>155</v>
@@ -43816,16 +43817,16 @@
         <v>328</v>
       </c>
       <c r="B329" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C329" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="D329" s="17" t="s">
         <v>744</v>
       </c>
-      <c r="D329" s="17" t="s">
-        <v>745</v>
-      </c>
       <c r="E329" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F329" s="2">
         <v>192</v>
@@ -43935,16 +43936,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C330" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="D330" s="17" t="s">
         <v>746</v>
       </c>
-      <c r="D330" s="17" t="s">
+      <c r="E330" s="17" t="s">
         <v>747</v>
-      </c>
-      <c r="E330" s="17" t="s">
-        <v>748</v>
       </c>
       <c r="F330" s="2">
         <v>77</v>
@@ -44054,13 +44055,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C331" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="D331" s="17" t="s">
         <v>749</v>
-      </c>
-      <c r="D331" s="17" t="s">
-        <v>750</v>
       </c>
       <c r="E331" s="17" t="s">
         <v>323</v>
@@ -44173,16 +44174,16 @@
         <v>331</v>
       </c>
       <c r="B332" s="16" t="s">
+        <v>750</v>
+      </c>
+      <c r="C332" s="16" t="s">
         <v>751</v>
       </c>
-      <c r="C332" s="16" t="s">
+      <c r="D332" s="16" t="s">
         <v>752</v>
       </c>
-      <c r="D332" s="16" t="s">
+      <c r="E332" s="16" t="s">
         <v>753</v>
-      </c>
-      <c r="E332" s="16" t="s">
-        <v>754</v>
       </c>
       <c r="F332" s="2">
         <v>140</v>
@@ -44292,13 +44293,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C333" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="D333" s="16" t="s">
         <v>755</v>
-      </c>
-      <c r="D333" s="16" t="s">
-        <v>756</v>
       </c>
       <c r="E333" s="16" t="s">
         <v>323</v>
@@ -44411,16 +44412,16 @@
         <v>333</v>
       </c>
       <c r="B334" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C334" s="16" t="s">
+        <v>756</v>
+      </c>
+      <c r="D334" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="D334" s="16" t="s">
+      <c r="E334" s="16" t="s">
         <v>758</v>
-      </c>
-      <c r="E334" s="16" t="s">
-        <v>759</v>
       </c>
       <c r="F334" s="2">
         <v>141</v>
@@ -44530,22 +44531,22 @@
         <v>334</v>
       </c>
       <c r="B335" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="D335" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="D335" s="16" t="s">
-        <v>761</v>
-      </c>
       <c r="E335" s="16" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F335" s="2">
         <v>116</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H335" s="4">
         <v>3</v>
@@ -44649,16 +44650,16 @@
         <v>335</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>763</v>
       </c>
-      <c r="D336" s="16" t="s">
+      <c r="E336" s="16" t="s">
         <v>764</v>
-      </c>
-      <c r="E336" s="16" t="s">
-        <v>765</v>
       </c>
       <c r="F336" s="2">
         <v>108</v>
@@ -44768,22 +44769,22 @@
         <v>336</v>
       </c>
       <c r="B337" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D337" s="16" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F337" s="2">
         <v>174</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H337" s="4">
         <v>2</v>
@@ -44887,22 +44888,22 @@
         <v>337</v>
       </c>
       <c r="B338" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C338" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="D338" s="16" t="s">
         <v>766</v>
       </c>
-      <c r="D338" s="16" t="s">
-        <v>767</v>
-      </c>
       <c r="E338" s="16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F338" s="2">
         <v>160</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H338" s="4">
         <v>4</v>
@@ -45006,16 +45007,16 @@
         <v>338</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C339" s="16" t="s">
+        <v>768</v>
+      </c>
+      <c r="D339" s="16" t="s">
         <v>769</v>
       </c>
-      <c r="D339" s="16" t="s">
+      <c r="E339" s="16" t="s">
         <v>770</v>
-      </c>
-      <c r="E339" s="16" t="s">
-        <v>771</v>
       </c>
       <c r="F339" s="2">
         <v>130</v>
@@ -45125,16 +45126,16 @@
         <v>339</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C340" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="D340" s="16" t="s">
         <v>772</v>
       </c>
-      <c r="D340" s="16" t="s">
+      <c r="E340" s="16" t="s">
         <v>773</v>
-      </c>
-      <c r="E340" s="16" t="s">
-        <v>774</v>
       </c>
       <c r="F340" s="2">
         <v>150</v>
@@ -45244,16 +45245,16 @@
         <v>340</v>
       </c>
       <c r="B341" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C341" s="16" t="s">
+        <v>774</v>
+      </c>
+      <c r="D341" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="D341" s="16" t="s">
-        <v>776</v>
-      </c>
       <c r="E341" s="16" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F341" s="2">
         <v>140</v>
@@ -45363,22 +45364,22 @@
         <v>341</v>
       </c>
       <c r="B342" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C342" s="16" t="s">
+        <v>793</v>
+      </c>
+      <c r="D342" s="16" t="s">
         <v>794</v>
       </c>
-      <c r="D342" s="16" t="s">
-        <v>795</v>
-      </c>
       <c r="E342" s="16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F342" s="2">
         <v>105</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H342" s="4">
         <v>4</v>
@@ -45482,22 +45483,22 @@
         <v>342</v>
       </c>
       <c r="B343" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C343" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="D343" s="16" t="s">
         <v>777</v>
       </c>
-      <c r="D343" s="16" t="s">
+      <c r="E343" s="16" t="s">
         <v>778</v>
-      </c>
-      <c r="E343" s="16" t="s">
-        <v>779</v>
       </c>
       <c r="F343" s="2">
         <v>145</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H343" s="4">
         <v>5</v>
@@ -45601,13 +45602,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C344" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="D344" s="16" t="s">
         <v>781</v>
-      </c>
-      <c r="D344" s="16" t="s">
-        <v>782</v>
       </c>
       <c r="E344" s="16" t="s">
         <v>339</v>
@@ -45720,13 +45721,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C345" s="16" t="s">
+        <v>782</v>
+      </c>
+      <c r="D345" s="16" t="s">
         <v>783</v>
-      </c>
-      <c r="D345" s="16" t="s">
-        <v>784</v>
       </c>
       <c r="E345" s="16" t="s">
         <v>359</v>
@@ -45735,7 +45736,7 @@
         <v>150</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H345" s="4">
         <v>5</v>
@@ -45839,16 +45840,16 @@
         <v>345</v>
       </c>
       <c r="B346" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C346" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="D346" s="16" t="s">
         <v>786</v>
       </c>
-      <c r="D346" s="16" t="s">
+      <c r="E346" s="16" t="s">
         <v>787</v>
-      </c>
-      <c r="E346" s="16" t="s">
-        <v>788</v>
       </c>
       <c r="F346" s="2">
         <v>100</v>
@@ -45958,22 +45959,22 @@
         <v>346</v>
       </c>
       <c r="B347" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C347" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="D347" s="16" t="s">
         <v>789</v>
       </c>
-      <c r="D347" s="16" t="s">
-        <v>790</v>
-      </c>
       <c r="E347" s="16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F347" s="2">
         <v>127</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H347" s="4">
         <v>4</v>
@@ -46077,13 +46078,13 @@
         <v>347</v>
       </c>
       <c r="B348" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C348" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="D348" s="16" t="s">
         <v>792</v>
-      </c>
-      <c r="D348" s="16" t="s">
-        <v>793</v>
       </c>
       <c r="E348" s="16" t="s">
         <v>459</v>
@@ -46196,22 +46197,22 @@
         <v>348</v>
       </c>
       <c r="B349" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C349" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="D349" s="16" t="s">
         <v>797</v>
       </c>
-      <c r="D349" s="16" t="s">
+      <c r="E349" s="16" t="s">
         <v>798</v>
-      </c>
-      <c r="E349" s="16" t="s">
-        <v>799</v>
       </c>
       <c r="F349" s="2">
         <v>155</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H349" s="4">
         <v>4</v>
@@ -46315,13 +46316,13 @@
         <v>349</v>
       </c>
       <c r="B350" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C350" s="16" t="s">
+        <v>800</v>
+      </c>
+      <c r="D350" s="16" t="s">
         <v>801</v>
-      </c>
-      <c r="D350" s="16" t="s">
-        <v>802</v>
       </c>
       <c r="E350" s="16" t="s">
         <v>326</v>
@@ -46434,13 +46435,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C351" s="16" t="s">
+        <v>802</v>
+      </c>
+      <c r="D351" s="16" t="s">
         <v>803</v>
-      </c>
-      <c r="D351" s="16" t="s">
-        <v>804</v>
       </c>
       <c r="E351" s="16" t="s">
         <v>323</v>
@@ -46553,22 +46554,22 @@
         <v>351</v>
       </c>
       <c r="B352" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C352" s="16" t="s">
+        <v>804</v>
+      </c>
+      <c r="D352" s="16" t="s">
         <v>805</v>
       </c>
-      <c r="D352" s="16" t="s">
-        <v>806</v>
-      </c>
       <c r="E352" s="16" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F352" s="2">
         <v>140</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H352" s="4">
         <v>4</v>
@@ -46672,13 +46673,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C353" s="16" t="s">
+        <v>807</v>
+      </c>
+      <c r="D353" s="16" t="s">
         <v>808</v>
-      </c>
-      <c r="D353" s="16" t="s">
-        <v>809</v>
       </c>
       <c r="E353" s="16" t="s">
         <v>163</v>
@@ -46791,22 +46792,22 @@
         <v>353</v>
       </c>
       <c r="B354" s="15" t="s">
+        <v>811</v>
+      </c>
+      <c r="C354" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="C354" s="15" t="s">
+      <c r="D354" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="D354" s="15" t="s">
+      <c r="E354" s="15" t="s">
         <v>814</v>
-      </c>
-      <c r="E354" s="15" t="s">
-        <v>815</v>
       </c>
       <c r="F354" s="2">
         <v>185</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H354" s="4">
         <v>5</v>
@@ -46910,16 +46911,16 @@
         <v>354</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C355" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="D355" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="D355" s="15" t="s">
+      <c r="E355" s="15" t="s">
         <v>818</v>
-      </c>
-      <c r="E355" s="15" t="s">
-        <v>819</v>
       </c>
       <c r="F355" s="2">
         <v>174</v>
@@ -47029,16 +47030,16 @@
         <v>355</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C356" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="D356" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="D356" s="15" t="s">
+      <c r="E356" s="15" t="s">
         <v>821</v>
-      </c>
-      <c r="E356" s="15" t="s">
-        <v>822</v>
       </c>
       <c r="F356" s="2">
         <v>128</v>
@@ -47148,22 +47149,22 @@
         <v>356</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C357" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="D357" s="15" t="s">
         <v>823</v>
       </c>
-      <c r="D357" s="15" t="s">
+      <c r="E357" s="15" t="s">
         <v>824</v>
-      </c>
-      <c r="E357" s="15" t="s">
-        <v>825</v>
       </c>
       <c r="F357" s="2">
         <v>192</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H357" s="4">
         <v>5</v>
@@ -47267,16 +47268,16 @@
         <v>357</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C358" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="D358" s="15" t="s">
         <v>827</v>
       </c>
-      <c r="D358" s="15" t="s">
-        <v>828</v>
-      </c>
       <c r="E358" s="15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F358" s="2">
         <v>180</v>
@@ -47386,16 +47387,16 @@
         <v>358</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C359" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="D359" s="15" t="s">
         <v>829</v>
       </c>
-      <c r="D359" s="15" t="s">
+      <c r="E359" s="15" t="s">
         <v>830</v>
-      </c>
-      <c r="E359" s="15" t="s">
-        <v>831</v>
       </c>
       <c r="F359" s="2">
         <v>175</v>
@@ -47505,16 +47506,16 @@
         <v>359</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C360" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="D360" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="D360" s="15" t="s">
+      <c r="E360" s="15" t="s">
         <v>833</v>
-      </c>
-      <c r="E360" s="15" t="s">
-        <v>834</v>
       </c>
       <c r="F360" s="2">
         <v>189</v>
@@ -47624,16 +47625,16 @@
         <v>360</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C361" s="15" t="s">
+        <v>834</v>
+      </c>
+      <c r="D361" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="D361" s="15" t="s">
+      <c r="E361" s="15" t="s">
         <v>836</v>
-      </c>
-      <c r="E361" s="15" t="s">
-        <v>837</v>
       </c>
       <c r="F361" s="2">
         <v>188</v>
@@ -47743,16 +47744,16 @@
         <v>361</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C362" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="D362" s="15" t="s">
         <v>838</v>
       </c>
-      <c r="D362" s="15" t="s">
+      <c r="E362" s="15" t="s">
         <v>839</v>
-      </c>
-      <c r="E362" s="15" t="s">
-        <v>840</v>
       </c>
       <c r="F362" s="2">
         <v>210</v>
@@ -47862,16 +47863,16 @@
         <v>362</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C363" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="D363" s="15" t="s">
         <v>841</v>
       </c>
-      <c r="D363" s="15" t="s">
+      <c r="E363" s="15" t="s">
         <v>842</v>
-      </c>
-      <c r="E363" s="15" t="s">
-        <v>843</v>
       </c>
       <c r="F363" s="2">
         <v>174</v>
@@ -47981,16 +47982,16 @@
         <v>363</v>
       </c>
       <c r="B364" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="C364" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="D364" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="E364" s="14" t="s">
         <v>886</v>
-      </c>
-      <c r="C364" s="14" t="s">
-        <v>889</v>
-      </c>
-      <c r="D364" s="14" t="s">
-        <v>890</v>
-      </c>
-      <c r="E364" s="14" t="s">
-        <v>887</v>
       </c>
       <c r="F364" s="2">
         <v>138</v>
@@ -48098,16 +48099,16 @@
         <v>364</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C365" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="D365" s="14" t="s">
         <v>891</v>
       </c>
-      <c r="D365" s="14" t="s">
+      <c r="E365" s="14" t="s">
         <v>892</v>
-      </c>
-      <c r="E365" s="14" t="s">
-        <v>893</v>
       </c>
       <c r="F365" s="2">
         <v>186</v>
@@ -48215,16 +48216,16 @@
         <v>365</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C366" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="D366" s="14" t="s">
         <v>894</v>
       </c>
-      <c r="D366" s="14" t="s">
+      <c r="E366" s="14" t="s">
         <v>895</v>
-      </c>
-      <c r="E366" s="14" t="s">
-        <v>896</v>
       </c>
       <c r="F366" s="2">
         <v>140</v>
@@ -48332,13 +48333,13 @@
         <v>366</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C367" s="14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D367" s="14" t="s">
         <v>1035</v>
-      </c>
-      <c r="D367" s="14" t="s">
-        <v>1036</v>
       </c>
       <c r="E367" s="14" t="s">
         <v>347</v>
@@ -48449,16 +48450,16 @@
         <v>367</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C368" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="D368" s="14" t="s">
         <v>898</v>
       </c>
-      <c r="D368" s="14" t="s">
+      <c r="E368" s="14" t="s">
         <v>899</v>
-      </c>
-      <c r="E368" s="14" t="s">
-        <v>900</v>
       </c>
       <c r="F368" s="2">
         <v>130</v>
@@ -48566,16 +48567,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C369" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="D369" s="14" t="s">
         <v>901</v>
       </c>
-      <c r="D369" s="14" t="s">
+      <c r="E369" s="14" t="s">
         <v>902</v>
-      </c>
-      <c r="E369" s="14" t="s">
-        <v>903</v>
       </c>
       <c r="F369" s="2">
         <v>185</v>
@@ -48683,16 +48684,16 @@
         <v>369</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C370" s="14" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D370" s="14" t="s">
         <v>1064</v>
       </c>
-      <c r="D370" s="14" t="s">
-        <v>1065</v>
-      </c>
       <c r="E370" s="14" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F370" s="2">
         <v>142</v>
@@ -48800,16 +48801,16 @@
         <v>370</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C371" s="14" t="s">
+        <v>903</v>
+      </c>
+      <c r="D371" s="14" t="s">
         <v>904</v>
       </c>
-      <c r="D371" s="14" t="s">
+      <c r="E371" s="14" t="s">
         <v>905</v>
-      </c>
-      <c r="E371" s="14" t="s">
-        <v>906</v>
       </c>
       <c r="F371" s="2">
         <v>195</v>
@@ -48917,16 +48918,16 @@
         <v>371</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C372" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="D372" s="14" t="s">
         <v>907</v>
       </c>
-      <c r="D372" s="14" t="s">
+      <c r="E372" s="14" t="s">
         <v>908</v>
-      </c>
-      <c r="E372" s="14" t="s">
-        <v>909</v>
       </c>
       <c r="F372" s="2">
         <v>106</v>
@@ -49034,16 +49035,16 @@
         <v>372</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C373" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="D373" s="14" t="s">
         <v>910</v>
       </c>
-      <c r="D373" s="14" t="s">
+      <c r="E373" s="14" t="s">
         <v>911</v>
-      </c>
-      <c r="E373" s="14" t="s">
-        <v>912</v>
       </c>
       <c r="F373" s="2">
         <v>180</v>
@@ -49151,16 +49152,16 @@
         <v>373</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C374" s="14" t="s">
+        <v>912</v>
+      </c>
+      <c r="D374" s="14" t="s">
         <v>913</v>
       </c>
-      <c r="D374" s="14" t="s">
+      <c r="E374" s="14" t="s">
         <v>914</v>
-      </c>
-      <c r="E374" s="14" t="s">
-        <v>915</v>
       </c>
       <c r="F374" s="2">
         <v>135</v>
@@ -49268,22 +49269,22 @@
         <v>374</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C375" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="D375" s="14" t="s">
         <v>916</v>
       </c>
-      <c r="D375" s="14" t="s">
+      <c r="E375" s="14" t="s">
         <v>917</v>
-      </c>
-      <c r="E375" s="14" t="s">
-        <v>918</v>
       </c>
       <c r="F375" s="2">
         <v>133</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H375" s="4">
         <v>3</v>
@@ -49387,16 +49388,16 @@
         <v>375</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C376" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="D376" s="14" t="s">
         <v>920</v>
       </c>
-      <c r="D376" s="14" t="s">
+      <c r="E376" s="14" t="s">
         <v>921</v>
-      </c>
-      <c r="E376" s="14" t="s">
-        <v>922</v>
       </c>
       <c r="F376" s="2">
         <v>215</v>
@@ -49504,16 +49505,16 @@
         <v>376</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C377" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="D377" s="14" t="s">
         <v>923</v>
       </c>
-      <c r="D377" s="14" t="s">
+      <c r="E377" s="14" t="s">
         <v>924</v>
-      </c>
-      <c r="E377" s="14" t="s">
-        <v>925</v>
       </c>
       <c r="F377" s="2">
         <v>145</v>
@@ -49621,16 +49622,16 @@
         <v>377</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C378" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D378" s="14" t="s">
         <v>1037</v>
       </c>
-      <c r="D378" s="14" t="s">
+      <c r="E378" s="14" t="s">
         <v>1038</v>
-      </c>
-      <c r="E378" s="14" t="s">
-        <v>1039</v>
       </c>
       <c r="F378" s="2">
         <v>126</v>
@@ -49738,16 +49739,16 @@
         <v>378</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C379" s="14" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D379" s="14" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E379" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F379" s="2">
         <v>140</v>
@@ -49855,16 +49856,16 @@
         <v>379</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C380" s="14" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D380" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E380" s="14" t="s">
         <v>1066</v>
-      </c>
-      <c r="E380" s="14" t="s">
-        <v>1067</v>
       </c>
       <c r="F380" s="2">
         <v>150</v>
@@ -49972,16 +49973,16 @@
         <v>380</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D381" s="14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E381" s="14" t="s">
         <v>1047</v>
-      </c>
-      <c r="E381" s="14" t="s">
-        <v>1048</v>
       </c>
       <c r="F381" s="2">
         <v>200</v>
@@ -50089,16 +50090,16 @@
         <v>381</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C382" s="14" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D382" s="14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E382" s="14" t="s">
         <v>1068</v>
-      </c>
-      <c r="E382" s="14" t="s">
-        <v>1069</v>
       </c>
       <c r="F382" s="2">
         <v>180</v>
@@ -50206,16 +50207,16 @@
         <v>382</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D383" s="14" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E383" s="14" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F383" s="2">
         <v>175</v>
@@ -50323,16 +50324,16 @@
         <v>383</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C384" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="D384" s="14" t="s">
         <v>926</v>
       </c>
-      <c r="D384" s="14" t="s">
-        <v>927</v>
-      </c>
       <c r="E384" s="14" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F384" s="2">
         <v>125</v>
@@ -50440,16 +50441,16 @@
         <v>384</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C385" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D385" s="14" t="s">
         <v>1071</v>
       </c>
-      <c r="D385" s="14" t="s">
+      <c r="E385" s="14" t="s">
         <v>1072</v>
-      </c>
-      <c r="E385" s="14" t="s">
-        <v>1073</v>
       </c>
       <c r="F385" s="2">
         <v>173</v>
@@ -50557,16 +50558,16 @@
         <v>385</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C386" s="14" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D386" s="14" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E386" s="14" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F386" s="2">
         <v>169</v>
@@ -50674,16 +50675,16 @@
         <v>386</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C387" s="14" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D387" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E387" s="14" t="s">
         <v>1074</v>
-      </c>
-      <c r="E387" s="14" t="s">
-        <v>1075</v>
       </c>
       <c r="F387" s="2">
         <v>175</v>
@@ -50791,16 +50792,16 @@
         <v>387</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C388" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D388" s="14" t="s">
         <v>1076</v>
       </c>
-      <c r="D388" s="14" t="s">
+      <c r="E388" s="14" t="s">
         <v>1077</v>
-      </c>
-      <c r="E388" s="14" t="s">
-        <v>1078</v>
       </c>
       <c r="F388" s="2">
         <v>130</v>
@@ -50908,16 +50909,16 @@
         <v>388</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C389" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="D389" s="14" t="s">
         <v>928</v>
       </c>
-      <c r="D389" s="14" t="s">
-        <v>929</v>
-      </c>
       <c r="E389" s="14" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F389" s="2">
         <v>182</v>
@@ -51025,16 +51026,16 @@
         <v>389</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D390" s="14" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E390" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F390" s="2">
         <v>150</v>
@@ -51142,16 +51143,16 @@
         <v>390</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C391" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="D391" s="14" t="s">
         <v>930</v>
       </c>
-      <c r="D391" s="14" t="s">
-        <v>931</v>
-      </c>
       <c r="E391" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F391" s="2">
         <v>150</v>
@@ -51259,16 +51260,16 @@
         <v>391</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C392" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="D392" s="14" t="s">
         <v>932</v>
       </c>
-      <c r="D392" s="14" t="s">
+      <c r="E392" s="14" t="s">
         <v>933</v>
-      </c>
-      <c r="E392" s="14" t="s">
-        <v>934</v>
       </c>
       <c r="F392" s="2">
         <v>130</v>
@@ -51376,16 +51377,16 @@
         <v>392</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C393" s="14" t="s">
+        <v>934</v>
+      </c>
+      <c r="D393" s="14" t="s">
         <v>935</v>
       </c>
-      <c r="D393" s="14" t="s">
+      <c r="E393" s="14" t="s">
         <v>936</v>
-      </c>
-      <c r="E393" s="14" t="s">
-        <v>937</v>
       </c>
       <c r="F393" s="2">
         <v>145</v>
@@ -51493,16 +51494,16 @@
         <v>393</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C394" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="D394" s="14" t="s">
         <v>938</v>
       </c>
-      <c r="D394" s="14" t="s">
-        <v>939</v>
-      </c>
       <c r="E394" s="14" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F394" s="2">
         <v>128</v>
@@ -51610,16 +51611,16 @@
         <v>394</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C395" s="14" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D395" s="14" t="s">
         <v>1050</v>
       </c>
-      <c r="D395" s="14" t="s">
+      <c r="E395" s="14" t="s">
         <v>1051</v>
-      </c>
-      <c r="E395" s="14" t="s">
-        <v>1052</v>
       </c>
       <c r="F395" s="2">
         <v>150</v>
@@ -51727,16 +51728,16 @@
         <v>395</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C396" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="D396" s="14" t="s">
         <v>940</v>
       </c>
-      <c r="D396" s="14" t="s">
-        <v>941</v>
-      </c>
       <c r="E396" s="14" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="F396" s="2">
         <v>138</v>
@@ -51844,16 +51845,16 @@
         <v>396</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D397" s="14" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E397" s="14" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F397" s="2">
         <v>128</v>
@@ -51961,16 +51962,16 @@
         <v>397</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D398" s="14" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E398" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F398" s="2">
         <v>176</v>
@@ -52078,16 +52079,16 @@
         <v>398</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D399" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E399" s="14" t="s">
         <v>1080</v>
-      </c>
-      <c r="E399" s="14" t="s">
-        <v>1081</v>
       </c>
       <c r="F399" s="2">
         <v>180</v>
@@ -52195,16 +52196,16 @@
         <v>399</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D400" s="14" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E400" s="14" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F400" s="2">
         <v>150</v>
@@ -52312,16 +52313,16 @@
         <v>400</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C401" s="14" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D401" s="14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E401" s="14" t="s">
         <v>1082</v>
-      </c>
-      <c r="E401" s="14" t="s">
-        <v>1083</v>
       </c>
       <c r="F401" s="2">
         <v>180</v>
@@ -52429,16 +52430,16 @@
         <v>401</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C402" s="14" t="s">
+        <v>941</v>
+      </c>
+      <c r="D402" s="14" t="s">
         <v>942</v>
       </c>
-      <c r="D402" s="14" t="s">
-        <v>943</v>
-      </c>
       <c r="E402" s="14" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F402" s="2">
         <v>85</v>
@@ -52546,16 +52547,16 @@
         <v>402</v>
       </c>
       <c r="B403" s="19" t="s">
+        <v>944</v>
+      </c>
+      <c r="C403" s="19" t="s">
+        <v>966</v>
+      </c>
+      <c r="D403" s="19" t="s">
         <v>945</v>
       </c>
-      <c r="C403" s="19" t="s">
-        <v>967</v>
-      </c>
-      <c r="D403" s="19" t="s">
+      <c r="E403" s="19" t="s">
         <v>946</v>
-      </c>
-      <c r="E403" s="19" t="s">
-        <v>947</v>
       </c>
       <c r="F403" s="2">
         <v>145</v>
@@ -52663,16 +52664,16 @@
         <v>403</v>
       </c>
       <c r="B404" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C404" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D404" s="19" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E404" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F404" s="2">
         <v>211</v>
@@ -52780,16 +52781,16 @@
         <v>404</v>
       </c>
       <c r="B405" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C405" s="19" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D405" s="19" t="s">
+        <v>948</v>
+      </c>
+      <c r="E405" s="19" t="s">
         <v>949</v>
-      </c>
-      <c r="E405" s="19" t="s">
-        <v>950</v>
       </c>
       <c r="F405" s="2">
         <v>200</v>
@@ -52897,16 +52898,16 @@
         <v>405</v>
       </c>
       <c r="B406" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D406" s="19" t="s">
+        <v>950</v>
+      </c>
+      <c r="E406" s="19" t="s">
         <v>951</v>
-      </c>
-      <c r="E406" s="19" t="s">
-        <v>952</v>
       </c>
       <c r="F406" s="2">
         <v>170</v>
@@ -53014,16 +53015,16 @@
         <v>406</v>
       </c>
       <c r="B407" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C407" s="19" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D407" s="19" t="s">
+        <v>952</v>
+      </c>
+      <c r="E407" s="19" t="s">
         <v>953</v>
-      </c>
-      <c r="E407" s="19" t="s">
-        <v>954</v>
       </c>
       <c r="F407" s="2">
         <v>132</v>
@@ -53131,16 +53132,16 @@
         <v>407</v>
       </c>
       <c r="B408" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C408" s="19" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D408" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E408" s="19" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F408" s="2">
         <v>150</v>
@@ -53248,16 +53249,16 @@
         <v>408</v>
       </c>
       <c r="B409" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C409" s="19" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D409" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E409" s="19" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F409" s="2">
         <v>110</v>
@@ -53365,16 +53366,16 @@
         <v>409</v>
       </c>
       <c r="B410" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C410" s="19" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D410" s="19" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E410" s="19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F410" s="2">
         <v>178</v>
@@ -53482,16 +53483,16 @@
         <v>410</v>
       </c>
       <c r="B411" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C411" s="19" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D411" s="19" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E411" s="19" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F411" s="2">
         <v>122</v>
@@ -53599,16 +53600,16 @@
         <v>411</v>
       </c>
       <c r="B412" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C412" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D412" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="E412" s="19" t="s">
         <v>959</v>
-      </c>
-      <c r="E412" s="19" t="s">
-        <v>960</v>
       </c>
       <c r="F412" s="2">
         <v>155</v>
@@ -53716,16 +53717,16 @@
         <v>412</v>
       </c>
       <c r="B413" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C413" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D413" s="19" t="s">
+        <v>960</v>
+      </c>
+      <c r="E413" s="19" t="s">
         <v>961</v>
-      </c>
-      <c r="E413" s="19" t="s">
-        <v>962</v>
       </c>
       <c r="F413" s="2">
         <v>154</v>
@@ -53833,16 +53834,16 @@
         <v>413</v>
       </c>
       <c r="B414" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C414" s="19" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D414" s="19" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E414" s="19" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F414" s="2">
         <v>154</v>
@@ -53950,16 +53951,16 @@
         <v>414</v>
       </c>
       <c r="B415" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C415" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D415" s="19" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E415" s="19" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F415" s="2">
         <v>98</v>
@@ -54067,16 +54068,16 @@
         <v>415</v>
       </c>
       <c r="B416" s="19" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C416" s="19" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D416" s="19" t="s">
+        <v>964</v>
+      </c>
+      <c r="E416" s="19" t="s">
         <v>965</v>
-      </c>
-      <c r="E416" s="19" t="s">
-        <v>966</v>
       </c>
       <c r="F416" s="2">
         <v>142</v>
@@ -54184,16 +54185,16 @@
         <v>416</v>
       </c>
       <c r="B417" s="20" t="s">
+        <v>983</v>
+      </c>
+      <c r="C417" s="20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D417" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="E417" s="20" t="s">
         <v>984</v>
-      </c>
-      <c r="C417" s="20" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D417" s="20" t="s">
-        <v>899</v>
-      </c>
-      <c r="E417" s="20" t="s">
-        <v>985</v>
       </c>
       <c r="F417" s="2">
         <v>150</v>
@@ -54301,16 +54302,16 @@
         <v>417</v>
       </c>
       <c r="B418" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C418" s="20" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D418" s="20" t="s">
+        <v>985</v>
+      </c>
+      <c r="E418" s="20" t="s">
         <v>986</v>
-      </c>
-      <c r="E418" s="20" t="s">
-        <v>987</v>
       </c>
       <c r="F418" s="2">
         <v>145</v>
@@ -54418,16 +54419,16 @@
         <v>418</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C419" s="20" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D419" s="20" t="s">
+        <v>987</v>
+      </c>
+      <c r="E419" s="20" t="s">
         <v>988</v>
-      </c>
-      <c r="E419" s="20" t="s">
-        <v>989</v>
       </c>
       <c r="F419" s="2">
         <v>108</v>
@@ -54535,16 +54536,16 @@
         <v>419</v>
       </c>
       <c r="B420" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C420" s="20" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D420" s="20" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E420" s="20" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F420" s="2">
         <v>155</v>
@@ -54652,16 +54653,16 @@
         <v>420</v>
       </c>
       <c r="B421" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C421" s="20" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D421" s="20" t="s">
+        <v>991</v>
+      </c>
+      <c r="E421" s="20" t="s">
         <v>992</v>
-      </c>
-      <c r="E421" s="20" t="s">
-        <v>993</v>
       </c>
       <c r="F421" s="2">
         <v>150</v>
@@ -54769,16 +54770,16 @@
         <v>421</v>
       </c>
       <c r="B422" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C422" s="20" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D422" s="20" t="s">
+        <v>993</v>
+      </c>
+      <c r="E422" s="20" t="s">
         <v>994</v>
-      </c>
-      <c r="E422" s="20" t="s">
-        <v>995</v>
       </c>
       <c r="F422" s="2">
         <v>175</v>
@@ -54886,16 +54887,16 @@
         <v>422</v>
       </c>
       <c r="B423" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C423" s="20" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D423" s="20" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E423" s="20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F423" s="2">
         <v>156</v>
@@ -55003,16 +55004,16 @@
         <v>423</v>
       </c>
       <c r="B424" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C424" s="20" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D424" s="20" t="s">
+        <v>997</v>
+      </c>
+      <c r="E424" s="20" t="s">
         <v>998</v>
-      </c>
-      <c r="E424" s="20" t="s">
-        <v>999</v>
       </c>
       <c r="F424" s="2">
         <v>136</v>
@@ -55120,16 +55121,16 @@
         <v>424</v>
       </c>
       <c r="B425" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C425" s="20" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D425" s="20" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E425" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F425" s="2">
         <v>141</v>
@@ -55237,16 +55238,16 @@
         <v>425</v>
       </c>
       <c r="B426" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C426" s="20" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D426" s="20" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E426" s="20" t="s">
         <v>1001</v>
-      </c>
-      <c r="E426" s="20" t="s">
-        <v>1002</v>
       </c>
       <c r="F426" s="2">
         <v>172</v>
@@ -55354,16 +55355,16 @@
         <v>426</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C427" s="20" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D427" s="20" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E427" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F427" s="2">
         <v>122</v>
@@ -55471,16 +55472,16 @@
         <v>427</v>
       </c>
       <c r="B428" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C428" s="20" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D428" s="20" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E428" s="20" t="s">
         <v>1004</v>
-      </c>
-      <c r="E428" s="20" t="s">
-        <v>1005</v>
       </c>
       <c r="F428" s="2">
         <v>130</v>
@@ -55588,16 +55589,16 @@
         <v>428</v>
       </c>
       <c r="B429" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C429" s="20" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D429" s="20" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E429" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F429" s="2">
         <v>150</v>
@@ -55705,16 +55706,16 @@
         <v>429</v>
       </c>
       <c r="B430" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C430" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D430" s="20" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E430" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F430" s="2">
         <v>136</v>
@@ -55822,16 +55823,16 @@
         <v>430</v>
       </c>
       <c r="B431" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C431" s="20" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D431" s="20" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E431" s="20" t="s">
         <v>1009</v>
-      </c>
-      <c r="E431" s="20" t="s">
-        <v>1010</v>
       </c>
       <c r="F431" s="2">
         <v>200</v>
@@ -55939,16 +55940,16 @@
         <v>431</v>
       </c>
       <c r="B432" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C432" s="20" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D432" s="20" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E432" s="20" t="s">
         <v>1011</v>
-      </c>
-      <c r="E432" s="20" t="s">
-        <v>1012</v>
       </c>
       <c r="F432" s="2">
         <v>129</v>
@@ -56056,16 +56057,16 @@
         <v>432</v>
       </c>
       <c r="B433" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C433" s="20" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D433" s="20" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E433" s="20" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F433" s="2">
         <v>144</v>
@@ -56173,16 +56174,16 @@
         <v>433</v>
       </c>
       <c r="B434" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C434" s="20" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D434" s="20" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E434" s="20" t="s">
         <v>1015</v>
-      </c>
-      <c r="E434" s="20" t="s">
-        <v>1016</v>
       </c>
       <c r="F434" s="2">
         <v>148</v>

--- a/docs/songlist/songlist.xlsx
+++ b/docs/songlist/songlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarilotus\GitHub\ez2on\docs\songlist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarilotus\Github\ez2on\docs\songlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43ECB653-7442-4BF3-A27C-64F2F99892E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72B1EB0-B7AC-4810-B481-4453944C3559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -677,9 +677,6 @@
   </si>
   <si>
     <t>FuturistRemaster</t>
-  </si>
-  <si>
-    <t>Futurist</t>
   </si>
   <si>
     <t>Go</t>
@@ -3534,6 +3531,10 @@
   </si>
   <si>
     <t>Sigma</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Futurist (Remaster)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -4818,10 +4819,10 @@
   <dimension ref="A1:AM434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D203" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C218" sqref="C218"/>
+      <selection pane="bottomRight" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4840,121 +4841,121 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>843</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>844</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>845</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>849</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>853</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>854</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>856</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>857</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>858</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>859</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>860</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="6" t="s">
         <v>872</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="7" t="s">
         <v>876</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>879</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>880</v>
       </c>
-      <c r="AJ1" s="8" t="s">
+      <c r="AK1" s="8" t="s">
         <v>881</v>
       </c>
-      <c r="AK1" s="8" t="s">
+      <c r="AL1" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="AL1" s="8" t="s">
+      <c r="AM1" s="8" t="s">
         <v>883</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -6634,7 +6635,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="46" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E16" s="46" t="s">
         <v>35</v>
@@ -7699,7 +7700,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C25" s="44" t="s">
         <v>56</v>
@@ -7818,7 +7819,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C26" s="44" t="s">
         <v>59</v>
@@ -7937,7 +7938,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C27" s="44" t="s">
         <v>61</v>
@@ -8056,7 +8057,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C28" s="44" t="s">
         <v>64</v>
@@ -8175,7 +8176,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C29" s="44" t="s">
         <v>66</v>
@@ -8294,7 +8295,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>69</v>
@@ -8413,7 +8414,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C31" s="44" t="s">
         <v>72</v>
@@ -8532,7 +8533,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C32" s="44" t="s">
         <v>74</v>
@@ -8651,13 +8652,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C33" s="44" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E33" s="44" t="s">
         <v>3</v>
@@ -8770,13 +8771,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="E34" s="44" t="s">
         <v>3</v>
@@ -8887,7 +8888,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C35" s="44" t="s">
         <v>78</v>
@@ -9006,7 +9007,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C36" s="44" t="s">
         <v>81</v>
@@ -9125,7 +9126,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C37" s="44" t="s">
         <v>84</v>
@@ -9244,7 +9245,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C38" s="44" t="s">
         <v>87</v>
@@ -9363,7 +9364,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>90</v>
@@ -9482,7 +9483,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C40" s="44" t="s">
         <v>93</v>
@@ -9601,7 +9602,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C41" s="44" t="s">
         <v>96</v>
@@ -9720,7 +9721,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C42" s="44" t="s">
         <v>98</v>
@@ -9839,7 +9840,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C43" s="44" t="s">
         <v>100</v>
@@ -9958,7 +9959,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C44" s="44" t="s">
         <v>102</v>
@@ -10077,7 +10078,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>104</v>
@@ -13412,10 +13413,10 @@
         <v>162</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D73" s="40" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E73" s="39" t="s">
         <v>163</v>
@@ -13531,10 +13532,10 @@
         <v>162</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E74" s="39" t="s">
         <v>164</v>
@@ -16985,7 +16986,7 @@
         <v>217</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>218</v>
+        <v>1098</v>
       </c>
       <c r="E103" s="37" t="s">
         <v>92</v>
@@ -17101,10 +17102,10 @@
         <v>200</v>
       </c>
       <c r="C104" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="D104" s="37" t="s">
         <v>219</v>
-      </c>
-      <c r="D104" s="37" t="s">
-        <v>220</v>
       </c>
       <c r="E104" s="37" t="s">
         <v>92</v>
@@ -17220,10 +17221,10 @@
         <v>200</v>
       </c>
       <c r="C105" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105" s="37" t="s">
         <v>221</v>
-      </c>
-      <c r="D105" s="37" t="s">
-        <v>222</v>
       </c>
       <c r="E105" s="37" t="s">
         <v>164</v>
@@ -17339,10 +17340,10 @@
         <v>200</v>
       </c>
       <c r="C106" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="D106" s="37" t="s">
         <v>223</v>
-      </c>
-      <c r="D106" s="37" t="s">
-        <v>224</v>
       </c>
       <c r="E106" s="37" t="s">
         <v>92</v>
@@ -17458,10 +17459,10 @@
         <v>200</v>
       </c>
       <c r="C107" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107" s="37" t="s">
         <v>225</v>
-      </c>
-      <c r="D107" s="37" t="s">
-        <v>226</v>
       </c>
       <c r="E107" s="37" t="s">
         <v>92</v>
@@ -17577,10 +17578,10 @@
         <v>200</v>
       </c>
       <c r="C108" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" s="37" t="s">
         <v>227</v>
-      </c>
-      <c r="D108" s="37" t="s">
-        <v>228</v>
       </c>
       <c r="E108" s="37" t="s">
         <v>164</v>
@@ -17696,10 +17697,10 @@
         <v>200</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D109" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E109" s="37" t="s">
         <v>89</v>
@@ -17815,10 +17816,10 @@
         <v>200</v>
       </c>
       <c r="C110" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="D110" s="37" t="s">
         <v>230</v>
-      </c>
-      <c r="D110" s="37" t="s">
-        <v>231</v>
       </c>
       <c r="E110" s="37" t="s">
         <v>89</v>
@@ -17934,10 +17935,10 @@
         <v>200</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D111" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E111" s="37" t="s">
         <v>164</v>
@@ -18053,10 +18054,10 @@
         <v>200</v>
       </c>
       <c r="C112" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D112" s="37" t="s">
         <v>233</v>
-      </c>
-      <c r="D112" s="37" t="s">
-        <v>234</v>
       </c>
       <c r="E112" s="37" t="s">
         <v>92</v>
@@ -18169,16 +18170,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="C113" s="35" t="s">
+      <c r="D113" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="D113" s="35" t="s">
+      <c r="E113" s="35" t="s">
         <v>237</v>
-      </c>
-      <c r="E113" s="35" t="s">
-        <v>238</v>
       </c>
       <c r="F113" s="34">
         <v>105</v>
@@ -18288,16 +18289,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C114" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D114" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="E114" s="35" t="s">
         <v>240</v>
-      </c>
-      <c r="E114" s="35" t="s">
-        <v>241</v>
       </c>
       <c r="F114" s="34">
         <v>160</v>
@@ -18407,16 +18408,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C115" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D115" s="35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E115" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F115" s="34">
         <v>108</v>
@@ -18526,16 +18527,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C116" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D116" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E116" s="35" t="s">
         <v>243</v>
-      </c>
-      <c r="D116" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="E116" s="35" t="s">
-        <v>244</v>
       </c>
       <c r="F116" s="34">
         <v>125</v>
@@ -18645,16 +18646,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C117" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="D117" s="35" t="s">
-        <v>246</v>
-      </c>
       <c r="E117" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F117" s="34">
         <v>122</v>
@@ -18764,16 +18765,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C118" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="D118" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="D118" s="35" t="s">
-        <v>248</v>
-      </c>
       <c r="E118" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F118" s="34">
         <v>123</v>
@@ -18883,16 +18884,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C119" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="D119" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="D119" s="35" t="s">
-        <v>250</v>
-      </c>
       <c r="E119" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F119" s="34">
         <v>130</v>
@@ -19002,16 +19003,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C120" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D120" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E120" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F120" s="34">
         <v>127</v>
@@ -19121,16 +19122,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C121" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="D121" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="D121" s="35" t="s">
+      <c r="E121" s="35" t="s">
         <v>253</v>
-      </c>
-      <c r="E121" s="35" t="s">
-        <v>254</v>
       </c>
       <c r="F121" s="34">
         <v>160</v>
@@ -19240,16 +19241,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C122" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="D122" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="D122" s="35" t="s">
-        <v>256</v>
-      </c>
       <c r="E122" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F122" s="34">
         <v>160</v>
@@ -19359,16 +19360,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C123" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="D123" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="D123" s="35" t="s">
-        <v>258</v>
-      </c>
       <c r="E123" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F123" s="34">
         <v>130</v>
@@ -19478,16 +19479,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C124" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="D124" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="D124" s="35" t="s">
-        <v>260</v>
-      </c>
       <c r="E124" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F124" s="34">
         <v>153</v>
@@ -19597,16 +19598,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C125" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D125" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E125" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F125" s="34">
         <v>100</v>
@@ -19716,16 +19717,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C126" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="D126" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="D126" s="35" t="s">
+      <c r="E126" s="35" t="s">
         <v>263</v>
-      </c>
-      <c r="E126" s="35" t="s">
-        <v>264</v>
       </c>
       <c r="F126" s="34">
         <v>85</v>
@@ -19835,16 +19836,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C127" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D127" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="D127" s="35" t="s">
-        <v>266</v>
-      </c>
       <c r="E127" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F127" s="34">
         <v>147</v>
@@ -19954,16 +19955,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C128" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D128" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E128" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F128" s="34">
         <v>165</v>
@@ -20073,13 +20074,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C129" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C129" s="33" t="s">
+      <c r="D129" s="33" t="s">
         <v>269</v>
-      </c>
-      <c r="D129" s="33" t="s">
-        <v>270</v>
       </c>
       <c r="E129" s="33" t="s">
         <v>63</v>
@@ -20192,16 +20193,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C130" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D130" s="33" t="s">
         <v>271</v>
       </c>
-      <c r="D130" s="33" t="s">
+      <c r="E130" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="E130" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="F130" s="32">
         <v>123</v>
@@ -20311,16 +20312,16 @@
         <v>130</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C131" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="D131" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="D131" s="33" t="s">
+      <c r="E131" s="33" t="s">
         <v>275</v>
-      </c>
-      <c r="E131" s="33" t="s">
-        <v>276</v>
       </c>
       <c r="F131" s="32">
         <v>128</v>
@@ -20430,13 +20431,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C132" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="D132" s="33" t="s">
         <v>277</v>
-      </c>
-      <c r="D132" s="33" t="s">
-        <v>278</v>
       </c>
       <c r="E132" s="33" t="s">
         <v>63</v>
@@ -20549,16 +20550,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C133" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D133" s="33" t="s">
         <v>279</v>
       </c>
-      <c r="D133" s="33" t="s">
+      <c r="E133" s="33" t="s">
         <v>280</v>
-      </c>
-      <c r="E133" s="33" t="s">
-        <v>281</v>
       </c>
       <c r="F133" s="32">
         <v>140</v>
@@ -20668,16 +20669,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C134" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="D134" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="D134" s="33" t="s">
+      <c r="E134" s="33" t="s">
         <v>283</v>
-      </c>
-      <c r="E134" s="33" t="s">
-        <v>284</v>
       </c>
       <c r="F134" s="32">
         <v>128</v>
@@ -20787,16 +20788,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C135" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D135" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="D135" s="33" t="s">
-        <v>286</v>
-      </c>
       <c r="E135" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F135" s="32">
         <v>113</v>
@@ -20906,16 +20907,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C136" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D136" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="D136" s="33" t="s">
-        <v>288</v>
-      </c>
       <c r="E136" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F136" s="32">
         <v>150</v>
@@ -21025,16 +21026,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C137" s="33" t="s">
+        <v>288</v>
+      </c>
+      <c r="D137" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="D137" s="33" t="s">
+      <c r="E137" s="33" t="s">
         <v>290</v>
-      </c>
-      <c r="E137" s="33" t="s">
-        <v>291</v>
       </c>
       <c r="F137" s="32">
         <v>125</v>
@@ -21144,16 +21145,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C138" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="D138" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="D138" s="33" t="s">
-        <v>293</v>
-      </c>
       <c r="E138" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F138" s="32">
         <v>135</v>
@@ -21263,16 +21264,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C139" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D139" s="33" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E139" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F139" s="32">
         <v>145</v>
@@ -21382,13 +21383,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C140" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="D140" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="D140" s="33" t="s">
-        <v>296</v>
       </c>
       <c r="E140" s="33" t="s">
         <v>63</v>
@@ -21501,13 +21502,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C141" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="D141" s="33" t="s">
         <v>297</v>
-      </c>
-      <c r="D141" s="33" t="s">
-        <v>298</v>
       </c>
       <c r="E141" s="33" t="s">
         <v>63</v>
@@ -21620,13 +21621,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C142" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="D142" s="33" t="s">
         <v>299</v>
-      </c>
-      <c r="D142" s="33" t="s">
-        <v>300</v>
       </c>
       <c r="E142" s="33" t="s">
         <v>63</v>
@@ -21739,16 +21740,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C143" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="D143" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="D143" s="33" t="s">
+      <c r="E143" s="33" t="s">
         <v>302</v>
-      </c>
-      <c r="E143" s="33" t="s">
-        <v>303</v>
       </c>
       <c r="F143" s="32">
         <v>126</v>
@@ -21858,16 +21859,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C144" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="D144" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="D144" s="33" t="s">
-        <v>305</v>
-      </c>
       <c r="E144" s="33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F144" s="32">
         <v>100</v>
@@ -21977,16 +21978,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F145" s="32">
         <v>125</v>
@@ -22096,16 +22097,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C146" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="D146" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="D146" s="33" t="s">
-        <v>308</v>
-      </c>
       <c r="E146" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F146" s="32">
         <v>115</v>
@@ -22215,13 +22216,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C147" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="D147" s="33" t="s">
         <v>309</v>
-      </c>
-      <c r="D147" s="33" t="s">
-        <v>310</v>
       </c>
       <c r="E147" s="33" t="s">
         <v>3</v>
@@ -22334,16 +22335,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C148" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="D148" s="33" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E148" s="33" t="s">
         <v>311</v>
-      </c>
-      <c r="D148" s="33" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E148" s="33" t="s">
-        <v>312</v>
       </c>
       <c r="F148" s="32">
         <v>96</v>
@@ -22453,16 +22454,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C149" s="33" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D149" s="33" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E149" s="33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F149" s="32">
         <v>96</v>
@@ -22570,13 +22571,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C150" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="D150" s="33" t="s">
         <v>313</v>
-      </c>
-      <c r="D150" s="33" t="s">
-        <v>314</v>
       </c>
       <c r="E150" s="33" t="s">
         <v>63</v>
@@ -22689,16 +22690,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C151" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="D151" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="D151" s="33" t="s">
-        <v>316</v>
-      </c>
       <c r="E151" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F151" s="32">
         <v>110</v>
@@ -22808,16 +22809,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C152" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="D152" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="D152" s="33" t="s">
+      <c r="E152" s="33" t="s">
         <v>318</v>
-      </c>
-      <c r="E152" s="33" t="s">
-        <v>319</v>
       </c>
       <c r="F152" s="32">
         <v>100</v>
@@ -22927,16 +22928,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="C153" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="C153" s="31" t="s">
+      <c r="D153" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="D153" s="31" t="s">
+      <c r="E153" s="31" t="s">
         <v>322</v>
-      </c>
-      <c r="E153" s="31" t="s">
-        <v>323</v>
       </c>
       <c r="F153" s="30">
         <v>87</v>
@@ -23046,16 +23047,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C154" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="D154" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D154" s="31" t="s">
+      <c r="E154" s="31" t="s">
         <v>325</v>
-      </c>
-      <c r="E154" s="31" t="s">
-        <v>326</v>
       </c>
       <c r="F154" s="30">
         <v>115</v>
@@ -23165,16 +23166,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C155" s="31" t="s">
+        <v>326</v>
+      </c>
+      <c r="D155" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="D155" s="31" t="s">
+      <c r="E155" s="31" t="s">
         <v>328</v>
-      </c>
-      <c r="E155" s="31" t="s">
-        <v>329</v>
       </c>
       <c r="F155" s="30">
         <v>125</v>
@@ -23284,16 +23285,16 @@
         <v>155</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C156" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="D156" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="D156" s="31" t="s">
-        <v>331</v>
-      </c>
       <c r="E156" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F156" s="30">
         <v>150</v>
@@ -23403,16 +23404,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C157" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="D157" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="D157" s="31" t="s">
-        <v>333</v>
-      </c>
       <c r="E157" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F157" s="30">
         <v>140</v>
@@ -23522,16 +23523,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C158" s="31" t="s">
+        <v>333</v>
+      </c>
+      <c r="D158" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D158" s="31" t="s">
+      <c r="E158" s="31" t="s">
         <v>335</v>
-      </c>
-      <c r="E158" s="31" t="s">
-        <v>336</v>
       </c>
       <c r="F158" s="30">
         <v>120</v>
@@ -23641,16 +23642,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C159" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D159" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="D159" s="31" t="s">
+      <c r="E159" s="31" t="s">
         <v>338</v>
-      </c>
-      <c r="E159" s="31" t="s">
-        <v>339</v>
       </c>
       <c r="F159" s="30">
         <v>133</v>
@@ -23760,16 +23761,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C160" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="D160" s="31" t="s">
         <v>340</v>
       </c>
-      <c r="D160" s="31" t="s">
-        <v>341</v>
-      </c>
       <c r="E160" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F160" s="30">
         <v>130</v>
@@ -23879,16 +23880,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C161" s="31" t="s">
+        <v>341</v>
+      </c>
+      <c r="D161" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="D161" s="31" t="s">
+      <c r="E161" s="31" t="s">
         <v>343</v>
-      </c>
-      <c r="E161" s="31" t="s">
-        <v>344</v>
       </c>
       <c r="F161" s="30">
         <v>135</v>
@@ -23998,16 +23999,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C162" s="31" t="s">
+        <v>344</v>
+      </c>
+      <c r="D162" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="D162" s="31" t="s">
+      <c r="E162" s="31" t="s">
         <v>346</v>
-      </c>
-      <c r="E162" s="31" t="s">
-        <v>347</v>
       </c>
       <c r="F162" s="30">
         <v>100</v>
@@ -24117,16 +24118,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C163" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="D163" s="31" t="s">
         <v>348</v>
       </c>
-      <c r="D163" s="31" t="s">
-        <v>349</v>
-      </c>
       <c r="E163" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F163" s="30">
         <v>140</v>
@@ -24236,16 +24237,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C164" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E164" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F164" s="30">
         <v>125</v>
@@ -24355,16 +24356,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C165" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="D165" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="D165" s="31" t="s">
+      <c r="E165" s="31" t="s">
         <v>352</v>
-      </c>
-      <c r="E165" s="31" t="s">
-        <v>353</v>
       </c>
       <c r="F165" s="30">
         <v>144</v>
@@ -24474,16 +24475,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C166" s="31" t="s">
+        <v>353</v>
+      </c>
+      <c r="D166" s="31" t="s">
         <v>354</v>
       </c>
-      <c r="D166" s="31" t="s">
-        <v>355</v>
-      </c>
       <c r="E166" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F166" s="30">
         <v>125</v>
@@ -24593,16 +24594,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C167" s="31" t="s">
+        <v>355</v>
+      </c>
+      <c r="D167" s="31" t="s">
         <v>356</v>
       </c>
-      <c r="D167" s="31" t="s">
-        <v>357</v>
-      </c>
       <c r="E167" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F167" s="30">
         <v>135</v>
@@ -24712,16 +24713,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C168" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="D168" s="31" t="s">
+        <v>357</v>
+      </c>
+      <c r="E168" s="31" t="s">
         <v>358</v>
-      </c>
-      <c r="D168" s="31" t="s">
-        <v>358</v>
-      </c>
-      <c r="E168" s="31" t="s">
-        <v>359</v>
       </c>
       <c r="F168" s="30">
         <v>150</v>
@@ -24831,16 +24832,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C169" s="31" t="s">
+        <v>359</v>
+      </c>
+      <c r="D169" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="D169" s="31" t="s">
-        <v>361</v>
-      </c>
       <c r="E169" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F169" s="30">
         <v>170</v>
@@ -24950,16 +24951,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C170" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E170" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F170" s="30">
         <v>123</v>
@@ -25069,16 +25070,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C171" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="D171" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="D171" s="31" t="s">
+      <c r="E171" s="31" t="s">
         <v>364</v>
-      </c>
-      <c r="E171" s="31" t="s">
-        <v>365</v>
       </c>
       <c r="F171" s="30">
         <v>190</v>
@@ -25188,16 +25189,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C172" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="D172" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="D172" s="31" t="s">
-        <v>367</v>
-      </c>
       <c r="E172" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F172" s="30">
         <v>160</v>
@@ -25307,16 +25308,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C173" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="D173" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="D173" s="31" t="s">
-        <v>369</v>
-      </c>
       <c r="E173" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F173" s="30">
         <v>140</v>
@@ -25426,16 +25427,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C174" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="D174" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="D174" s="31" t="s">
-        <v>371</v>
-      </c>
       <c r="E174" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F174" s="30">
         <v>180</v>
@@ -25545,16 +25546,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C175" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="D175" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="D175" s="31" t="s">
+      <c r="E175" s="31" t="s">
         <v>373</v>
-      </c>
-      <c r="E175" s="31" t="s">
-        <v>374</v>
       </c>
       <c r="F175" s="30">
         <v>105</v>
@@ -25664,16 +25665,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C176" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D176" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E176" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F176" s="30">
         <v>128</v>
@@ -25783,16 +25784,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C177" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="D177" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="D177" s="31" t="s">
-        <v>377</v>
-      </c>
       <c r="E177" s="31" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F177" s="30">
         <v>140</v>
@@ -25902,16 +25903,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C178" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E178" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F178" s="30">
         <v>140</v>
@@ -26021,16 +26022,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C179" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D179" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E179" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F179" s="30">
         <v>185</v>
@@ -26140,16 +26141,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C180" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D180" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="D180" s="31" t="s">
+      <c r="E180" s="31" t="s">
         <v>381</v>
-      </c>
-      <c r="E180" s="31" t="s">
-        <v>382</v>
       </c>
       <c r="F180" s="30">
         <v>155</v>
@@ -26259,16 +26260,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C181" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="D181" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="D181" s="31" t="s">
-        <v>384</v>
-      </c>
       <c r="E181" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F181" s="30">
         <v>128</v>
@@ -26378,16 +26379,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C182" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="D182" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="D182" s="31" t="s">
-        <v>386</v>
-      </c>
       <c r="E182" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F182" s="30">
         <v>148</v>
@@ -26497,16 +26498,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C183" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="D183" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="D183" s="31" t="s">
-        <v>388</v>
-      </c>
       <c r="E183" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F183" s="30">
         <v>140</v>
@@ -26616,16 +26617,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C184" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="D184" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="D184" s="31" t="s">
-        <v>390</v>
-      </c>
       <c r="E184" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F184" s="30">
         <v>140</v>
@@ -26735,16 +26736,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C185" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="D185" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="D185" s="31" t="s">
-        <v>392</v>
-      </c>
       <c r="E185" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F185" s="30">
         <v>170</v>
@@ -26854,16 +26855,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D186" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E186" s="31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F186" s="30">
         <v>140</v>
@@ -26973,16 +26974,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C187" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="D187" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="D187" s="31" t="s">
-        <v>395</v>
-      </c>
       <c r="E187" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F187" s="30">
         <v>135</v>
@@ -27092,16 +27093,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C188" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="D188" s="31" t="s">
         <v>396</v>
       </c>
-      <c r="D188" s="31" t="s">
-        <v>397</v>
-      </c>
       <c r="E188" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F188" s="30">
         <v>120</v>
@@ -27211,16 +27212,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C189" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="D189" s="31" t="s">
         <v>398</v>
       </c>
-      <c r="D189" s="31" t="s">
-        <v>399</v>
-      </c>
       <c r="E189" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F189" s="30">
         <v>160</v>
@@ -27330,16 +27331,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C190" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="D190" s="31" t="s">
         <v>400</v>
       </c>
-      <c r="D190" s="31" t="s">
-        <v>401</v>
-      </c>
       <c r="E190" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F190" s="30">
         <v>110</v>
@@ -27449,16 +27450,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C191" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="D191" s="31" t="s">
         <v>402</v>
       </c>
-      <c r="D191" s="31" t="s">
+      <c r="E191" s="31" t="s">
         <v>403</v>
-      </c>
-      <c r="E191" s="31" t="s">
-        <v>404</v>
       </c>
       <c r="F191" s="30">
         <v>140</v>
@@ -27552,16 +27553,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C192" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="D192" s="31" t="s">
         <v>405</v>
       </c>
-      <c r="D192" s="31" t="s">
-        <v>406</v>
-      </c>
       <c r="E192" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F192" s="30">
         <v>160</v>
@@ -27671,16 +27672,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C193" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="D193" s="31" t="s">
         <v>407</v>
       </c>
-      <c r="D193" s="31" t="s">
-        <v>408</v>
-      </c>
       <c r="E193" s="31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F193" s="30">
         <v>141</v>
@@ -27790,16 +27791,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C194" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="D194" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="D194" s="31" t="s">
-        <v>410</v>
-      </c>
       <c r="E194" s="31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F194" s="30">
         <v>128</v>
@@ -27912,19 +27913,19 @@
         <v>2008</v>
       </c>
       <c r="C195" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="D195" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="D195" s="29" t="s">
+      <c r="E195" s="29" t="s">
         <v>412</v>
-      </c>
-      <c r="E195" s="29" t="s">
-        <v>413</v>
       </c>
       <c r="F195" s="28">
         <v>178</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H195" s="4">
         <v>3</v>
@@ -28031,13 +28032,13 @@
         <v>2008</v>
       </c>
       <c r="C196" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="D196" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="D196" s="29" t="s">
+      <c r="E196" s="29" t="s">
         <v>416</v>
-      </c>
-      <c r="E196" s="29" t="s">
-        <v>417</v>
       </c>
       <c r="F196" s="28">
         <v>176</v>
@@ -28150,13 +28151,13 @@
         <v>2008</v>
       </c>
       <c r="C197" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="D197" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="D197" s="29" t="s">
+      <c r="E197" s="29" t="s">
         <v>419</v>
-      </c>
-      <c r="E197" s="29" t="s">
-        <v>420</v>
       </c>
       <c r="F197" s="28">
         <v>120</v>
@@ -28269,13 +28270,13 @@
         <v>2008</v>
       </c>
       <c r="C198" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="D198" s="29" t="s">
         <v>421</v>
       </c>
-      <c r="D198" s="29" t="s">
+      <c r="E198" s="29" t="s">
         <v>422</v>
-      </c>
-      <c r="E198" s="29" t="s">
-        <v>423</v>
       </c>
       <c r="F198" s="28">
         <v>115</v>
@@ -28388,13 +28389,13 @@
         <v>2008</v>
       </c>
       <c r="C199" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="D199" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="D199" s="29" t="s">
-        <v>425</v>
-      </c>
       <c r="E199" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F199" s="28">
         <v>135</v>
@@ -28507,13 +28508,13 @@
         <v>2008</v>
       </c>
       <c r="C200" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="D200" s="29" t="s">
         <v>426</v>
       </c>
-      <c r="D200" s="29" t="s">
-        <v>427</v>
-      </c>
       <c r="E200" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F200" s="28">
         <v>133</v>
@@ -28626,13 +28627,13 @@
         <v>2008</v>
       </c>
       <c r="C201" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="D201" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="D201" s="29" t="s">
-        <v>429</v>
-      </c>
       <c r="E201" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F201" s="28">
         <v>150</v>
@@ -28745,13 +28746,13 @@
         <v>2008</v>
       </c>
       <c r="C202" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="D202" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="D202" s="29" t="s">
+      <c r="E202" s="29" t="s">
         <v>431</v>
-      </c>
-      <c r="E202" s="29" t="s">
-        <v>432</v>
       </c>
       <c r="F202" s="28">
         <v>150</v>
@@ -28864,13 +28865,13 @@
         <v>2008</v>
       </c>
       <c r="C203" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="D203" s="29" t="s">
         <v>433</v>
       </c>
-      <c r="D203" s="29" t="s">
-        <v>434</v>
-      </c>
       <c r="E203" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F203" s="28">
         <v>145</v>
@@ -28983,13 +28984,13 @@
         <v>2008</v>
       </c>
       <c r="C204" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="D204" s="29" t="s">
         <v>435</v>
       </c>
-      <c r="D204" s="29" t="s">
-        <v>436</v>
-      </c>
       <c r="E204" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F204" s="28">
         <v>155</v>
@@ -29102,13 +29103,13 @@
         <v>2008</v>
       </c>
       <c r="C205" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="D205" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="D205" s="29" t="s">
-        <v>438</v>
-      </c>
       <c r="E205" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F205" s="28">
         <v>150</v>
@@ -29221,13 +29222,13 @@
         <v>2008</v>
       </c>
       <c r="C206" s="29" t="s">
+        <v>438</v>
+      </c>
+      <c r="D206" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="D206" s="29" t="s">
+      <c r="E206" s="29" t="s">
         <v>440</v>
-      </c>
-      <c r="E206" s="29" t="s">
-        <v>441</v>
       </c>
       <c r="F206" s="28">
         <v>128</v>
@@ -29308,13 +29309,13 @@
         <v>2008</v>
       </c>
       <c r="C207" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="D207" s="29" t="s">
         <v>442</v>
       </c>
-      <c r="D207" s="29" t="s">
-        <v>443</v>
-      </c>
       <c r="E207" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F207" s="28">
         <v>165</v>
@@ -29427,13 +29428,13 @@
         <v>2008</v>
       </c>
       <c r="C208" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="D208" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="D208" s="29" t="s">
-        <v>445</v>
-      </c>
       <c r="E208" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F208" s="28">
         <v>140</v>
@@ -29546,13 +29547,13 @@
         <v>2008</v>
       </c>
       <c r="C209" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D209" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E209" s="29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F209" s="28">
         <v>128</v>
@@ -29665,13 +29666,13 @@
         <v>2008</v>
       </c>
       <c r="C210" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="D210" s="29" t="s">
         <v>447</v>
       </c>
-      <c r="D210" s="29" t="s">
-        <v>448</v>
-      </c>
       <c r="E210" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F210" s="28">
         <v>106</v>
@@ -29784,13 +29785,13 @@
         <v>2013</v>
       </c>
       <c r="C211" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="D211" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="D211" s="27" t="s">
-        <v>450</v>
-      </c>
       <c r="E211" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F211" s="26">
         <v>144</v>
@@ -29903,13 +29904,13 @@
         <v>2013</v>
       </c>
       <c r="C212" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="D212" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="D212" s="27" t="s">
+      <c r="E212" s="27" t="s">
         <v>452</v>
-      </c>
-      <c r="E212" s="27" t="s">
-        <v>453</v>
       </c>
       <c r="F212" s="26">
         <v>150</v>
@@ -30022,13 +30023,13 @@
         <v>2013</v>
       </c>
       <c r="C213" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="D213" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="D213" s="27" t="s">
+      <c r="E213" s="27" t="s">
         <v>455</v>
-      </c>
-      <c r="E213" s="27" t="s">
-        <v>456</v>
       </c>
       <c r="F213" s="26">
         <v>128</v>
@@ -30141,13 +30142,13 @@
         <v>2013</v>
       </c>
       <c r="C214" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="D214" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="D214" s="27" t="s">
+      <c r="E214" s="27" t="s">
         <v>458</v>
-      </c>
-      <c r="E214" s="27" t="s">
-        <v>459</v>
       </c>
       <c r="F214" s="26">
         <v>150</v>
@@ -30260,19 +30261,19 @@
         <v>2013</v>
       </c>
       <c r="C215" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="D215" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="D215" s="27" t="s">
+      <c r="E215" s="27" t="s">
         <v>461</v>
-      </c>
-      <c r="E215" s="27" t="s">
-        <v>462</v>
       </c>
       <c r="F215" s="26">
         <v>180</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H215" s="4">
         <v>5</v>
@@ -30379,13 +30380,13 @@
         <v>2013</v>
       </c>
       <c r="C216" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="D216" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="E216" s="27" t="s">
         <v>464</v>
-      </c>
-      <c r="D216" s="27" t="s">
-        <v>464</v>
-      </c>
-      <c r="E216" s="27" t="s">
-        <v>465</v>
       </c>
       <c r="F216" s="26">
         <v>175</v>
@@ -30498,13 +30499,13 @@
         <v>2013</v>
       </c>
       <c r="C217" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="D217" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="D217" s="27" t="s">
+      <c r="E217" s="27" t="s">
         <v>467</v>
-      </c>
-      <c r="E217" s="27" t="s">
-        <v>468</v>
       </c>
       <c r="F217" s="26">
         <v>210</v>
@@ -30617,13 +30618,13 @@
         <v>2013</v>
       </c>
       <c r="C218" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D218" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E218" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F218" s="26">
         <v>175</v>
@@ -30736,13 +30737,13 @@
         <v>2013</v>
       </c>
       <c r="C219" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="D219" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="E219" s="27" t="s">
         <v>470</v>
-      </c>
-      <c r="D219" s="27" t="s">
-        <v>470</v>
-      </c>
-      <c r="E219" s="27" t="s">
-        <v>471</v>
       </c>
       <c r="F219" s="26">
         <v>111</v>
@@ -30855,13 +30856,13 @@
         <v>2013</v>
       </c>
       <c r="C220" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D220" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E220" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F220" s="26">
         <v>180</v>
@@ -30974,13 +30975,13 @@
         <v>2013</v>
       </c>
       <c r="C221" s="27" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D221" s="27" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E221" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F221" s="26">
         <v>160</v>
@@ -31093,13 +31094,13 @@
         <v>2013</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D222" s="27" t="s">
+        <v>472</v>
+      </c>
+      <c r="E222" s="27" t="s">
         <v>473</v>
-      </c>
-      <c r="E222" s="27" t="s">
-        <v>474</v>
       </c>
       <c r="F222" s="26">
         <v>133</v>
@@ -31212,13 +31213,13 @@
         <v>2013</v>
       </c>
       <c r="C223" s="27" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D223" s="27" t="s">
         <v>1084</v>
       </c>
-      <c r="D223" s="27" t="s">
-        <v>1085</v>
-      </c>
       <c r="E223" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F223" s="26">
         <v>133</v>
@@ -31329,13 +31330,13 @@
         <v>2013</v>
       </c>
       <c r="C224" s="27" t="s">
+        <v>474</v>
+      </c>
+      <c r="D224" s="27" t="s">
         <v>475</v>
       </c>
-      <c r="D224" s="27" t="s">
-        <v>476</v>
-      </c>
       <c r="E224" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F224" s="26">
         <v>135</v>
@@ -31448,13 +31449,13 @@
         <v>2013</v>
       </c>
       <c r="C225" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="D225" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="D225" s="27" t="s">
+      <c r="E225" s="27" t="s">
         <v>478</v>
-      </c>
-      <c r="E225" s="27" t="s">
-        <v>479</v>
       </c>
       <c r="F225" s="26">
         <v>171</v>
@@ -31567,13 +31568,13 @@
         <v>2021</v>
       </c>
       <c r="C226" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="D226" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="D226" s="25" t="s">
-        <v>481</v>
-      </c>
       <c r="E226" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F226" s="24">
         <v>130</v>
@@ -31686,13 +31687,13 @@
         <v>2021</v>
       </c>
       <c r="C227" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="D227" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="D227" s="25" t="s">
+      <c r="E227" s="25" t="s">
         <v>483</v>
-      </c>
-      <c r="E227" s="25" t="s">
-        <v>484</v>
       </c>
       <c r="F227" s="24">
         <v>146</v>
@@ -31805,13 +31806,13 @@
         <v>2021</v>
       </c>
       <c r="C228" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="D228" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="D228" s="25" t="s">
+      <c r="E228" s="25" t="s">
         <v>486</v>
-      </c>
-      <c r="E228" s="25" t="s">
-        <v>487</v>
       </c>
       <c r="F228" s="24">
         <v>178</v>
@@ -31924,13 +31925,13 @@
         <v>2021</v>
       </c>
       <c r="C229" s="25" t="s">
+        <v>487</v>
+      </c>
+      <c r="D229" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="D229" s="25" t="s">
+      <c r="E229" s="25" t="s">
         <v>489</v>
-      </c>
-      <c r="E229" s="25" t="s">
-        <v>490</v>
       </c>
       <c r="F229" s="24">
         <v>191</v>
@@ -32043,13 +32044,13 @@
         <v>2021</v>
       </c>
       <c r="C230" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="D230" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="D230" s="25" t="s">
+      <c r="E230" s="25" t="s">
         <v>492</v>
-      </c>
-      <c r="E230" s="25" t="s">
-        <v>493</v>
       </c>
       <c r="F230" s="24">
         <v>160</v>
@@ -32162,19 +32163,19 @@
         <v>2021</v>
       </c>
       <c r="C231" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="D231" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="D231" s="25" t="s">
+      <c r="E231" s="25" t="s">
         <v>495</v>
-      </c>
-      <c r="E231" s="25" t="s">
-        <v>496</v>
       </c>
       <c r="F231" s="24">
         <v>170</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H231" s="4">
         <v>4</v>
@@ -32281,13 +32282,13 @@
         <v>2021</v>
       </c>
       <c r="C232" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="D232" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="D232" s="25" t="s">
+      <c r="E232" s="25" t="s">
         <v>499</v>
-      </c>
-      <c r="E232" s="25" t="s">
-        <v>500</v>
       </c>
       <c r="F232" s="24">
         <v>126</v>
@@ -32400,13 +32401,13 @@
         <v>2021</v>
       </c>
       <c r="C233" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="D233" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="D233" s="25" t="s">
-        <v>502</v>
-      </c>
       <c r="E233" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F233" s="24">
         <v>190</v>
@@ -32519,13 +32520,13 @@
         <v>2021</v>
       </c>
       <c r="C234" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="D234" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="D234" s="25" t="s">
+      <c r="E234" s="25" t="s">
         <v>504</v>
-      </c>
-      <c r="E234" s="25" t="s">
-        <v>505</v>
       </c>
       <c r="F234" s="24">
         <v>160</v>
@@ -32638,13 +32639,13 @@
         <v>2021</v>
       </c>
       <c r="C235" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="D235" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="D235" s="25" t="s">
-        <v>507</v>
-      </c>
       <c r="E235" s="25" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F235" s="24">
         <v>180</v>
@@ -32757,13 +32758,13 @@
         <v>2021</v>
       </c>
       <c r="C236" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="D236" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="E236" s="25" t="s">
         <v>508</v>
-      </c>
-      <c r="D236" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="E236" s="25" t="s">
-        <v>509</v>
       </c>
       <c r="F236" s="24">
         <v>150</v>
@@ -32876,13 +32877,13 @@
         <v>2021</v>
       </c>
       <c r="C237" s="25" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D237" s="25" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E237" s="25" t="s">
         <v>1093</v>
-      </c>
-      <c r="D237" s="25" t="s">
-        <v>1093</v>
-      </c>
-      <c r="E237" s="25" t="s">
-        <v>1094</v>
       </c>
       <c r="F237" s="24">
         <v>90</v>
@@ -32993,13 +32994,13 @@
         <v>2021</v>
       </c>
       <c r="C238" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="D238" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="D238" s="25" t="s">
-        <v>511</v>
-      </c>
       <c r="E238" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F238" s="24">
         <v>135</v>
@@ -33112,13 +33113,13 @@
         <v>2021</v>
       </c>
       <c r="C239" s="25" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D239" s="25" t="s">
         <v>1095</v>
       </c>
-      <c r="D239" s="25" t="s">
-        <v>1096</v>
-      </c>
       <c r="E239" s="25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F239" s="24">
         <v>210</v>
@@ -33229,13 +33230,13 @@
         <v>2021</v>
       </c>
       <c r="C240" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="D240" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="E240" s="25" t="s">
         <v>512</v>
-      </c>
-      <c r="D240" s="25" t="s">
-        <v>512</v>
-      </c>
-      <c r="E240" s="25" t="s">
-        <v>513</v>
       </c>
       <c r="F240" s="24">
         <v>174</v>
@@ -33348,13 +33349,13 @@
         <v>2021</v>
       </c>
       <c r="C241" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="D241" s="25" t="s">
         <v>514</v>
       </c>
-      <c r="D241" s="25" t="s">
+      <c r="E241" s="25" t="s">
         <v>515</v>
-      </c>
-      <c r="E241" s="25" t="s">
-        <v>516</v>
       </c>
       <c r="F241" s="24">
         <v>150</v>
@@ -33467,13 +33468,13 @@
         <v>2021</v>
       </c>
       <c r="C242" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="D242" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="D242" s="25" t="s">
+      <c r="E242" s="25" t="s">
         <v>518</v>
-      </c>
-      <c r="E242" s="25" t="s">
-        <v>519</v>
       </c>
       <c r="F242" s="24">
         <v>140</v>
@@ -33586,13 +33587,13 @@
         <v>2021</v>
       </c>
       <c r="C243" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="D243" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="E243" s="25" t="s">
         <v>520</v>
-      </c>
-      <c r="D243" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E243" s="25" t="s">
-        <v>521</v>
       </c>
       <c r="F243" s="24">
         <v>178</v>
@@ -33705,13 +33706,13 @@
         <v>2021</v>
       </c>
       <c r="C244" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="D244" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="D244" s="25" t="s">
+      <c r="E244" s="25" t="s">
         <v>523</v>
-      </c>
-      <c r="E244" s="25" t="s">
-        <v>524</v>
       </c>
       <c r="F244" s="24">
         <v>144</v>
@@ -33824,13 +33825,13 @@
         <v>2021</v>
       </c>
       <c r="C245" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="D245" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="E245" s="25" t="s">
         <v>525</v>
-      </c>
-      <c r="D245" s="25" t="s">
-        <v>525</v>
-      </c>
-      <c r="E245" s="25" t="s">
-        <v>526</v>
       </c>
       <c r="F245" s="24">
         <v>128</v>
@@ -33943,13 +33944,13 @@
         <v>2021</v>
       </c>
       <c r="C246" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="D246" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="D246" s="25" t="s">
+      <c r="E246" s="25" t="s">
         <v>528</v>
-      </c>
-      <c r="E246" s="25" t="s">
-        <v>529</v>
       </c>
       <c r="F246" s="24">
         <v>190</v>
@@ -34062,13 +34063,13 @@
         <v>2021</v>
       </c>
       <c r="C247" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="D247" s="25" t="s">
         <v>530</v>
       </c>
-      <c r="D247" s="25" t="s">
+      <c r="E247" s="25" t="s">
         <v>531</v>
-      </c>
-      <c r="E247" s="25" t="s">
-        <v>532</v>
       </c>
       <c r="F247" s="24">
         <v>195</v>
@@ -34181,13 +34182,13 @@
         <v>2021</v>
       </c>
       <c r="C248" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="D248" s="25" t="s">
         <v>533</v>
       </c>
-      <c r="D248" s="25" t="s">
+      <c r="E248" s="25" t="s">
         <v>534</v>
-      </c>
-      <c r="E248" s="25" t="s">
-        <v>535</v>
       </c>
       <c r="F248" s="24">
         <v>116</v>
@@ -34300,13 +34301,13 @@
         <v>2021</v>
       </c>
       <c r="C249" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="D249" s="25" t="s">
         <v>536</v>
       </c>
-      <c r="D249" s="25" t="s">
+      <c r="E249" s="25" t="s">
         <v>537</v>
-      </c>
-      <c r="E249" s="25" t="s">
-        <v>538</v>
       </c>
       <c r="F249" s="24">
         <v>170</v>
@@ -34419,13 +34420,13 @@
         <v>2021</v>
       </c>
       <c r="C250" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="D250" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="D250" s="25" t="s">
-        <v>540</v>
-      </c>
       <c r="E250" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F250" s="24">
         <v>190</v>
@@ -34538,13 +34539,13 @@
         <v>2021</v>
       </c>
       <c r="C251" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="D251" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="D251" s="25" t="s">
+      <c r="E251" s="25" t="s">
         <v>542</v>
-      </c>
-      <c r="E251" s="25" t="s">
-        <v>543</v>
       </c>
       <c r="F251" s="24">
         <v>150</v>
@@ -34657,13 +34658,13 @@
         <v>2021</v>
       </c>
       <c r="C252" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="D252" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="D252" s="25" t="s">
-        <v>545</v>
-      </c>
       <c r="E252" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F252" s="24">
         <v>140</v>
@@ -34776,13 +34777,13 @@
         <v>2021</v>
       </c>
       <c r="C253" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="D253" s="25" t="s">
         <v>546</v>
       </c>
-      <c r="D253" s="25" t="s">
+      <c r="E253" s="25" t="s">
         <v>547</v>
-      </c>
-      <c r="E253" s="25" t="s">
-        <v>548</v>
       </c>
       <c r="F253" s="24">
         <v>150</v>
@@ -34895,13 +34896,13 @@
         <v>2021</v>
       </c>
       <c r="C254" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="D254" s="25" t="s">
         <v>549</v>
       </c>
-      <c r="D254" s="25" t="s">
+      <c r="E254" s="25" t="s">
         <v>550</v>
-      </c>
-      <c r="E254" s="25" t="s">
-        <v>551</v>
       </c>
       <c r="F254" s="24">
         <v>170</v>
@@ -35014,19 +35015,19 @@
         <v>2021</v>
       </c>
       <c r="C255" s="25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D255" s="25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E255" s="25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F255" s="24">
         <v>202</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H255" s="4">
         <v>5</v>
@@ -35133,13 +35134,13 @@
         <v>2021</v>
       </c>
       <c r="C256" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="D256" s="25" t="s">
         <v>554</v>
       </c>
-      <c r="D256" s="25" t="s">
-        <v>555</v>
-      </c>
       <c r="E256" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F256" s="24">
         <v>141.9</v>
@@ -35252,13 +35253,13 @@
         <v>2021</v>
       </c>
       <c r="C257" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="D257" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="D257" s="25" t="s">
+      <c r="E257" s="25" t="s">
         <v>557</v>
-      </c>
-      <c r="E257" s="25" t="s">
-        <v>558</v>
       </c>
       <c r="F257" s="24">
         <v>185</v>
@@ -35371,13 +35372,13 @@
         <v>2021</v>
       </c>
       <c r="C258" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="D258" s="25" t="s">
         <v>559</v>
       </c>
-      <c r="D258" s="25" t="s">
-        <v>560</v>
-      </c>
       <c r="E258" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F258" s="24">
         <v>142</v>
@@ -35490,13 +35491,13 @@
         <v>2021</v>
       </c>
       <c r="C259" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="D259" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="D259" s="25" t="s">
-        <v>562</v>
-      </c>
       <c r="E259" s="25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F259" s="24">
         <v>175</v>
@@ -35609,13 +35610,13 @@
         <v>2021</v>
       </c>
       <c r="C260" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="D260" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="E260" s="25" t="s">
         <v>563</v>
-      </c>
-      <c r="D260" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="E260" s="25" t="s">
-        <v>564</v>
       </c>
       <c r="F260" s="24">
         <v>190</v>
@@ -35728,19 +35729,19 @@
         <v>2021</v>
       </c>
       <c r="C261" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="D261" s="25" t="s">
         <v>565</v>
       </c>
-      <c r="D261" s="25" t="s">
+      <c r="E261" s="25" t="s">
         <v>566</v>
-      </c>
-      <c r="E261" s="25" t="s">
-        <v>567</v>
       </c>
       <c r="F261" s="24">
         <v>202</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H261" s="4">
         <v>5</v>
@@ -35847,13 +35848,13 @@
         <v>2021</v>
       </c>
       <c r="C262" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="D262" s="25" t="s">
         <v>569</v>
       </c>
-      <c r="D262" s="25" t="s">
-        <v>570</v>
-      </c>
       <c r="E262" s="25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F262" s="24">
         <v>127</v>
@@ -35963,16 +35964,16 @@
         <v>262</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C263" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="D263" s="23" t="s">
         <v>599</v>
       </c>
-      <c r="D263" s="23" t="s">
-        <v>600</v>
-      </c>
       <c r="E263" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F263" s="22">
         <v>130</v>
@@ -36082,16 +36083,16 @@
         <v>263</v>
       </c>
       <c r="B264" s="23" t="s">
+        <v>570</v>
+      </c>
+      <c r="C264" s="23" t="s">
         <v>571</v>
       </c>
-      <c r="C264" s="23" t="s">
+      <c r="D264" s="23" t="s">
         <v>572</v>
       </c>
-      <c r="D264" s="23" t="s">
+      <c r="E264" s="23" t="s">
         <v>573</v>
-      </c>
-      <c r="E264" s="23" t="s">
-        <v>574</v>
       </c>
       <c r="F264" s="22">
         <v>128</v>
@@ -36201,16 +36202,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C265" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="D265" s="23" t="s">
         <v>575</v>
       </c>
-      <c r="D265" s="23" t="s">
+      <c r="E265" s="23" t="s">
         <v>576</v>
-      </c>
-      <c r="E265" s="23" t="s">
-        <v>577</v>
       </c>
       <c r="F265" s="22">
         <v>175</v>
@@ -36320,16 +36321,16 @@
         <v>265</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C266" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="D266" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="D266" s="23" t="s">
-        <v>579</v>
-      </c>
       <c r="E266" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F266" s="22">
         <v>128</v>
@@ -36439,16 +36440,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C267" s="23" t="s">
+        <v>579</v>
+      </c>
+      <c r="D267" s="23" t="s">
         <v>580</v>
       </c>
-      <c r="D267" s="23" t="s">
-        <v>581</v>
-      </c>
       <c r="E267" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F267" s="22">
         <v>106</v>
@@ -36558,16 +36559,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C268" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="D268" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="E268" s="23" t="s">
         <v>601</v>
-      </c>
-      <c r="D268" s="23" t="s">
-        <v>601</v>
-      </c>
-      <c r="E268" s="23" t="s">
-        <v>602</v>
       </c>
       <c r="F268" s="22">
         <v>151</v>
@@ -36677,16 +36678,16 @@
         <v>268</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C269" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D269" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="D269" s="23" t="s">
+      <c r="E269" s="23" t="s">
         <v>583</v>
-      </c>
-      <c r="E269" s="23" t="s">
-        <v>584</v>
       </c>
       <c r="F269" s="22">
         <v>185</v>
@@ -36796,16 +36797,16 @@
         <v>269</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C270" s="23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E270" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F270" s="22">
         <v>180</v>
@@ -36915,16 +36916,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C271" s="23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D271" s="23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E271" s="23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F271" s="22">
         <v>178</v>
@@ -37034,16 +37035,16 @@
         <v>271</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C272" s="23" t="s">
+        <v>585</v>
+      </c>
+      <c r="D272" s="23" t="s">
         <v>586</v>
       </c>
-      <c r="D272" s="23" t="s">
+      <c r="E272" s="23" t="s">
         <v>587</v>
-      </c>
-      <c r="E272" s="23" t="s">
-        <v>588</v>
       </c>
       <c r="F272" s="22">
         <v>147</v>
@@ -37153,16 +37154,16 @@
         <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C273" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="D273" s="23" t="s">
         <v>604</v>
       </c>
-      <c r="D273" s="23" t="s">
-        <v>605</v>
-      </c>
       <c r="E273" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F273" s="22">
         <v>174</v>
@@ -37272,16 +37273,16 @@
         <v>273</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C274" s="23" t="s">
+        <v>588</v>
+      </c>
+      <c r="D274" s="23" t="s">
         <v>589</v>
       </c>
-      <c r="D274" s="23" t="s">
+      <c r="E274" s="23" t="s">
         <v>590</v>
-      </c>
-      <c r="E274" s="23" t="s">
-        <v>591</v>
       </c>
       <c r="F274" s="22">
         <v>175</v>
@@ -37391,16 +37392,16 @@
         <v>274</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C275" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="D275" s="23" t="s">
         <v>592</v>
       </c>
-      <c r="D275" s="23" t="s">
+      <c r="E275" s="23" t="s">
         <v>593</v>
-      </c>
-      <c r="E275" s="23" t="s">
-        <v>594</v>
       </c>
       <c r="F275" s="22">
         <v>132</v>
@@ -37510,16 +37511,16 @@
         <v>275</v>
       </c>
       <c r="B276" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C276" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="D276" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="E276" s="23" t="s">
         <v>606</v>
-      </c>
-      <c r="D276" s="23" t="s">
-        <v>606</v>
-      </c>
-      <c r="E276" s="23" t="s">
-        <v>607</v>
       </c>
       <c r="F276" s="22">
         <v>175</v>
@@ -37629,16 +37630,16 @@
         <v>276</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C277" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E277" s="23" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F277" s="22">
         <v>112</v>
@@ -37748,16 +37749,16 @@
         <v>277</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C278" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="D278" s="23" t="s">
         <v>608</v>
       </c>
-      <c r="D278" s="23" t="s">
-        <v>609</v>
-      </c>
       <c r="E278" s="23" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F278" s="22">
         <v>142</v>
@@ -37867,16 +37868,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C279" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="D279" s="23" t="s">
         <v>596</v>
       </c>
-      <c r="D279" s="23" t="s">
+      <c r="E279" s="23" t="s">
         <v>597</v>
-      </c>
-      <c r="E279" s="23" t="s">
-        <v>598</v>
       </c>
       <c r="F279" s="22">
         <v>150</v>
@@ -37986,16 +37987,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="C280" s="21" t="s">
         <v>610</v>
       </c>
-      <c r="C280" s="21" t="s">
+      <c r="D280" s="21" t="s">
         <v>611</v>
       </c>
-      <c r="D280" s="21" t="s">
-        <v>612</v>
-      </c>
       <c r="E280" s="21" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F280" s="2">
         <v>180</v>
@@ -38105,16 +38106,16 @@
         <v>280</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C281" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E281" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F281" s="2">
         <v>184</v>
@@ -38224,22 +38225,22 @@
         <v>281</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C282" s="21" t="s">
+        <v>613</v>
+      </c>
+      <c r="D282" s="21" t="s">
         <v>614</v>
       </c>
-      <c r="D282" s="21" t="s">
+      <c r="E282" s="21" t="s">
         <v>615</v>
-      </c>
-      <c r="E282" s="21" t="s">
-        <v>616</v>
       </c>
       <c r="F282" s="2">
         <v>160</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H282" s="4">
         <v>6</v>
@@ -38343,16 +38344,16 @@
         <v>282</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C283" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="D283" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="D283" s="21" t="s">
-        <v>619</v>
-      </c>
       <c r="E283" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F283" s="2">
         <v>160</v>
@@ -38462,16 +38463,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C284" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="D284" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="D284" s="21" t="s">
+      <c r="E284" s="21" t="s">
         <v>621</v>
-      </c>
-      <c r="E284" s="21" t="s">
-        <v>622</v>
       </c>
       <c r="F284" s="2">
         <v>175</v>
@@ -38581,16 +38582,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C285" s="21" t="s">
+        <v>622</v>
+      </c>
+      <c r="D285" s="21" t="s">
         <v>623</v>
       </c>
-      <c r="D285" s="21" t="s">
-        <v>624</v>
-      </c>
       <c r="E285" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F285" s="2">
         <v>165</v>
@@ -38700,16 +38701,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C286" s="21" t="s">
+        <v>624</v>
+      </c>
+      <c r="D286" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="D286" s="21" t="s">
+      <c r="E286" s="21" t="s">
         <v>626</v>
-      </c>
-      <c r="E286" s="21" t="s">
-        <v>627</v>
       </c>
       <c r="F286" s="2">
         <v>140</v>
@@ -38819,16 +38820,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C287" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="D287" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="D287" s="21" t="s">
-        <v>629</v>
-      </c>
       <c r="E287" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F287" s="2">
         <v>125</v>
@@ -38938,16 +38939,16 @@
         <v>287</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C288" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="D288" s="21" t="s">
         <v>630</v>
       </c>
-      <c r="D288" s="21" t="s">
-        <v>631</v>
-      </c>
       <c r="E288" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F288" s="2">
         <v>145</v>
@@ -39057,22 +39058,22 @@
         <v>288</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C289" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="D289" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="D289" s="21" t="s">
+      <c r="E289" s="21" t="s">
         <v>633</v>
-      </c>
-      <c r="E289" s="21" t="s">
-        <v>634</v>
       </c>
       <c r="F289" s="2">
         <v>140</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H289" s="4">
         <v>2</v>
@@ -39176,16 +39177,16 @@
         <v>289</v>
       </c>
       <c r="B290" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="C290" s="18" t="s">
+        <v>895</v>
+      </c>
+      <c r="D290" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="C290" s="18" t="s">
-        <v>896</v>
-      </c>
-      <c r="D290" s="17" t="s">
+      <c r="E290" s="17" t="s">
         <v>637</v>
-      </c>
-      <c r="E290" s="17" t="s">
-        <v>638</v>
       </c>
       <c r="F290" s="2">
         <v>138</v>
@@ -39295,16 +39296,16 @@
         <v>290</v>
       </c>
       <c r="B291" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C291" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="D291" s="17" t="s">
         <v>639</v>
       </c>
-      <c r="D291" s="17" t="s">
+      <c r="E291" s="17" t="s">
         <v>640</v>
-      </c>
-      <c r="E291" s="17" t="s">
-        <v>641</v>
       </c>
       <c r="F291" s="2">
         <v>175</v>
@@ -39414,16 +39415,16 @@
         <v>291</v>
       </c>
       <c r="B292" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C292" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="D292" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="D292" s="17" t="s">
+      <c r="E292" s="17" t="s">
         <v>643</v>
-      </c>
-      <c r="E292" s="17" t="s">
-        <v>644</v>
       </c>
       <c r="F292" s="2">
         <v>156</v>
@@ -39533,16 +39534,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C293" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="D293" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="D293" s="17" t="s">
+      <c r="E293" s="17" t="s">
         <v>646</v>
-      </c>
-      <c r="E293" s="17" t="s">
-        <v>647</v>
       </c>
       <c r="F293" s="2">
         <v>190</v>
@@ -39652,16 +39653,16 @@
         <v>293</v>
       </c>
       <c r="B294" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C294" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D294" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="E294" s="17" t="s">
         <v>648</v>
-      </c>
-      <c r="D294" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="E294" s="17" t="s">
-        <v>649</v>
       </c>
       <c r="F294" s="2">
         <v>210</v>
@@ -39771,16 +39772,16 @@
         <v>294</v>
       </c>
       <c r="B295" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C295" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="D295" s="17" t="s">
         <v>650</v>
       </c>
-      <c r="D295" s="17" t="s">
+      <c r="E295" s="17" t="s">
         <v>651</v>
-      </c>
-      <c r="E295" s="17" t="s">
-        <v>652</v>
       </c>
       <c r="F295" s="2">
         <v>119</v>
@@ -39890,16 +39891,16 @@
         <v>295</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C296" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="D296" s="17" t="s">
         <v>653</v>
       </c>
-      <c r="D296" s="17" t="s">
+      <c r="E296" s="17" t="s">
         <v>654</v>
-      </c>
-      <c r="E296" s="17" t="s">
-        <v>655</v>
       </c>
       <c r="F296" s="2">
         <v>146</v>
@@ -40009,16 +40010,16 @@
         <v>296</v>
       </c>
       <c r="B297" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C297" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="D297" s="17" t="s">
         <v>656</v>
       </c>
-      <c r="D297" s="17" t="s">
+      <c r="E297" s="17" t="s">
         <v>657</v>
-      </c>
-      <c r="E297" s="17" t="s">
-        <v>658</v>
       </c>
       <c r="F297" s="2">
         <v>150</v>
@@ -40128,16 +40129,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C298" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="D298" s="17" t="s">
         <v>659</v>
       </c>
-      <c r="D298" s="17" t="s">
+      <c r="E298" s="17" t="s">
         <v>660</v>
-      </c>
-      <c r="E298" s="17" t="s">
-        <v>661</v>
       </c>
       <c r="F298" s="2">
         <v>175</v>
@@ -40247,16 +40248,16 @@
         <v>298</v>
       </c>
       <c r="B299" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C299" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="D299" s="17" t="s">
         <v>662</v>
       </c>
-      <c r="D299" s="17" t="s">
+      <c r="E299" s="17" t="s">
         <v>663</v>
-      </c>
-      <c r="E299" s="17" t="s">
-        <v>664</v>
       </c>
       <c r="F299" s="2">
         <v>256</v>
@@ -40366,16 +40367,16 @@
         <v>299</v>
       </c>
       <c r="B300" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C300" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="D300" s="17" t="s">
+        <v>664</v>
+      </c>
+      <c r="E300" s="17" t="s">
         <v>665</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>665</v>
-      </c>
-      <c r="E300" s="17" t="s">
-        <v>666</v>
       </c>
       <c r="F300" s="2">
         <v>176</v>
@@ -40485,22 +40486,22 @@
         <v>300</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C301" s="17" t="s">
+        <v>666</v>
+      </c>
+      <c r="D301" s="17" t="s">
         <v>667</v>
       </c>
-      <c r="D301" s="17" t="s">
+      <c r="E301" s="17" t="s">
         <v>668</v>
-      </c>
-      <c r="E301" s="17" t="s">
-        <v>669</v>
       </c>
       <c r="F301" s="2">
         <v>180</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H301" s="4">
         <v>5</v>
@@ -40604,16 +40605,16 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C302" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="D302" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="D302" s="17" t="s">
+      <c r="E302" s="17" t="s">
         <v>671</v>
-      </c>
-      <c r="E302" s="17" t="s">
-        <v>672</v>
       </c>
       <c r="F302" s="2">
         <v>185</v>
@@ -40723,16 +40724,16 @@
         <v>302</v>
       </c>
       <c r="B303" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C303" s="17" t="s">
+        <v>672</v>
+      </c>
+      <c r="D303" s="17" t="s">
         <v>673</v>
       </c>
-      <c r="D303" s="17" t="s">
-        <v>674</v>
-      </c>
       <c r="E303" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F303" s="2">
         <v>142</v>
@@ -40842,16 +40843,16 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C304" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E304" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F304" s="2">
         <v>205</v>
@@ -40961,16 +40962,16 @@
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C305" s="17" t="s">
+        <v>675</v>
+      </c>
+      <c r="D305" s="17" t="s">
         <v>676</v>
       </c>
-      <c r="D305" s="17" t="s">
+      <c r="E305" s="17" t="s">
         <v>677</v>
-      </c>
-      <c r="E305" s="17" t="s">
-        <v>678</v>
       </c>
       <c r="F305" s="2">
         <v>145</v>
@@ -41080,16 +41081,16 @@
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C306" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="D306" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="E306" s="17" t="s">
         <v>679</v>
-      </c>
-      <c r="D306" s="17" t="s">
-        <v>679</v>
-      </c>
-      <c r="E306" s="17" t="s">
-        <v>680</v>
       </c>
       <c r="F306" s="2">
         <v>140</v>
@@ -41199,16 +41200,16 @@
         <v>306</v>
       </c>
       <c r="B307" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C307" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="D307" s="17" t="s">
         <v>681</v>
       </c>
-      <c r="D307" s="17" t="s">
-        <v>682</v>
-      </c>
       <c r="E307" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F307" s="2">
         <v>160</v>
@@ -41318,22 +41319,22 @@
         <v>307</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C308" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="D308" s="17" t="s">
         <v>683</v>
       </c>
-      <c r="D308" s="17" t="s">
+      <c r="E308" s="17" t="s">
         <v>684</v>
-      </c>
-      <c r="E308" s="17" t="s">
-        <v>685</v>
       </c>
       <c r="F308" s="2">
         <v>290</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H308" s="4">
         <v>8</v>
@@ -41437,16 +41438,16 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C309" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="D309" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="E309" s="17" t="s">
         <v>687</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>687</v>
-      </c>
-      <c r="E309" s="17" t="s">
-        <v>688</v>
       </c>
       <c r="F309" s="2">
         <v>142</v>
@@ -41556,22 +41557,22 @@
         <v>309</v>
       </c>
       <c r="B310" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C310" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="D310" s="17" t="s">
         <v>689</v>
       </c>
-      <c r="D310" s="17" t="s">
-        <v>690</v>
-      </c>
       <c r="E310" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F310" s="2">
         <v>162</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H310" s="4">
         <v>4</v>
@@ -41675,16 +41676,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C311" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="D311" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="D311" s="17" t="s">
+      <c r="E311" s="17" t="s">
         <v>693</v>
-      </c>
-      <c r="E311" s="17" t="s">
-        <v>694</v>
       </c>
       <c r="F311" s="2">
         <v>185</v>
@@ -41794,16 +41795,16 @@
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C312" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="D312" s="17" t="s">
         <v>695</v>
       </c>
-      <c r="D312" s="17" t="s">
+      <c r="E312" s="17" t="s">
         <v>696</v>
-      </c>
-      <c r="E312" s="17" t="s">
-        <v>697</v>
       </c>
       <c r="F312" s="2">
         <v>191.91</v>
@@ -41913,22 +41914,22 @@
         <v>312</v>
       </c>
       <c r="B313" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C313" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="D313" s="17" t="s">
+        <v>697</v>
+      </c>
+      <c r="E313" s="17" t="s">
         <v>698</v>
-      </c>
-      <c r="D313" s="17" t="s">
-        <v>698</v>
-      </c>
-      <c r="E313" s="17" t="s">
-        <v>699</v>
       </c>
       <c r="F313" s="2">
         <v>301</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H313" s="4">
         <v>6</v>
@@ -42032,16 +42033,16 @@
         <v>313</v>
       </c>
       <c r="B314" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C314" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="D314" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="D314" s="17" t="s">
+      <c r="E314" s="17" t="s">
         <v>702</v>
-      </c>
-      <c r="E314" s="17" t="s">
-        <v>703</v>
       </c>
       <c r="F314" s="2">
         <v>140</v>
@@ -42151,16 +42152,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C315" s="17" t="s">
+        <v>703</v>
+      </c>
+      <c r="D315" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="D315" s="17" t="s">
-        <v>705</v>
-      </c>
       <c r="E315" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F315" s="2">
         <v>155</v>
@@ -42270,16 +42271,16 @@
         <v>315</v>
       </c>
       <c r="B316" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C316" s="17" t="s">
+        <v>705</v>
+      </c>
+      <c r="D316" s="17" t="s">
         <v>706</v>
       </c>
-      <c r="D316" s="17" t="s">
+      <c r="E316" s="17" t="s">
         <v>707</v>
-      </c>
-      <c r="E316" s="17" t="s">
-        <v>708</v>
       </c>
       <c r="F316" s="2">
         <v>120</v>
@@ -42389,16 +42390,16 @@
         <v>316</v>
       </c>
       <c r="B317" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C317" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="D317" s="17" t="s">
         <v>709</v>
       </c>
-      <c r="D317" s="17" t="s">
-        <v>710</v>
-      </c>
       <c r="E317" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F317" s="2">
         <v>128</v>
@@ -42508,22 +42509,22 @@
         <v>317</v>
       </c>
       <c r="B318" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C318" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="D318" s="17" t="s">
         <v>711</v>
       </c>
-      <c r="D318" s="17" t="s">
+      <c r="E318" s="17" t="s">
         <v>712</v>
-      </c>
-      <c r="E318" s="17" t="s">
-        <v>713</v>
       </c>
       <c r="F318" s="2">
         <v>220</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H318" s="4">
         <v>7</v>
@@ -42627,16 +42628,16 @@
         <v>318</v>
       </c>
       <c r="B319" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C319" s="17" t="s">
+        <v>714</v>
+      </c>
+      <c r="D319" s="17" t="s">
         <v>715</v>
       </c>
-      <c r="D319" s="17" t="s">
-        <v>716</v>
-      </c>
       <c r="E319" s="17" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F319" s="2">
         <v>280</v>
@@ -42746,16 +42747,16 @@
         <v>319</v>
       </c>
       <c r="B320" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C320" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="D320" s="17" t="s">
         <v>717</v>
       </c>
-      <c r="D320" s="17" t="s">
+      <c r="E320" s="17" t="s">
         <v>718</v>
-      </c>
-      <c r="E320" s="17" t="s">
-        <v>719</v>
       </c>
       <c r="F320" s="2">
         <v>220</v>
@@ -42865,16 +42866,16 @@
         <v>320</v>
       </c>
       <c r="B321" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C321" s="17" t="s">
+        <v>719</v>
+      </c>
+      <c r="D321" s="17" t="s">
         <v>720</v>
       </c>
-      <c r="D321" s="17" t="s">
+      <c r="E321" s="17" t="s">
         <v>721</v>
-      </c>
-      <c r="E321" s="17" t="s">
-        <v>722</v>
       </c>
       <c r="F321" s="2">
         <v>140</v>
@@ -42984,22 +42985,22 @@
         <v>321</v>
       </c>
       <c r="B322" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C322" s="17" t="s">
+        <v>722</v>
+      </c>
+      <c r="D322" s="17" t="s">
         <v>723</v>
       </c>
-      <c r="D322" s="17" t="s">
+      <c r="E322" s="17" t="s">
         <v>724</v>
-      </c>
-      <c r="E322" s="17" t="s">
-        <v>725</v>
       </c>
       <c r="F322" s="2">
         <v>185</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H322" s="4">
         <v>5</v>
@@ -43103,16 +43104,16 @@
         <v>322</v>
       </c>
       <c r="B323" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C323" s="17" t="s">
+        <v>726</v>
+      </c>
+      <c r="D323" s="17" t="s">
         <v>727</v>
       </c>
-      <c r="D323" s="17" t="s">
+      <c r="E323" s="17" t="s">
         <v>728</v>
-      </c>
-      <c r="E323" s="17" t="s">
-        <v>729</v>
       </c>
       <c r="F323" s="2">
         <v>126</v>
@@ -43222,16 +43223,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C324" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="D324" s="17" t="s">
+        <v>729</v>
+      </c>
+      <c r="E324" s="17" t="s">
         <v>730</v>
-      </c>
-      <c r="D324" s="17" t="s">
-        <v>730</v>
-      </c>
-      <c r="E324" s="17" t="s">
-        <v>731</v>
       </c>
       <c r="F324" s="2">
         <v>138</v>
@@ -43341,16 +43342,16 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C325" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="D325" s="17" t="s">
         <v>732</v>
       </c>
-      <c r="D325" s="17" t="s">
-        <v>733</v>
-      </c>
       <c r="E325" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F325" s="2">
         <v>170</v>
@@ -43460,16 +43461,16 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C326" s="17" t="s">
+        <v>733</v>
+      </c>
+      <c r="D326" s="17" t="s">
         <v>734</v>
       </c>
-      <c r="D326" s="17" t="s">
+      <c r="E326" s="17" t="s">
         <v>735</v>
-      </c>
-      <c r="E326" s="17" t="s">
-        <v>736</v>
       </c>
       <c r="F326" s="2">
         <v>106</v>
@@ -43579,16 +43580,16 @@
         <v>326</v>
       </c>
       <c r="B327" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C327" s="17" t="s">
+        <v>736</v>
+      </c>
+      <c r="D327" s="17" t="s">
         <v>737</v>
       </c>
-      <c r="D327" s="17" t="s">
+      <c r="E327" s="17" t="s">
         <v>738</v>
-      </c>
-      <c r="E327" s="17" t="s">
-        <v>739</v>
       </c>
       <c r="F327" s="2">
         <v>150</v>
@@ -43698,16 +43699,16 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C328" s="17" t="s">
+        <v>739</v>
+      </c>
+      <c r="D328" s="17" t="s">
         <v>740</v>
       </c>
-      <c r="D328" s="17" t="s">
+      <c r="E328" s="17" t="s">
         <v>741</v>
-      </c>
-      <c r="E328" s="17" t="s">
-        <v>742</v>
       </c>
       <c r="F328" s="2">
         <v>155</v>
@@ -43817,16 +43818,16 @@
         <v>328</v>
       </c>
       <c r="B329" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C329" s="17" t="s">
+        <v>742</v>
+      </c>
+      <c r="D329" s="17" t="s">
         <v>743</v>
       </c>
-      <c r="D329" s="17" t="s">
-        <v>744</v>
-      </c>
       <c r="E329" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F329" s="2">
         <v>192</v>
@@ -43936,16 +43937,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C330" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="D330" s="17" t="s">
         <v>745</v>
       </c>
-      <c r="D330" s="17" t="s">
+      <c r="E330" s="17" t="s">
         <v>746</v>
-      </c>
-      <c r="E330" s="17" t="s">
-        <v>747</v>
       </c>
       <c r="F330" s="2">
         <v>77</v>
@@ -44055,16 +44056,16 @@
         <v>330</v>
       </c>
       <c r="B331" s="17" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C331" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="D331" s="17" t="s">
         <v>748</v>
       </c>
-      <c r="D331" s="17" t="s">
-        <v>749</v>
-      </c>
       <c r="E331" s="17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F331" s="2">
         <v>185</v>
@@ -44174,16 +44175,16 @@
         <v>331</v>
       </c>
       <c r="B332" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="C332" s="16" t="s">
         <v>750</v>
       </c>
-      <c r="C332" s="16" t="s">
+      <c r="D332" s="16" t="s">
         <v>751</v>
       </c>
-      <c r="D332" s="16" t="s">
+      <c r="E332" s="16" t="s">
         <v>752</v>
-      </c>
-      <c r="E332" s="16" t="s">
-        <v>753</v>
       </c>
       <c r="F332" s="2">
         <v>140</v>
@@ -44293,16 +44294,16 @@
         <v>332</v>
       </c>
       <c r="B333" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C333" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="D333" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="D333" s="16" t="s">
-        <v>755</v>
-      </c>
       <c r="E333" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F333" s="2">
         <v>162</v>
@@ -44412,16 +44413,16 @@
         <v>333</v>
       </c>
       <c r="B334" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C334" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="D334" s="16" t="s">
         <v>756</v>
       </c>
-      <c r="D334" s="16" t="s">
+      <c r="E334" s="16" t="s">
         <v>757</v>
-      </c>
-      <c r="E334" s="16" t="s">
-        <v>758</v>
       </c>
       <c r="F334" s="2">
         <v>141</v>
@@ -44531,22 +44532,22 @@
         <v>334</v>
       </c>
       <c r="B335" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C335" s="16" t="s">
+        <v>758</v>
+      </c>
+      <c r="D335" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="D335" s="16" t="s">
-        <v>760</v>
-      </c>
       <c r="E335" s="16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F335" s="2">
         <v>116</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H335" s="4">
         <v>3</v>
@@ -44650,16 +44651,16 @@
         <v>335</v>
       </c>
       <c r="B336" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C336" s="16" t="s">
+        <v>761</v>
+      </c>
+      <c r="D336" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="D336" s="16" t="s">
+      <c r="E336" s="16" t="s">
         <v>763</v>
-      </c>
-      <c r="E336" s="16" t="s">
-        <v>764</v>
       </c>
       <c r="F336" s="2">
         <v>108</v>
@@ -44769,22 +44770,22 @@
         <v>336</v>
       </c>
       <c r="B337" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D337" s="16" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F337" s="2">
         <v>174</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H337" s="4">
         <v>2</v>
@@ -44888,22 +44889,22 @@
         <v>337</v>
       </c>
       <c r="B338" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C338" s="16" t="s">
+        <v>764</v>
+      </c>
+      <c r="D338" s="16" t="s">
         <v>765</v>
       </c>
-      <c r="D338" s="16" t="s">
-        <v>766</v>
-      </c>
       <c r="E338" s="16" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F338" s="2">
         <v>160</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H338" s="4">
         <v>4</v>
@@ -45007,16 +45008,16 @@
         <v>338</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C339" s="16" t="s">
+        <v>767</v>
+      </c>
+      <c r="D339" s="16" t="s">
         <v>768</v>
       </c>
-      <c r="D339" s="16" t="s">
+      <c r="E339" s="16" t="s">
         <v>769</v>
-      </c>
-      <c r="E339" s="16" t="s">
-        <v>770</v>
       </c>
       <c r="F339" s="2">
         <v>130</v>
@@ -45126,16 +45127,16 @@
         <v>339</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C340" s="16" t="s">
+        <v>770</v>
+      </c>
+      <c r="D340" s="16" t="s">
         <v>771</v>
       </c>
-      <c r="D340" s="16" t="s">
+      <c r="E340" s="16" t="s">
         <v>772</v>
-      </c>
-      <c r="E340" s="16" t="s">
-        <v>773</v>
       </c>
       <c r="F340" s="2">
         <v>150</v>
@@ -45245,16 +45246,16 @@
         <v>340</v>
       </c>
       <c r="B341" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C341" s="16" t="s">
+        <v>773</v>
+      </c>
+      <c r="D341" s="16" t="s">
         <v>774</v>
       </c>
-      <c r="D341" s="16" t="s">
-        <v>775</v>
-      </c>
       <c r="E341" s="16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F341" s="2">
         <v>140</v>
@@ -45364,22 +45365,22 @@
         <v>341</v>
       </c>
       <c r="B342" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C342" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="D342" s="16" t="s">
         <v>793</v>
       </c>
-      <c r="D342" s="16" t="s">
-        <v>794</v>
-      </c>
       <c r="E342" s="16" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F342" s="2">
         <v>105</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H342" s="4">
         <v>4</v>
@@ -45483,22 +45484,22 @@
         <v>342</v>
       </c>
       <c r="B343" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C343" s="16" t="s">
+        <v>775</v>
+      </c>
+      <c r="D343" s="16" t="s">
         <v>776</v>
       </c>
-      <c r="D343" s="16" t="s">
+      <c r="E343" s="16" t="s">
         <v>777</v>
-      </c>
-      <c r="E343" s="16" t="s">
-        <v>778</v>
       </c>
       <c r="F343" s="2">
         <v>145</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H343" s="4">
         <v>5</v>
@@ -45602,16 +45603,16 @@
         <v>343</v>
       </c>
       <c r="B344" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C344" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="D344" s="16" t="s">
         <v>780</v>
       </c>
-      <c r="D344" s="16" t="s">
-        <v>781</v>
-      </c>
       <c r="E344" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F344" s="2">
         <v>181</v>
@@ -45721,22 +45722,22 @@
         <v>344</v>
       </c>
       <c r="B345" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C345" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="D345" s="16" t="s">
         <v>782</v>
       </c>
-      <c r="D345" s="16" t="s">
-        <v>783</v>
-      </c>
       <c r="E345" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F345" s="2">
         <v>150</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H345" s="4">
         <v>5</v>
@@ -45840,16 +45841,16 @@
         <v>345</v>
       </c>
       <c r="B346" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C346" s="16" t="s">
+        <v>784</v>
+      </c>
+      <c r="D346" s="16" t="s">
         <v>785</v>
       </c>
-      <c r="D346" s="16" t="s">
+      <c r="E346" s="16" t="s">
         <v>786</v>
-      </c>
-      <c r="E346" s="16" t="s">
-        <v>787</v>
       </c>
       <c r="F346" s="2">
         <v>100</v>
@@ -45959,22 +45960,22 @@
         <v>346</v>
       </c>
       <c r="B347" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C347" s="16" t="s">
+        <v>787</v>
+      </c>
+      <c r="D347" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="D347" s="16" t="s">
-        <v>789</v>
-      </c>
       <c r="E347" s="16" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F347" s="2">
         <v>127</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H347" s="4">
         <v>4</v>
@@ -46078,16 +46079,16 @@
         <v>347</v>
       </c>
       <c r="B348" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C348" s="16" t="s">
+        <v>790</v>
+      </c>
+      <c r="D348" s="16" t="s">
         <v>791</v>
       </c>
-      <c r="D348" s="16" t="s">
-        <v>792</v>
-      </c>
       <c r="E348" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F348" s="2">
         <v>160</v>
@@ -46197,22 +46198,22 @@
         <v>348</v>
       </c>
       <c r="B349" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C349" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="D349" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="D349" s="16" t="s">
+      <c r="E349" s="16" t="s">
         <v>797</v>
-      </c>
-      <c r="E349" s="16" t="s">
-        <v>798</v>
       </c>
       <c r="F349" s="2">
         <v>155</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H349" s="4">
         <v>4</v>
@@ -46316,16 +46317,16 @@
         <v>349</v>
       </c>
       <c r="B350" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C350" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="D350" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="D350" s="16" t="s">
-        <v>801</v>
-      </c>
       <c r="E350" s="16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F350" s="2">
         <v>125</v>
@@ -46435,16 +46436,16 @@
         <v>350</v>
       </c>
       <c r="B351" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C351" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="D351" s="16" t="s">
         <v>802</v>
       </c>
-      <c r="D351" s="16" t="s">
-        <v>803</v>
-      </c>
       <c r="E351" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F351" s="2">
         <v>155</v>
@@ -46554,22 +46555,22 @@
         <v>351</v>
       </c>
       <c r="B352" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C352" s="16" t="s">
+        <v>803</v>
+      </c>
+      <c r="D352" s="16" t="s">
         <v>804</v>
       </c>
-      <c r="D352" s="16" t="s">
-        <v>805</v>
-      </c>
       <c r="E352" s="16" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F352" s="2">
         <v>140</v>
       </c>
       <c r="G352" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H352" s="4">
         <v>4</v>
@@ -46673,13 +46674,13 @@
         <v>352</v>
       </c>
       <c r="B353" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C353" s="16" t="s">
+        <v>806</v>
+      </c>
+      <c r="D353" s="16" t="s">
         <v>807</v>
-      </c>
-      <c r="D353" s="16" t="s">
-        <v>808</v>
       </c>
       <c r="E353" s="16" t="s">
         <v>163</v>
@@ -46792,22 +46793,22 @@
         <v>353</v>
       </c>
       <c r="B354" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="C354" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="C354" s="15" t="s">
+      <c r="D354" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="D354" s="15" t="s">
+      <c r="E354" s="15" t="s">
         <v>813</v>
-      </c>
-      <c r="E354" s="15" t="s">
-        <v>814</v>
       </c>
       <c r="F354" s="2">
         <v>185</v>
       </c>
       <c r="G354" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H354" s="4">
         <v>5</v>
@@ -46911,16 +46912,16 @@
         <v>354</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C355" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="D355" s="15" t="s">
         <v>816</v>
       </c>
-      <c r="D355" s="15" t="s">
+      <c r="E355" s="15" t="s">
         <v>817</v>
-      </c>
-      <c r="E355" s="15" t="s">
-        <v>818</v>
       </c>
       <c r="F355" s="2">
         <v>174</v>
@@ -47030,16 +47031,16 @@
         <v>355</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C356" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="D356" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="D356" s="15" t="s">
+      <c r="E356" s="15" t="s">
         <v>820</v>
-      </c>
-      <c r="E356" s="15" t="s">
-        <v>821</v>
       </c>
       <c r="F356" s="2">
         <v>128</v>
@@ -47149,22 +47150,22 @@
         <v>356</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C357" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="D357" s="15" t="s">
         <v>822</v>
       </c>
-      <c r="D357" s="15" t="s">
+      <c r="E357" s="15" t="s">
         <v>823</v>
-      </c>
-      <c r="E357" s="15" t="s">
-        <v>824</v>
       </c>
       <c r="F357" s="2">
         <v>192</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H357" s="4">
         <v>5</v>
@@ -47268,16 +47269,16 @@
         <v>357</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C358" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="D358" s="15" t="s">
         <v>826</v>
       </c>
-      <c r="D358" s="15" t="s">
-        <v>827</v>
-      </c>
       <c r="E358" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F358" s="2">
         <v>180</v>
@@ -47387,16 +47388,16 @@
         <v>358</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C359" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="D359" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="D359" s="15" t="s">
+      <c r="E359" s="15" t="s">
         <v>829</v>
-      </c>
-      <c r="E359" s="15" t="s">
-        <v>830</v>
       </c>
       <c r="F359" s="2">
         <v>175</v>
@@ -47506,16 +47507,16 @@
         <v>359</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C360" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="D360" s="15" t="s">
         <v>831</v>
       </c>
-      <c r="D360" s="15" t="s">
+      <c r="E360" s="15" t="s">
         <v>832</v>
-      </c>
-      <c r="E360" s="15" t="s">
-        <v>833</v>
       </c>
       <c r="F360" s="2">
         <v>189</v>
@@ -47625,16 +47626,16 @@
         <v>360</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C361" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="D361" s="15" t="s">
         <v>834</v>
       </c>
-      <c r="D361" s="15" t="s">
+      <c r="E361" s="15" t="s">
         <v>835</v>
-      </c>
-      <c r="E361" s="15" t="s">
-        <v>836</v>
       </c>
       <c r="F361" s="2">
         <v>188</v>
@@ -47744,16 +47745,16 @@
         <v>361</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C362" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="D362" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="D362" s="15" t="s">
+      <c r="E362" s="15" t="s">
         <v>838</v>
-      </c>
-      <c r="E362" s="15" t="s">
-        <v>839</v>
       </c>
       <c r="F362" s="2">
         <v>210</v>
@@ -47863,16 +47864,16 @@
         <v>362</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C363" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="D363" s="15" t="s">
         <v>840</v>
       </c>
-      <c r="D363" s="15" t="s">
+      <c r="E363" s="15" t="s">
         <v>841</v>
-      </c>
-      <c r="E363" s="15" t="s">
-        <v>842</v>
       </c>
       <c r="F363" s="2">
         <v>174</v>
@@ -47982,16 +47983,16 @@
         <v>363</v>
       </c>
       <c r="B364" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="C364" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="D364" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="E364" s="14" t="s">
         <v>885</v>
-      </c>
-      <c r="C364" s="14" t="s">
-        <v>888</v>
-      </c>
-      <c r="D364" s="14" t="s">
-        <v>889</v>
-      </c>
-      <c r="E364" s="14" t="s">
-        <v>886</v>
       </c>
       <c r="F364" s="2">
         <v>138</v>
@@ -48099,16 +48100,16 @@
         <v>364</v>
       </c>
       <c r="B365" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C365" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="D365" s="14" t="s">
         <v>890</v>
       </c>
-      <c r="D365" s="14" t="s">
+      <c r="E365" s="14" t="s">
         <v>891</v>
-      </c>
-      <c r="E365" s="14" t="s">
-        <v>892</v>
       </c>
       <c r="F365" s="2">
         <v>186</v>
@@ -48216,16 +48217,16 @@
         <v>365</v>
       </c>
       <c r="B366" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C366" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="D366" s="14" t="s">
         <v>893</v>
       </c>
-      <c r="D366" s="14" t="s">
+      <c r="E366" s="14" t="s">
         <v>894</v>
-      </c>
-      <c r="E366" s="14" t="s">
-        <v>895</v>
       </c>
       <c r="F366" s="2">
         <v>140</v>
@@ -48333,16 +48334,16 @@
         <v>366</v>
       </c>
       <c r="B367" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C367" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D367" s="14" t="s">
         <v>1034</v>
       </c>
-      <c r="D367" s="14" t="s">
-        <v>1035</v>
-      </c>
       <c r="E367" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F367" s="2">
         <v>110</v>
@@ -48450,16 +48451,16 @@
         <v>367</v>
       </c>
       <c r="B368" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C368" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="D368" s="14" t="s">
         <v>897</v>
       </c>
-      <c r="D368" s="14" t="s">
+      <c r="E368" s="14" t="s">
         <v>898</v>
-      </c>
-      <c r="E368" s="14" t="s">
-        <v>899</v>
       </c>
       <c r="F368" s="2">
         <v>130</v>
@@ -48567,16 +48568,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C369" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="D369" s="14" t="s">
         <v>900</v>
       </c>
-      <c r="D369" s="14" t="s">
+      <c r="E369" s="14" t="s">
         <v>901</v>
-      </c>
-      <c r="E369" s="14" t="s">
-        <v>902</v>
       </c>
       <c r="F369" s="2">
         <v>185</v>
@@ -48684,16 +48685,16 @@
         <v>369</v>
       </c>
       <c r="B370" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C370" s="14" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D370" s="14" t="s">
         <v>1063</v>
       </c>
-      <c r="D370" s="14" t="s">
-        <v>1064</v>
-      </c>
       <c r="E370" s="14" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F370" s="2">
         <v>142</v>
@@ -48801,16 +48802,16 @@
         <v>370</v>
       </c>
       <c r="B371" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C371" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="D371" s="14" t="s">
         <v>903</v>
       </c>
-      <c r="D371" s="14" t="s">
+      <c r="E371" s="14" t="s">
         <v>904</v>
-      </c>
-      <c r="E371" s="14" t="s">
-        <v>905</v>
       </c>
       <c r="F371" s="2">
         <v>195</v>
@@ -48918,16 +48919,16 @@
         <v>371</v>
       </c>
       <c r="B372" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C372" s="14" t="s">
+        <v>905</v>
+      </c>
+      <c r="D372" s="14" t="s">
         <v>906</v>
       </c>
-      <c r="D372" s="14" t="s">
+      <c r="E372" s="14" t="s">
         <v>907</v>
-      </c>
-      <c r="E372" s="14" t="s">
-        <v>908</v>
       </c>
       <c r="F372" s="2">
         <v>106</v>
@@ -49035,16 +49036,16 @@
         <v>372</v>
       </c>
       <c r="B373" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C373" s="14" t="s">
+        <v>908</v>
+      </c>
+      <c r="D373" s="14" t="s">
         <v>909</v>
       </c>
-      <c r="D373" s="14" t="s">
+      <c r="E373" s="14" t="s">
         <v>910</v>
-      </c>
-      <c r="E373" s="14" t="s">
-        <v>911</v>
       </c>
       <c r="F373" s="2">
         <v>180</v>
@@ -49152,16 +49153,16 @@
         <v>373</v>
       </c>
       <c r="B374" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C374" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="D374" s="14" t="s">
         <v>912</v>
       </c>
-      <c r="D374" s="14" t="s">
+      <c r="E374" s="14" t="s">
         <v>913</v>
-      </c>
-      <c r="E374" s="14" t="s">
-        <v>914</v>
       </c>
       <c r="F374" s="2">
         <v>135</v>
@@ -49269,22 +49270,22 @@
         <v>374</v>
       </c>
       <c r="B375" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C375" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="D375" s="14" t="s">
         <v>915</v>
       </c>
-      <c r="D375" s="14" t="s">
+      <c r="E375" s="14" t="s">
         <v>916</v>
-      </c>
-      <c r="E375" s="14" t="s">
-        <v>917</v>
       </c>
       <c r="F375" s="2">
         <v>133</v>
       </c>
       <c r="G375" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H375" s="4">
         <v>3</v>
@@ -49388,16 +49389,16 @@
         <v>375</v>
       </c>
       <c r="B376" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C376" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="D376" s="14" t="s">
         <v>919</v>
       </c>
-      <c r="D376" s="14" t="s">
+      <c r="E376" s="14" t="s">
         <v>920</v>
-      </c>
-      <c r="E376" s="14" t="s">
-        <v>921</v>
       </c>
       <c r="F376" s="2">
         <v>215</v>
@@ -49505,16 +49506,16 @@
         <v>376</v>
       </c>
       <c r="B377" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C377" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="D377" s="14" t="s">
         <v>922</v>
       </c>
-      <c r="D377" s="14" t="s">
+      <c r="E377" s="14" t="s">
         <v>923</v>
-      </c>
-      <c r="E377" s="14" t="s">
-        <v>924</v>
       </c>
       <c r="F377" s="2">
         <v>145</v>
@@ -49622,16 +49623,16 @@
         <v>377</v>
       </c>
       <c r="B378" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C378" s="14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D378" s="14" t="s">
         <v>1036</v>
       </c>
-      <c r="D378" s="14" t="s">
+      <c r="E378" s="14" t="s">
         <v>1037</v>
-      </c>
-      <c r="E378" s="14" t="s">
-        <v>1038</v>
       </c>
       <c r="F378" s="2">
         <v>126</v>
@@ -49739,16 +49740,16 @@
         <v>378</v>
       </c>
       <c r="B379" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C379" s="14" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D379" s="14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E379" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F379" s="2">
         <v>140</v>
@@ -49856,16 +49857,16 @@
         <v>379</v>
       </c>
       <c r="B380" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C380" s="14" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D380" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E380" s="14" t="s">
         <v>1065</v>
-      </c>
-      <c r="E380" s="14" t="s">
-        <v>1066</v>
       </c>
       <c r="F380" s="2">
         <v>150</v>
@@ -49973,16 +49974,16 @@
         <v>380</v>
       </c>
       <c r="B381" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D381" s="14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E381" s="14" t="s">
         <v>1046</v>
-      </c>
-      <c r="E381" s="14" t="s">
-        <v>1047</v>
       </c>
       <c r="F381" s="2">
         <v>200</v>
@@ -50090,16 +50091,16 @@
         <v>381</v>
       </c>
       <c r="B382" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C382" s="14" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D382" s="14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E382" s="14" t="s">
         <v>1067</v>
-      </c>
-      <c r="E382" s="14" t="s">
-        <v>1068</v>
       </c>
       <c r="F382" s="2">
         <v>180</v>
@@ -50207,16 +50208,16 @@
         <v>382</v>
       </c>
       <c r="B383" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D383" s="14" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E383" s="14" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F383" s="2">
         <v>175</v>
@@ -50324,16 +50325,16 @@
         <v>383</v>
       </c>
       <c r="B384" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C384" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="D384" s="14" t="s">
         <v>925</v>
       </c>
-      <c r="D384" s="14" t="s">
-        <v>926</v>
-      </c>
       <c r="E384" s="14" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F384" s="2">
         <v>125</v>
@@ -50441,16 +50442,16 @@
         <v>384</v>
       </c>
       <c r="B385" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C385" s="14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D385" s="14" t="s">
         <v>1070</v>
       </c>
-      <c r="D385" s="14" t="s">
+      <c r="E385" s="14" t="s">
         <v>1071</v>
-      </c>
-      <c r="E385" s="14" t="s">
-        <v>1072</v>
       </c>
       <c r="F385" s="2">
         <v>173</v>
@@ -50558,16 +50559,16 @@
         <v>385</v>
       </c>
       <c r="B386" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C386" s="14" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D386" s="14" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="E386" s="14" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F386" s="2">
         <v>169</v>
@@ -50675,16 +50676,16 @@
         <v>386</v>
       </c>
       <c r="B387" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C387" s="14" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D387" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E387" s="14" t="s">
         <v>1073</v>
-      </c>
-      <c r="E387" s="14" t="s">
-        <v>1074</v>
       </c>
       <c r="F387" s="2">
         <v>175</v>
@@ -50792,16 +50793,16 @@
         <v>387</v>
       </c>
       <c r="B388" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C388" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D388" s="14" t="s">
         <v>1075</v>
       </c>
-      <c r="D388" s="14" t="s">
+      <c r="E388" s="14" t="s">
         <v>1076</v>
-      </c>
-      <c r="E388" s="14" t="s">
-        <v>1077</v>
       </c>
       <c r="F388" s="2">
         <v>130</v>
@@ -50909,16 +50910,16 @@
         <v>388</v>
       </c>
       <c r="B389" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C389" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="D389" s="14" t="s">
         <v>927</v>
       </c>
-      <c r="D389" s="14" t="s">
-        <v>928</v>
-      </c>
       <c r="E389" s="14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F389" s="2">
         <v>182</v>
@@ -51026,16 +51027,16 @@
         <v>389</v>
       </c>
       <c r="B390" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D390" s="14" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E390" s="14" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F390" s="2">
         <v>150</v>
@@ -51143,16 +51144,16 @@
         <v>390</v>
       </c>
       <c r="B391" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C391" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="D391" s="14" t="s">
         <v>929</v>
       </c>
-      <c r="D391" s="14" t="s">
-        <v>930</v>
-      </c>
       <c r="E391" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F391" s="2">
         <v>150</v>
@@ -51260,16 +51261,16 @@
         <v>391</v>
       </c>
       <c r="B392" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C392" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="D392" s="14" t="s">
         <v>931</v>
       </c>
-      <c r="D392" s="14" t="s">
+      <c r="E392" s="14" t="s">
         <v>932</v>
-      </c>
-      <c r="E392" s="14" t="s">
-        <v>933</v>
       </c>
       <c r="F392" s="2">
         <v>130</v>
@@ -51377,16 +51378,16 @@
         <v>392</v>
       </c>
       <c r="B393" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C393" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="D393" s="14" t="s">
         <v>934</v>
       </c>
-      <c r="D393" s="14" t="s">
+      <c r="E393" s="14" t="s">
         <v>935</v>
-      </c>
-      <c r="E393" s="14" t="s">
-        <v>936</v>
       </c>
       <c r="F393" s="2">
         <v>145</v>
@@ -51494,16 +51495,16 @@
         <v>393</v>
       </c>
       <c r="B394" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C394" s="14" t="s">
+        <v>936</v>
+      </c>
+      <c r="D394" s="14" t="s">
         <v>937</v>
       </c>
-      <c r="D394" s="14" t="s">
-        <v>938</v>
-      </c>
       <c r="E394" s="14" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F394" s="2">
         <v>128</v>
@@ -51611,16 +51612,16 @@
         <v>394</v>
       </c>
       <c r="B395" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C395" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D395" s="14" t="s">
         <v>1049</v>
       </c>
-      <c r="D395" s="14" t="s">
+      <c r="E395" s="14" t="s">
         <v>1050</v>
-      </c>
-      <c r="E395" s="14" t="s">
-        <v>1051</v>
       </c>
       <c r="F395" s="2">
         <v>150</v>
@@ -51728,16 +51729,16 @@
         <v>395</v>
       </c>
       <c r="B396" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C396" s="14" t="s">
+        <v>938</v>
+      </c>
+      <c r="D396" s="14" t="s">
         <v>939</v>
       </c>
-      <c r="D396" s="14" t="s">
-        <v>940</v>
-      </c>
       <c r="E396" s="14" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F396" s="2">
         <v>138</v>
@@ -51845,16 +51846,16 @@
         <v>396</v>
       </c>
       <c r="B397" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D397" s="14" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E397" s="14" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F397" s="2">
         <v>128</v>
@@ -51962,16 +51963,16 @@
         <v>397</v>
       </c>
       <c r="B398" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D398" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E398" s="14" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F398" s="2">
         <v>176</v>
@@ -52079,16 +52080,16 @@
         <v>398</v>
       </c>
       <c r="B399" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D399" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E399" s="14" t="s">
         <v>1079</v>
-      </c>
-      <c r="E399" s="14" t="s">
-        <v>1080</v>
       </c>
       <c r="F399" s="2">
         <v>180</v>
@@ -52196,16 +52197,16 @@
         <v>399</v>
       </c>
       <c r="B400" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D400" s="14" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E400" s="14" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F400" s="2">
         <v>150</v>
@@ -52313,16 +52314,16 @@
         <v>400</v>
       </c>
       <c r="B401" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C401" s="14" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D401" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E401" s="14" t="s">
         <v>1081</v>
-      </c>
-      <c r="E401" s="14" t="s">
-        <v>1082</v>
       </c>
       <c r="F401" s="2">
         <v>180</v>
@@ -52430,16 +52431,16 @@
         <v>401</v>
       </c>
       <c r="B402" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C402" s="14" t="s">
+        <v>940</v>
+      </c>
+      <c r="D402" s="14" t="s">
         <v>941</v>
       </c>
-      <c r="D402" s="14" t="s">
-        <v>942</v>
-      </c>
       <c r="E402" s="14" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F402" s="2">
         <v>85</v>
@@ -52547,16 +52548,16 @@
         <v>402</v>
       </c>
       <c r="B403" s="19" t="s">
+        <v>943</v>
+      </c>
+      <c r="C403" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="D403" s="19" t="s">
         <v>944</v>
       </c>
-      <c r="C403" s="19" t="s">
-        <v>966</v>
-      </c>
-      <c r="D403" s="19" t="s">
+      <c r="E403" s="19" t="s">
         <v>945</v>
-      </c>
-      <c r="E403" s="19" t="s">
-        <v>946</v>
       </c>
       <c r="F403" s="2">
         <v>145</v>
@@ -52664,16 +52665,16 @@
         <v>403</v>
       </c>
       <c r="B404" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C404" s="19" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D404" s="19" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E404" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F404" s="2">
         <v>211</v>
@@ -52781,16 +52782,16 @@
         <v>404</v>
       </c>
       <c r="B405" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C405" s="19" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D405" s="19" t="s">
+        <v>947</v>
+      </c>
+      <c r="E405" s="19" t="s">
         <v>948</v>
-      </c>
-      <c r="E405" s="19" t="s">
-        <v>949</v>
       </c>
       <c r="F405" s="2">
         <v>200</v>
@@ -52898,16 +52899,16 @@
         <v>405</v>
       </c>
       <c r="B406" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C406" s="19" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D406" s="19" t="s">
+        <v>949</v>
+      </c>
+      <c r="E406" s="19" t="s">
         <v>950</v>
-      </c>
-      <c r="E406" s="19" t="s">
-        <v>951</v>
       </c>
       <c r="F406" s="2">
         <v>170</v>
@@ -53015,16 +53016,16 @@
         <v>406</v>
       </c>
       <c r="B407" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C407" s="19" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D407" s="19" t="s">
+        <v>951</v>
+      </c>
+      <c r="E407" s="19" t="s">
         <v>952</v>
-      </c>
-      <c r="E407" s="19" t="s">
-        <v>953</v>
       </c>
       <c r="F407" s="2">
         <v>132</v>
@@ -53132,16 +53133,16 @@
         <v>407</v>
       </c>
       <c r="B408" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C408" s="19" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D408" s="19" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E408" s="19" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F408" s="2">
         <v>150</v>
@@ -53249,16 +53250,16 @@
         <v>408</v>
       </c>
       <c r="B409" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C409" s="19" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D409" s="19" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E409" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F409" s="2">
         <v>110</v>
@@ -53366,16 +53367,16 @@
         <v>409</v>
       </c>
       <c r="B410" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C410" s="19" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D410" s="19" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E410" s="19" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F410" s="2">
         <v>178</v>
@@ -53483,16 +53484,16 @@
         <v>410</v>
       </c>
       <c r="B411" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C411" s="19" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D411" s="19" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E411" s="19" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="F411" s="2">
         <v>122</v>
@@ -53600,16 +53601,16 @@
         <v>411</v>
       </c>
       <c r="B412" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C412" s="19" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D412" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="E412" s="19" t="s">
         <v>958</v>
-      </c>
-      <c r="E412" s="19" t="s">
-        <v>959</v>
       </c>
       <c r="F412" s="2">
         <v>155</v>
@@ -53717,16 +53718,16 @@
         <v>412</v>
       </c>
       <c r="B413" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C413" s="19" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D413" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="E413" s="19" t="s">
         <v>960</v>
-      </c>
-      <c r="E413" s="19" t="s">
-        <v>961</v>
       </c>
       <c r="F413" s="2">
         <v>154</v>
@@ -53834,16 +53835,16 @@
         <v>413</v>
       </c>
       <c r="B414" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C414" s="19" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D414" s="19" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E414" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F414" s="2">
         <v>154</v>
@@ -53951,16 +53952,16 @@
         <v>414</v>
       </c>
       <c r="B415" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C415" s="19" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D415" s="19" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E415" s="19" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F415" s="2">
         <v>98</v>
@@ -54068,16 +54069,16 @@
         <v>415</v>
       </c>
       <c r="B416" s="19" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C416" s="19" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D416" s="19" t="s">
+        <v>963</v>
+      </c>
+      <c r="E416" s="19" t="s">
         <v>964</v>
-      </c>
-      <c r="E416" s="19" t="s">
-        <v>965</v>
       </c>
       <c r="F416" s="2">
         <v>142</v>
@@ -54185,16 +54186,16 @@
         <v>416</v>
       </c>
       <c r="B417" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="C417" s="20" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D417" s="20" t="s">
+        <v>897</v>
+      </c>
+      <c r="E417" s="20" t="s">
         <v>983</v>
-      </c>
-      <c r="C417" s="20" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D417" s="20" t="s">
-        <v>898</v>
-      </c>
-      <c r="E417" s="20" t="s">
-        <v>984</v>
       </c>
       <c r="F417" s="2">
         <v>150</v>
@@ -54302,16 +54303,16 @@
         <v>417</v>
       </c>
       <c r="B418" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C418" s="20" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D418" s="20" t="s">
+        <v>984</v>
+      </c>
+      <c r="E418" s="20" t="s">
         <v>985</v>
-      </c>
-      <c r="E418" s="20" t="s">
-        <v>986</v>
       </c>
       <c r="F418" s="2">
         <v>145</v>
@@ -54419,16 +54420,16 @@
         <v>418</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C419" s="20" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D419" s="20" t="s">
+        <v>986</v>
+      </c>
+      <c r="E419" s="20" t="s">
         <v>987</v>
-      </c>
-      <c r="E419" s="20" t="s">
-        <v>988</v>
       </c>
       <c r="F419" s="2">
         <v>108</v>
@@ -54536,16 +54537,16 @@
         <v>419</v>
       </c>
       <c r="B420" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C420" s="20" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D420" s="20" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E420" s="20" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F420" s="2">
         <v>155</v>
@@ -54653,16 +54654,16 @@
         <v>420</v>
       </c>
       <c r="B421" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C421" s="20" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D421" s="20" t="s">
+        <v>990</v>
+      </c>
+      <c r="E421" s="20" t="s">
         <v>991</v>
-      </c>
-      <c r="E421" s="20" t="s">
-        <v>992</v>
       </c>
       <c r="F421" s="2">
         <v>150</v>
@@ -54770,16 +54771,16 @@
         <v>421</v>
       </c>
       <c r="B422" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C422" s="20" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D422" s="20" t="s">
+        <v>992</v>
+      </c>
+      <c r="E422" s="20" t="s">
         <v>993</v>
-      </c>
-      <c r="E422" s="20" t="s">
-        <v>994</v>
       </c>
       <c r="F422" s="2">
         <v>175</v>
@@ -54887,16 +54888,16 @@
         <v>422</v>
       </c>
       <c r="B423" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C423" s="20" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D423" s="20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E423" s="20" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F423" s="2">
         <v>156</v>
@@ -55004,16 +55005,16 @@
         <v>423</v>
       </c>
       <c r="B424" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C424" s="20" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D424" s="20" t="s">
+        <v>996</v>
+      </c>
+      <c r="E424" s="20" t="s">
         <v>997</v>
-      </c>
-      <c r="E424" s="20" t="s">
-        <v>998</v>
       </c>
       <c r="F424" s="2">
         <v>136</v>
@@ -55121,16 +55122,16 @@
         <v>424</v>
       </c>
       <c r="B425" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C425" s="20" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D425" s="20" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E425" s="20" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F425" s="2">
         <v>141</v>
@@ -55238,16 +55239,16 @@
         <v>425</v>
       </c>
       <c r="B426" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C426" s="20" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D426" s="20" t="s">
+        <v>999</v>
+      </c>
+      <c r="E426" s="20" t="s">
         <v>1000</v>
-      </c>
-      <c r="E426" s="20" t="s">
-        <v>1001</v>
       </c>
       <c r="F426" s="2">
         <v>172</v>
@@ -55355,16 +55356,16 @@
         <v>426</v>
       </c>
       <c r="B427" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C427" s="20" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D427" s="20" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E427" s="20" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F427" s="2">
         <v>122</v>
@@ -55472,16 +55473,16 @@
         <v>427</v>
       </c>
       <c r="B428" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C428" s="20" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D428" s="20" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E428" s="20" t="s">
         <v>1003</v>
-      </c>
-      <c r="E428" s="20" t="s">
-        <v>1004</v>
       </c>
       <c r="F428" s="2">
         <v>130</v>
@@ -55589,16 +55590,16 @@
         <v>428</v>
       </c>
       <c r="B429" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C429" s="20" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D429" s="20" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="E429" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F429" s="2">
         <v>150</v>
@@ -55706,16 +55707,16 @@
         <v>429</v>
       </c>
       <c r="B430" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C430" s="20" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D430" s="20" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E430" s="20" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="F430" s="2">
         <v>136</v>
@@ -55823,16 +55824,16 @@
         <v>430</v>
       </c>
       <c r="B431" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C431" s="20" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D431" s="20" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E431" s="20" t="s">
         <v>1008</v>
-      </c>
-      <c r="E431" s="20" t="s">
-        <v>1009</v>
       </c>
       <c r="F431" s="2">
         <v>200</v>
@@ -55940,16 +55941,16 @@
         <v>431</v>
       </c>
       <c r="B432" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C432" s="20" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D432" s="20" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E432" s="20" t="s">
         <v>1010</v>
-      </c>
-      <c r="E432" s="20" t="s">
-        <v>1011</v>
       </c>
       <c r="F432" s="2">
         <v>129</v>
@@ -56057,16 +56058,16 @@
         <v>432</v>
       </c>
       <c r="B433" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C433" s="20" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D433" s="20" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E433" s="20" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F433" s="2">
         <v>144</v>
@@ -56174,16 +56175,16 @@
         <v>433</v>
       </c>
       <c r="B434" s="20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C434" s="20" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D434" s="20" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E434" s="20" t="s">
         <v>1014</v>
-      </c>
-      <c r="E434" s="20" t="s">
-        <v>1015</v>
       </c>
       <c r="F434" s="2">
         <v>148</v>
